--- a/Data/all_in_one_Time_sieries_data_color.xlsx
+++ b/Data/all_in_one_Time_sieries_data_color.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B507A-6708-4673-BB78-D0B535798073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D4A6F-528D-471E-941B-72F2299B7EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_data_together" sheetId="1" r:id="rId1"/>
     <sheet name="yearly-Usable" sheetId="2" r:id="rId2"/>
     <sheet name="quarterly-Homeless" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="39">
   <si>
     <t>Size_of_waiting_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,6 +185,24 @@
   <si>
     <t>hpimonthlyandqtlytables1to19</t>
   </si>
+  <si>
+    <t>Lower_quatile_House_price_and_earning_ratio</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>dwellings</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>1998 - Q1</t>
+  </si>
+  <si>
+    <t>1998 - Q2</t>
+  </si>
 </sst>
 </file>
 
@@ -193,15 +212,15 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot; &quot;General"/>
-    <numFmt numFmtId="178" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="182" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="192" formatCode="#,##0,\,\0\0\0\ ;[Red]\(#,##0,\);\-\ ;"/>
+    <numFmt numFmtId="167" formatCode="&quot; &quot;General"/>
+    <numFmt numFmtId="168" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="170" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="171" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="#,##0,\,\0\0\0\ ;[Red]\(#,##0,\);\-\ ;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -459,17 +478,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,7 +507,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -498,7 +517,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -511,14 +530,14 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="23" fillId="7" borderId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -909,7 +928,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -967,57 +986,108 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="3" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="10" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="58" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="5" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="5" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,58 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="192" fontId="3" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="58" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="58" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="10" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="216">
@@ -1606,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1642,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -2826,14 +2844,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43397F51-2696-4101-B143-2771814A5B96}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F100" sqref="E5:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="42"/>
-    <col min="4" max="4" width="19.08984375" style="42" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="37"/>
+    <col min="4" max="4" width="19.08984375" style="37" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" style="15" customWidth="1"/>
     <col min="6" max="9" width="8.7265625" style="15"/>
     <col min="10" max="11" width="8.7265625" style="6"/>
@@ -2845,21 +2863,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="53" t="s">
         <v>31</v>
       </c>
@@ -2869,21 +2887,21 @@
       <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="53" t="s">
         <v>28</v>
       </c>
@@ -2893,4222 +2911,4368 @@
       <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="104" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="32">
+      <c r="A5" s="27">
         <v>1998</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34">
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29">
         <v>47520</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="38">
         <v>1998</v>
       </c>
-      <c r="F5" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="49">
+      <c r="F5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="39">
         <v>80650</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="39">
         <v>56983</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="39">
         <v>101961</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="42">
         <v>1998</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="56">
+      <c r="K5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="40">
         <v>63070</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="41">
         <v>27280</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="41">
         <v>1410</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="41">
         <v>14150</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="41">
         <v>20220</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29">
         <v>49390</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="E6" s="38">
+        <v>1998</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="39">
         <v>83933</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="39">
         <v>62601</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="39">
         <v>104623</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="56">
+      <c r="J6" s="42"/>
+      <c r="K6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="40">
         <v>59350</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="41">
         <v>25590</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="41">
         <v>1390</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="41">
         <v>13320</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="41">
         <v>19050</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29">
         <v>52510</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="E7" s="38">
+        <v>1998</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="39">
         <v>88147</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="39">
         <v>68166</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="39">
         <v>106214</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="56">
+      <c r="J7" s="42"/>
+      <c r="K7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="40">
         <v>63430</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="41">
         <v>26870</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="41">
         <v>1710</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="41">
         <v>14330</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="41">
         <v>20510</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29">
         <v>53790</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="38">
+        <v>1998</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="39">
         <v>85731</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="39">
         <v>65388</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="39">
         <v>103880</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="40">
         <v>59520</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="41">
         <v>24890</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="41">
         <v>1610</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="41">
         <v>13680</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="41">
         <v>19340</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="32">
+      <c r="A9" s="27">
         <v>1999</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34">
+      <c r="B9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29">
         <v>56580</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="38">
         <v>1999</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="49">
+      <c r="F9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="39">
         <v>87294</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="39">
         <v>67864</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="39">
         <v>105585</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="42">
         <v>1999</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="56">
+      <c r="K9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="40">
         <v>62550</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="41">
         <v>26910</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="41">
         <v>1720</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="41">
         <v>14640</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="41">
         <v>19270</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29">
         <v>58430</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="49">
+      <c r="E10" s="38">
+        <v>1999</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="39">
         <v>93136</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="39">
         <v>74480</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="39">
         <v>109788</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="56">
+      <c r="J10" s="42"/>
+      <c r="K10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="40">
         <v>59920</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="41">
         <v>25970</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="41">
         <v>1610</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="41">
         <v>13530</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="41">
         <v>18810</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29">
         <v>61450</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="E11" s="38">
+        <v>1999</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="39">
         <v>100974</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="39">
         <v>76958</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="39">
         <v>120826</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="56">
+      <c r="J11" s="42"/>
+      <c r="K11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="40">
         <v>63330</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="41">
         <v>28020</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="41">
         <v>1900</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="41">
         <v>13750</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="41">
         <v>19660</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29">
         <v>62180</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="48" t="s">
+      <c r="E12" s="38">
+        <v>1999</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="39">
         <v>100250</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="39">
         <v>76813</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="39">
         <v>119856</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="40">
         <v>57500</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="41">
         <v>24470</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="41">
         <v>2100</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="41">
         <v>13230</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="41">
         <v>17700</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="32">
+      <c r="A13" s="27">
         <v>2000</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34">
+      <c r="B13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29">
         <v>65170</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="38">
         <v>2000</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="49">
+      <c r="F13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="39">
         <v>101606</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="39">
         <v>78355</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="39">
         <v>122425</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="42">
         <v>2000</v>
       </c>
-      <c r="K13" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="56">
+      <c r="K13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="40">
         <v>62490</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="41">
         <v>27120</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="41">
         <v>2270</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="41">
         <v>14260</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="41">
         <v>18840</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29">
         <v>67520</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="E14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="39">
         <v>107022</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="39">
         <v>81165</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="39">
         <v>126348</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="56">
+      <c r="J14" s="42"/>
+      <c r="K14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="40">
         <v>60330</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="41">
         <v>27590</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="41">
         <v>2110</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="41">
         <v>12760</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="41">
         <v>17880</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29">
         <v>71860</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="49">
+      <c r="E15" s="38">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="39">
         <v>108395</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="39">
         <v>79989</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="39">
         <v>129255</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="56">
+      <c r="J15" s="42"/>
+      <c r="K15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="40">
         <v>64080</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="41">
         <v>29210</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="41">
         <v>2410</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="41">
         <v>12640</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="41">
         <v>19820</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
         <v>73080</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48" t="s">
+      <c r="E16" s="38">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="39">
         <v>110201</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="39">
         <v>80620</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="39">
         <v>131677</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="40">
         <v>60280</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="41">
         <v>27420</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="41">
         <v>2070</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="41">
         <v>11950</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="41">
         <v>18840</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="32">
+      <c r="A17" s="27">
         <v>2001</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34">
+      <c r="B17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29">
         <v>75200</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="38">
         <v>2001</v>
       </c>
-      <c r="F17" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="49">
+      <c r="F17" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="39">
         <v>112931</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="39">
         <v>84567</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="39">
         <v>133691</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="42">
         <v>2001</v>
       </c>
-      <c r="K17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="56">
+      <c r="K17" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="40">
         <v>64880</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="41">
         <v>30450</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="41">
         <v>2060</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="41">
         <v>13760</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="41">
         <v>18610</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29">
         <v>75920</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="49">
+      <c r="E18" s="38">
+        <v>2001</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="39">
         <v>118927</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="39">
         <v>87587</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="39">
         <v>140681</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="56">
+      <c r="J18" s="42"/>
+      <c r="K18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="40">
         <v>62370</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="41">
         <v>28950</v>
       </c>
-      <c r="N18" s="57">
+      <c r="N18" s="41">
         <v>1970</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="41">
         <v>13240</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="41">
         <v>18210</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29">
         <v>77800</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="49">
+      <c r="E19" s="38">
+        <v>2001</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="39">
         <v>124379</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="39">
         <v>93085</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="39">
         <v>146020</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="56">
+      <c r="J19" s="42"/>
+      <c r="K19" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="40">
         <v>67160</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="41">
         <v>30590</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="41">
         <v>2200</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="41">
         <v>14290</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="41">
         <v>20080</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34">
+      <c r="C20" s="30"/>
+      <c r="D20" s="29">
         <v>77510</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="48" t="s">
+      <c r="E20" s="38">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="39">
         <v>119682</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="39">
         <v>92928</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="39">
         <v>137307</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="40">
         <v>60670</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="41">
         <v>27840</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="41">
         <v>2190</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="41">
         <v>13040</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="41">
         <v>17600</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="32">
+      <c r="A21" s="27">
         <v>2002</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34">
+      <c r="B21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29">
         <v>80200</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="38">
         <v>2002</v>
       </c>
-      <c r="F21" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="49">
+      <c r="F21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="39">
         <v>120711</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="39">
         <v>96152</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="39">
         <v>132851</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="42">
         <v>2002</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="56">
+      <c r="K21" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="40">
         <v>63850</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="41">
         <v>29280</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="41">
         <v>2180</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="41">
         <v>14340</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="41">
         <v>18050</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29">
         <v>81660</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="49">
+      <c r="E22" s="38">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="39">
         <v>134149</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="39">
         <v>106288</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="39">
         <v>145322</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="56">
+      <c r="J22" s="42"/>
+      <c r="K22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="40">
         <v>66090</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="41">
         <v>30460</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="41">
         <v>2130</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="41">
         <v>14560</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="41">
         <v>18940</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29">
         <v>85010</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="49">
+      <c r="E23" s="38">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="39">
         <v>145378</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="39">
         <v>118924</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="39">
         <v>158022</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="56">
+      <c r="J23" s="42"/>
+      <c r="K23" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="40">
         <v>71910</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="41">
         <v>33310</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="41">
         <v>2570</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="41">
         <v>16020</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="41">
         <v>20010</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34">
+      <c r="C24" s="30"/>
+      <c r="D24" s="29">
         <v>85140</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="38">
+        <v>2002</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="39">
         <v>144636</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="39">
         <v>119412</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="39">
         <v>155558</v>
       </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59" t="s">
+      <c r="J24" s="42"/>
+      <c r="K24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="40">
         <v>67490</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="41">
         <v>30790</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="41">
         <v>2580</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="41">
         <v>15250</v>
       </c>
-      <c r="P24" s="57">
+      <c r="P24" s="41">
         <v>18870</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="32">
+      <c r="A25" s="27">
         <v>2003</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="34">
+      <c r="B25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29">
         <v>89040</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="38">
         <v>2003</v>
       </c>
-      <c r="F25" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="49">
+      <c r="F25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="39">
         <v>144166</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="39">
         <v>112940</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="39">
         <v>152763</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="42">
         <v>2003</v>
       </c>
-      <c r="K25" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="56">
+      <c r="K25" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="40">
         <v>73640</v>
       </c>
-      <c r="M25" s="57">
+      <c r="M25" s="41">
         <v>33980</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="41">
         <v>2700</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="41">
         <v>17150</v>
       </c>
-      <c r="P25" s="57">
+      <c r="P25" s="41">
         <v>19810</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29">
         <v>91870</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="49">
+      <c r="E26" s="38">
+        <v>2003</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="39">
         <v>153301</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="39">
         <v>118348</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="39">
         <v>164226</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="56">
+      <c r="J26" s="42"/>
+      <c r="K26" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="40">
         <v>72070</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="41">
         <v>34090</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="41">
         <v>2910</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="41">
         <v>16090</v>
       </c>
-      <c r="P26" s="57">
+      <c r="P26" s="41">
         <v>18990</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29">
         <v>94440</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="49">
+      <c r="E27" s="38">
+        <v>2003</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="39">
         <v>174437</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="39">
         <v>122525</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="39">
         <v>185258</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="56">
+      <c r="J27" s="42"/>
+      <c r="K27" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="40">
         <v>79710</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="41">
         <v>35770</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N27" s="41">
         <v>3210</v>
       </c>
-      <c r="O27" s="57">
+      <c r="O27" s="41">
         <v>17700</v>
       </c>
-      <c r="P27" s="57">
+      <c r="P27" s="41">
         <v>23030</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34">
+      <c r="C28" s="30"/>
+      <c r="D28" s="29">
         <v>94610</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="38">
+        <v>2003</v>
+      </c>
+      <c r="F28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="39">
         <v>176847</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="39">
         <v>126527</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="39">
         <v>187307</v>
       </c>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59" t="s">
+      <c r="J28" s="42"/>
+      <c r="K28" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="40">
         <v>71550</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="41">
         <v>31750</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="41">
         <v>3410</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="41">
         <v>16180</v>
       </c>
-      <c r="P28" s="57">
+      <c r="P28" s="41">
         <v>20210</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="32">
+      <c r="A29" s="27">
         <v>2004</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="34">
+      <c r="B29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29">
         <v>97680</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="38">
         <v>2004</v>
       </c>
-      <c r="F29" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="49">
+      <c r="F29" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="39">
         <v>179479</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="39">
         <v>129251</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="39">
         <v>191345</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="42">
         <v>2004</v>
       </c>
-      <c r="K29" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="56">
+      <c r="K29" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="40">
         <v>75060</v>
       </c>
-      <c r="M29" s="57">
+      <c r="M29" s="41">
         <v>33820</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="41">
         <v>3400</v>
       </c>
-      <c r="O29" s="57">
+      <c r="O29" s="41">
         <v>17750</v>
       </c>
-      <c r="P29" s="57">
+      <c r="P29" s="41">
         <v>20100</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="29">
         <v>99530</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="49">
+      <c r="E30" s="38">
+        <v>2004</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="39">
         <v>189063</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="39">
         <v>137745</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="39">
         <v>198482</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="56">
+      <c r="J30" s="42"/>
+      <c r="K30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="40">
         <v>71150</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="41">
         <v>32900</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="41">
         <v>3290</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="41">
         <v>15680</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="41">
         <v>19290</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29">
         <v>101300</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="49">
+      <c r="E31" s="38">
+        <v>2004</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="39">
         <v>201071</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="39">
         <v>145187</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="39">
         <v>212141</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="56">
+      <c r="J31" s="42"/>
+      <c r="K31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="40">
         <v>71110</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="41">
         <v>32150</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="41">
         <v>3550</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="41">
         <v>15500</v>
       </c>
-      <c r="P31" s="57">
+      <c r="P31" s="41">
         <v>19910</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34">
+      <c r="C32" s="30"/>
+      <c r="D32" s="29">
         <v>101030</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="38">
+        <v>2004</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="39">
         <v>198395</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="39">
         <v>146108</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="39">
         <v>209814</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59" t="s">
+      <c r="J32" s="42"/>
+      <c r="K32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L32" s="40">
         <v>64140</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="41">
         <v>28890</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="41">
         <v>3400</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="41">
         <v>14370</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="41">
         <v>17480</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="32">
+      <c r="A33" s="27">
         <v>2005</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34">
+      <c r="B33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="29">
         <v>101070</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="38">
         <v>2005</v>
       </c>
-      <c r="F33" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="49">
+      <c r="F33" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="39">
         <v>198752</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="39">
         <v>147490</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="39">
         <v>210730</v>
       </c>
-      <c r="J33" s="58">
+      <c r="J33" s="42">
         <v>2005</v>
       </c>
-      <c r="K33" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="56">
+      <c r="K33" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="40">
         <v>60480</v>
       </c>
-      <c r="M33" s="57">
+      <c r="M33" s="41">
         <v>26920</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="41">
         <v>3570</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="41">
         <v>13640</v>
       </c>
-      <c r="P33" s="57">
+      <c r="P33" s="41">
         <v>16350</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="34">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="29">
         <v>100970</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="49">
+      <c r="E34" s="38">
+        <v>2005</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="39">
         <v>202223</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="39">
         <v>152772</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="39">
         <v>212500</v>
       </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="56">
+      <c r="J34" s="42"/>
+      <c r="K34" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="40">
         <v>61300</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="41">
         <v>27310</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="41">
         <v>3400</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="41">
         <v>13040</v>
       </c>
-      <c r="P34" s="57">
+      <c r="P34" s="41">
         <v>17540</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="34">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="29">
         <v>101020</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="49">
+      <c r="E35" s="38">
+        <v>2005</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="39">
         <v>210734</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="39">
         <v>154572</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="39">
         <v>228008</v>
       </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="56">
+      <c r="J35" s="42"/>
+      <c r="K35" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="40">
         <v>56270</v>
       </c>
-      <c r="M35" s="57">
+      <c r="M35" s="41">
         <v>24800</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="41">
         <v>3650</v>
       </c>
-      <c r="O35" s="57">
+      <c r="O35" s="41">
         <v>11760</v>
       </c>
-      <c r="P35" s="57">
+      <c r="P35" s="41">
         <v>16060</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="34">
+      <c r="C36" s="30"/>
+      <c r="D36" s="29">
         <v>98730</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="48" t="s">
+      <c r="E36" s="38">
+        <v>2005</v>
+      </c>
+      <c r="F36" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="39">
         <v>197926</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="39">
         <v>143283</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="39">
         <v>232806</v>
       </c>
-      <c r="J36" s="58"/>
-      <c r="K36" s="59" t="s">
+      <c r="J36" s="42"/>
+      <c r="K36" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="40">
         <v>49210</v>
       </c>
-      <c r="M36" s="57">
+      <c r="M36" s="41">
         <v>21140</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N36" s="41">
         <v>3210</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="41">
         <v>10550</v>
       </c>
-      <c r="P36" s="57">
+      <c r="P36" s="41">
         <v>14320</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="32">
+      <c r="A37" s="27">
         <v>2006</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="34">
+      <c r="B37" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="29">
         <v>96370</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="38">
         <v>2006</v>
       </c>
-      <c r="F37" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="49">
+      <c r="F37" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="39">
         <v>202725</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="39">
         <v>145482</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="39">
         <v>238171</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J37" s="42">
         <v>2006</v>
       </c>
-      <c r="K37" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="56">
+      <c r="K37" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="40">
         <v>46490</v>
       </c>
-      <c r="M37" s="57">
+      <c r="M37" s="41">
         <v>20730</v>
       </c>
-      <c r="N37" s="57">
+      <c r="N37" s="41">
         <v>3000</v>
       </c>
-      <c r="O37" s="57">
+      <c r="O37" s="41">
         <v>10190</v>
       </c>
-      <c r="P37" s="57">
+      <c r="P37" s="41">
         <v>12580</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="34">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="29">
         <v>93910</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="49">
+      <c r="E38" s="38">
+        <v>2006</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="39">
         <v>208911</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="39">
         <v>151879</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="39">
         <v>241902</v>
       </c>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="56">
+      <c r="J38" s="42"/>
+      <c r="K38" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="40">
         <v>41700</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="41">
         <v>19430</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="41">
         <v>2780</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="41">
         <v>8530</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="41">
         <v>10970</v>
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="34">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="29">
         <v>93090</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="49">
+      <c r="E39" s="38">
+        <v>2006</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="39">
         <v>223419</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="39">
         <v>159226</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="39">
         <v>259079</v>
       </c>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="56">
+      <c r="J39" s="42"/>
+      <c r="K39" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="40">
         <v>42590</v>
       </c>
-      <c r="M39" s="57">
+      <c r="M39" s="41">
         <v>19390</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N39" s="41">
         <v>2890</v>
       </c>
-      <c r="O39" s="57">
+      <c r="O39" s="41">
         <v>8200</v>
       </c>
-      <c r="P39" s="57">
+      <c r="P39" s="41">
         <v>12110</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="34">
+      <c r="C40" s="30"/>
+      <c r="D40" s="29">
         <v>89510</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="48" t="s">
+      <c r="E40" s="38">
+        <v>2006</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="39">
         <v>221124</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="39">
         <v>158419</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="39">
         <v>254765</v>
       </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59" t="s">
+      <c r="J40" s="42"/>
+      <c r="K40" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="40">
         <v>37740</v>
       </c>
-      <c r="M40" s="57">
+      <c r="M40" s="41">
         <v>17310</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N40" s="41">
         <v>2740</v>
       </c>
-      <c r="O40" s="57">
+      <c r="O40" s="41">
         <v>6990</v>
       </c>
-      <c r="P40" s="57">
+      <c r="P40" s="41">
         <v>10700</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="32">
+      <c r="A41" s="27">
         <v>2007</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="34">
+      <c r="B41" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="29">
         <v>87120</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="38">
         <v>2007</v>
       </c>
-      <c r="F41" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="49">
+      <c r="F41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="39">
         <v>225914</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="39">
         <v>161324</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="39">
         <v>261910</v>
       </c>
-      <c r="J41" s="58">
+      <c r="J41" s="42">
         <v>2007</v>
       </c>
-      <c r="K41" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="56">
+      <c r="K41" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="40">
         <v>37300</v>
       </c>
-      <c r="M41" s="57">
+      <c r="M41" s="41">
         <v>17230</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N41" s="41">
         <v>2520</v>
       </c>
-      <c r="O41" s="57">
+      <c r="O41" s="41">
         <v>7420</v>
       </c>
-      <c r="P41" s="57">
+      <c r="P41" s="41">
         <v>10140</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="34">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="29">
         <v>84900</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="49">
+      <c r="E42" s="38">
+        <v>2007</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="39">
         <v>227127</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="39">
         <v>165581</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="39">
         <v>261519</v>
       </c>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="56">
+      <c r="J42" s="42"/>
+      <c r="K42" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="40">
         <v>34040</v>
       </c>
-      <c r="M42" s="57">
+      <c r="M42" s="41">
         <v>15960</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N42" s="41">
         <v>2410</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="41">
         <v>6310</v>
       </c>
-      <c r="P42" s="57">
+      <c r="P42" s="41">
         <v>9370</v>
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="34">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="29">
         <v>82750</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="49">
+      <c r="E43" s="38">
+        <v>2007</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="39">
         <v>240966.19585533286</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="39">
         <v>171579.00216650762</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="39">
         <v>277482.42947249807</v>
       </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" s="56">
+      <c r="J43" s="42"/>
+      <c r="K43" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="40">
         <v>35200</v>
       </c>
-      <c r="M43" s="57">
+      <c r="M43" s="41">
         <v>16540</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N43" s="41">
         <v>2570</v>
       </c>
-      <c r="O43" s="57">
+      <c r="O43" s="41">
         <v>6140</v>
       </c>
-      <c r="P43" s="57">
+      <c r="P43" s="41">
         <v>9950</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="34">
+      <c r="C44" s="30"/>
+      <c r="D44" s="29">
         <v>79500</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="38">
+        <v>2007</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="39">
         <v>234209.24283029581</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H44" s="39">
         <v>167624.72270101547</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="39">
         <v>270088.41164830787</v>
       </c>
-      <c r="J44" s="58"/>
-      <c r="K44" s="59" t="s">
+      <c r="J44" s="42"/>
+      <c r="K44" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="40">
         <v>31150</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="41">
         <v>15240</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="41">
         <v>2420</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="41">
         <v>4760</v>
       </c>
-      <c r="P44" s="57">
+      <c r="P44" s="41">
         <v>8730</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="32">
+      <c r="A45" s="27">
         <v>2008</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="34">
+      <c r="B45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="29">
         <v>77510</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="38">
         <v>2008</v>
       </c>
-      <c r="F45" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="49">
+      <c r="F45" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="39">
         <v>236383.48444642569</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="39">
         <v>167532.17291768282</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="39">
         <v>274907.83896919928</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J45" s="42">
         <v>2008</v>
       </c>
-      <c r="K45" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="56">
+      <c r="K45" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="40">
         <v>30450</v>
       </c>
-      <c r="M45" s="57">
+      <c r="M45" s="41">
         <v>15430</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="41">
         <v>2160</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="41">
         <v>4590</v>
       </c>
-      <c r="P45" s="57">
+      <c r="P45" s="41">
         <v>8270</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="34">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="29">
         <v>74690</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="49">
+      <c r="E46" s="38">
+        <v>2008</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="39">
         <v>237799.35917276281</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="39">
         <v>173808.19075048572</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I46" s="39">
         <v>272474.51051382424</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="56">
+      <c r="J46" s="42"/>
+      <c r="K46" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="40">
         <v>30440</v>
       </c>
-      <c r="M46" s="57">
+      <c r="M46" s="41">
         <v>15680</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="41">
         <v>2260</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="41">
         <v>4230</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="41">
         <v>8280</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="34">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29">
         <v>72130</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="49">
+      <c r="E47" s="38">
+        <v>2008</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="39">
         <v>243573.44906650123</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="39">
         <v>175617.28843200486</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="39">
         <v>279449.75779409439</v>
       </c>
-      <c r="J47" s="58"/>
-      <c r="K47" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="56">
+      <c r="J47" s="42"/>
+      <c r="K47" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="40">
         <v>30040</v>
       </c>
-      <c r="M47" s="57">
+      <c r="M47" s="41">
         <v>14340</v>
       </c>
-      <c r="N47" s="57">
+      <c r="N47" s="41">
         <v>2370</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="41">
         <v>4560</v>
       </c>
-      <c r="P47" s="57">
+      <c r="P47" s="41">
         <v>8780</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="34">
+      <c r="C48" s="30"/>
+      <c r="D48" s="29">
         <v>67480</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="48" t="s">
+      <c r="E48" s="38">
+        <v>2008</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="39">
         <v>230691.91342468504</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="39">
         <v>163947.8592634236</v>
       </c>
-      <c r="I48" s="49">
+      <c r="I48" s="39">
         <v>267106.46806517354</v>
       </c>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59" t="s">
+      <c r="J48" s="42"/>
+      <c r="K48" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="56">
+      <c r="L48" s="40">
         <v>26530</v>
       </c>
-      <c r="M48" s="57">
+      <c r="M48" s="41">
         <v>12070</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="41">
         <v>2100</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="41">
         <v>4090</v>
       </c>
-      <c r="P48" s="57">
+      <c r="P48" s="41">
         <v>8270</v>
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="32">
+      <c r="A49" s="27">
         <v>2009</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="34">
+      <c r="B49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="29">
         <v>64000</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="38">
         <v>2009</v>
       </c>
-      <c r="F49" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="49">
+      <c r="F49" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="39">
         <v>224848.72128158101</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="39">
         <v>160528.77668662189</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I49" s="39">
         <v>264477.36913262523</v>
       </c>
-      <c r="J49" s="58">
+      <c r="J49" s="42">
         <v>2009</v>
       </c>
-      <c r="K49" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="56">
+      <c r="K49" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="40">
         <v>25890</v>
       </c>
-      <c r="M49" s="57">
+      <c r="M49" s="41">
         <v>11350</v>
       </c>
-      <c r="N49" s="57">
+      <c r="N49" s="41">
         <v>1910</v>
       </c>
-      <c r="O49" s="57">
+      <c r="O49" s="41">
         <v>4610</v>
       </c>
-      <c r="P49" s="57">
+      <c r="P49" s="41">
         <v>8020</v>
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="34">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="29">
         <v>60230</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="49">
+      <c r="E50" s="38">
+        <v>2009</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="39">
         <v>223375.67226748742</v>
       </c>
-      <c r="H50" s="49">
+      <c r="H50" s="39">
         <v>162935.86666469826</v>
       </c>
-      <c r="I50" s="49">
+      <c r="I50" s="39">
         <v>257710.45960977694</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="56">
+      <c r="J50" s="42"/>
+      <c r="K50" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="40">
         <v>23560</v>
       </c>
-      <c r="M50" s="57">
+      <c r="M50" s="41">
         <v>10650</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="41">
         <v>1760</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="41">
         <v>3930</v>
       </c>
-      <c r="P50" s="57">
+      <c r="P50" s="41">
         <v>7220</v>
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="34">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="29">
         <v>56920</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="49">
+      <c r="E51" s="38">
+        <v>2009</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="39">
         <v>243928.59097007019</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="39">
         <v>177665.9521429801</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I51" s="39">
         <v>278921.47469352139</v>
       </c>
-      <c r="J51" s="58"/>
-      <c r="K51" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="56">
+      <c r="J51" s="42"/>
+      <c r="K51" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="40">
         <v>22950</v>
       </c>
-      <c r="M51" s="57">
+      <c r="M51" s="41">
         <v>10360</v>
       </c>
-      <c r="N51" s="57">
+      <c r="N51" s="41">
         <v>1640</v>
       </c>
-      <c r="O51" s="57">
+      <c r="O51" s="41">
         <v>3890</v>
       </c>
-      <c r="P51" s="57">
+      <c r="P51" s="41">
         <v>7070</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="34">
+      <c r="C52" s="30"/>
+      <c r="D52" s="29">
         <v>53370</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="48" t="s">
+      <c r="E52" s="38">
+        <v>2009</v>
+      </c>
+      <c r="F52" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="39">
         <v>241894.85544066262</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="39">
         <v>182383.71011793011</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="39">
         <v>272496.63101728022</v>
       </c>
-      <c r="J52" s="58"/>
-      <c r="K52" s="59" t="s">
+      <c r="J52" s="42"/>
+      <c r="K52" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="56">
+      <c r="L52" s="40">
         <v>21200</v>
       </c>
-      <c r="M52" s="57">
+      <c r="M52" s="41">
         <v>9430</v>
       </c>
-      <c r="N52" s="57">
+      <c r="N52" s="41">
         <v>1560</v>
       </c>
-      <c r="O52" s="57">
+      <c r="O52" s="41">
         <v>3810</v>
       </c>
-      <c r="P52" s="57">
+      <c r="P52" s="41">
         <v>6400</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="32">
+      <c r="A53" s="27">
         <v>2010</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="34">
+      <c r="B53" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="29">
         <v>51310</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="38">
         <v>2010</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="49">
+      <c r="F53" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="39">
         <v>262740.91254881129</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H53" s="39">
         <v>192731.41537192444</v>
       </c>
-      <c r="I53" s="49">
+      <c r="I53" s="39">
         <v>296382.75050092227</v>
       </c>
-      <c r="J53" s="58">
+      <c r="J53" s="42">
         <v>2010</v>
       </c>
-      <c r="K53" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="56">
+      <c r="K53" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="40">
         <v>21410</v>
       </c>
-      <c r="M53" s="57">
+      <c r="M53" s="41">
         <v>9590</v>
       </c>
-      <c r="N53" s="57">
+      <c r="N53" s="41">
         <v>1610</v>
       </c>
-      <c r="O53" s="57">
+      <c r="O53" s="41">
         <v>4200</v>
       </c>
-      <c r="P53" s="57">
+      <c r="P53" s="41">
         <v>6020</v>
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="34">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="29">
         <v>50400</v>
       </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="49">
+      <c r="E54" s="38">
+        <v>2010</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="39">
         <v>259468.55516312143</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="39">
         <v>194402.30539779784</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I54" s="39">
         <v>291181.36944388348</v>
       </c>
-      <c r="J54" s="58"/>
-      <c r="K54" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="56">
+      <c r="J54" s="42"/>
+      <c r="K54" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="40">
         <v>22850</v>
       </c>
-      <c r="M54" s="57">
+      <c r="M54" s="41">
         <v>10100</v>
       </c>
-      <c r="N54" s="57">
+      <c r="N54" s="41">
         <v>1570</v>
       </c>
-      <c r="O54" s="57">
+      <c r="O54" s="41">
         <v>4450</v>
       </c>
-      <c r="P54" s="57">
+      <c r="P54" s="41">
         <v>6740</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="34">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="29">
         <v>49680</v>
       </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="49">
+      <c r="E55" s="38">
+        <v>2010</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="39">
         <v>268649.92746424029</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="39">
         <v>195647.46250002703</v>
       </c>
-      <c r="I55" s="49">
+      <c r="I55" s="39">
         <v>304647.51998326974</v>
       </c>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="56">
+      <c r="J55" s="42"/>
+      <c r="K55" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="40">
         <v>26890</v>
       </c>
-      <c r="M55" s="57">
+      <c r="M55" s="41">
         <v>11840</v>
       </c>
-      <c r="N55" s="57">
+      <c r="N55" s="41">
         <v>1820</v>
       </c>
-      <c r="O55" s="57">
+      <c r="O55" s="41">
         <v>5250</v>
       </c>
-      <c r="P55" s="57">
+      <c r="P55" s="41">
         <v>7980</v>
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="34">
+      <c r="C56" s="30"/>
+      <c r="D56" s="29">
         <v>48010</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="48" t="s">
+      <c r="E56" s="38">
+        <v>2010</v>
+      </c>
+      <c r="F56" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="39">
         <v>253909.2819920769</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="39">
         <v>184082.641523923</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I56" s="39">
         <v>289487.71125276858</v>
       </c>
-      <c r="J56" s="58"/>
-      <c r="K56" s="59" t="s">
+      <c r="J56" s="42"/>
+      <c r="K56" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="56">
+      <c r="L56" s="40">
         <v>26060</v>
       </c>
-      <c r="M56" s="57">
+      <c r="M56" s="41">
         <v>10870</v>
       </c>
-      <c r="N56" s="57">
+      <c r="N56" s="41">
         <v>1900</v>
       </c>
-      <c r="O56" s="57">
+      <c r="O56" s="41">
         <v>5090</v>
       </c>
-      <c r="P56" s="57">
+      <c r="P56" s="41">
         <v>8190</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="32">
+      <c r="A57" s="27">
         <v>2011</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="34">
+      <c r="B57" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="29">
         <v>48240</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="38">
         <v>2011</v>
       </c>
-      <c r="F57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="49">
+      <c r="F57" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="39">
         <v>255013.27365477791</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="39">
         <v>185010.97301456073</v>
       </c>
-      <c r="I57" s="49">
+      <c r="I57" s="39">
         <v>294014.63308885106</v>
       </c>
-      <c r="J57" s="58">
+      <c r="J57" s="42">
         <v>2011</v>
       </c>
-      <c r="K57" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="56">
+      <c r="K57" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="40">
         <v>26400</v>
       </c>
-      <c r="M57" s="57">
+      <c r="M57" s="41">
         <v>11350</v>
       </c>
-      <c r="N57" s="57">
+      <c r="N57" s="41">
         <v>1840</v>
       </c>
-      <c r="O57" s="57">
+      <c r="O57" s="41">
         <v>5430</v>
       </c>
-      <c r="P57" s="57">
+      <c r="P57" s="41">
         <v>7770</v>
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="34">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="29">
         <v>48330</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="49">
+      <c r="E58" s="38">
+        <v>2011</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="39">
         <v>250036.40616366352</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="39">
         <v>186752.82436109972</v>
       </c>
-      <c r="I58" s="49">
+      <c r="I58" s="39">
         <v>284643.47344204964</v>
       </c>
-      <c r="J58" s="58"/>
-      <c r="K58" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" s="56">
+      <c r="J58" s="42"/>
+      <c r="K58" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="40">
         <v>25980</v>
       </c>
-      <c r="M58" s="57">
+      <c r="M58" s="41">
         <v>11820</v>
       </c>
-      <c r="N58" s="57">
+      <c r="N58" s="41">
         <v>1880</v>
       </c>
-      <c r="O58" s="57">
+      <c r="O58" s="41">
         <v>4960</v>
       </c>
-      <c r="P58" s="57">
+      <c r="P58" s="41">
         <v>7320</v>
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="34">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="29">
         <v>49100</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="49">
+      <c r="E59" s="38">
+        <v>2011</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="39">
         <v>264626.79321165459</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="39">
         <v>194056.35660180994</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="39">
         <v>300009.9000181132</v>
       </c>
-      <c r="J59" s="58"/>
-      <c r="K59" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" s="56">
+      <c r="J59" s="42"/>
+      <c r="K59" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="40">
         <v>27390</v>
       </c>
-      <c r="M59" s="57">
+      <c r="M59" s="41">
         <v>12510</v>
       </c>
-      <c r="N59" s="57">
+      <c r="N59" s="41">
         <v>2010</v>
       </c>
-      <c r="O59" s="57">
+      <c r="O59" s="41">
         <v>4820</v>
       </c>
-      <c r="P59" s="57">
+      <c r="P59" s="41">
         <v>8060</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="34">
+      <c r="C60" s="30"/>
+      <c r="D60" s="29">
         <v>48920</v>
       </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="48" t="s">
+      <c r="E60" s="38">
+        <v>2011</v>
+      </c>
+      <c r="F60" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="49">
+      <c r="G60" s="39">
         <v>252476.30999999997</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="39">
         <v>185249.25669183975</v>
       </c>
-      <c r="I60" s="49">
+      <c r="I60" s="39">
         <v>287049.43091813376</v>
       </c>
-      <c r="J60" s="58"/>
-      <c r="K60" s="59" t="s">
+      <c r="J60" s="42"/>
+      <c r="K60" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="56">
+      <c r="L60" s="40">
         <v>27470</v>
       </c>
-      <c r="M60" s="57">
+      <c r="M60" s="41">
         <v>12830</v>
       </c>
-      <c r="N60" s="57">
+      <c r="N60" s="41">
         <v>2110</v>
       </c>
-      <c r="O60" s="57">
+      <c r="O60" s="41">
         <v>4710</v>
       </c>
-      <c r="P60" s="57">
+      <c r="P60" s="41">
         <v>7820</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="32">
+      <c r="A61" s="27">
         <v>2012</v>
       </c>
-      <c r="B61" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="34">
+      <c r="B61" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29">
         <v>50430</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E61" s="38">
         <v>2012</v>
       </c>
-      <c r="F61" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="49">
+      <c r="F61" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="39">
         <v>248768.39196866922</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="39">
         <v>186509.2143371882</v>
       </c>
-      <c r="I61" s="49">
+      <c r="I61" s="39">
         <v>286758.96401897684</v>
       </c>
-      <c r="J61" s="58">
+      <c r="J61" s="42">
         <v>2012</v>
       </c>
-      <c r="K61" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="56">
+      <c r="K61" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="40">
         <v>27880</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="41">
         <v>13130</v>
       </c>
-      <c r="N61" s="57">
+      <c r="N61" s="41">
         <v>1920</v>
       </c>
-      <c r="O61" s="57">
+      <c r="O61" s="41">
         <v>5200</v>
       </c>
-      <c r="P61" s="57">
+      <c r="P61" s="41">
         <v>7640</v>
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29">
         <v>51630</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="49">
+      <c r="E62" s="38">
+        <v>2012</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="39">
         <v>255157.38662902627</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="39">
         <v>189762.32209005664</v>
       </c>
-      <c r="I62" s="49">
+      <c r="I62" s="39">
         <v>288925.39755059598</v>
       </c>
-      <c r="J62" s="60"/>
-      <c r="K62" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="56">
+      <c r="J62" s="44"/>
+      <c r="K62" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="40">
         <v>26780</v>
       </c>
-      <c r="M62" s="57">
+      <c r="M62" s="41">
         <v>12890</v>
       </c>
-      <c r="N62" s="57">
+      <c r="N62" s="41">
         <v>1850</v>
       </c>
-      <c r="O62" s="57">
+      <c r="O62" s="41">
         <v>4680</v>
       </c>
-      <c r="P62" s="57">
+      <c r="P62" s="41">
         <v>7360</v>
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29">
         <v>52960</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="49">
+      <c r="E63" s="38">
+        <v>2012</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="39">
         <v>264480.61773333332</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="39">
         <v>194533.53339999999</v>
       </c>
-      <c r="I63" s="49">
+      <c r="I63" s="39">
         <v>304441.67583333334</v>
       </c>
-      <c r="J63" s="60"/>
-      <c r="K63" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" s="56">
+      <c r="J63" s="44"/>
+      <c r="K63" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="40">
         <v>29140</v>
       </c>
-      <c r="M63" s="57">
+      <c r="M63" s="41">
         <v>13890</v>
       </c>
-      <c r="N63" s="57">
+      <c r="N63" s="41">
         <v>2210</v>
       </c>
-      <c r="O63" s="57">
+      <c r="O63" s="41">
         <v>4910</v>
       </c>
-      <c r="P63" s="57">
+      <c r="P63" s="41">
         <v>8140</v>
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34">
+      <c r="C64" s="28"/>
+      <c r="D64" s="29">
         <v>53140</v>
       </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="48" t="s">
+      <c r="E64" s="38">
+        <v>2012</v>
+      </c>
+      <c r="F64" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="49">
+      <c r="G64" s="39">
         <v>256197.35153333333</v>
       </c>
-      <c r="H64" s="49">
+      <c r="H64" s="39">
         <v>189442.46603333333</v>
       </c>
-      <c r="I64" s="49">
+      <c r="I64" s="39">
         <v>296570.91039999999</v>
       </c>
-      <c r="J64" s="60"/>
-      <c r="K64" s="61" t="s">
+      <c r="J64" s="44"/>
+      <c r="K64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L64" s="56">
+      <c r="L64" s="40">
         <v>29070</v>
       </c>
-      <c r="M64" s="57">
+      <c r="M64" s="41">
         <v>13570</v>
       </c>
-      <c r="N64" s="57">
+      <c r="N64" s="41">
         <v>2230</v>
       </c>
-      <c r="O64" s="57">
+      <c r="O64" s="41">
         <v>5030</v>
       </c>
-      <c r="P64" s="57">
+      <c r="P64" s="41">
         <v>8250</v>
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="32">
+      <c r="A65" s="27">
         <v>2013</v>
       </c>
-      <c r="B65" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34">
+      <c r="B65" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="D65" s="29">
         <v>55320</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="38">
         <v>2013</v>
       </c>
-      <c r="F65" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="49">
+      <c r="F65" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="39">
         <v>253175.14260063707</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H65" s="39">
         <v>188577.13169343863</v>
       </c>
-      <c r="I65" s="49">
+      <c r="I65" s="39">
         <v>296224.23140688048</v>
       </c>
-      <c r="J65" s="60">
+      <c r="J65" s="44">
         <v>2013</v>
       </c>
-      <c r="K65" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="56">
+      <c r="K65" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="40">
         <v>28520</v>
       </c>
-      <c r="M65" s="57">
+      <c r="M65" s="41">
         <v>13420</v>
       </c>
-      <c r="N65" s="57">
+      <c r="N65" s="41">
         <v>2150</v>
       </c>
-      <c r="O65" s="57">
+      <c r="O65" s="41">
         <v>5120</v>
       </c>
-      <c r="P65" s="57">
+      <c r="P65" s="41">
         <v>7830</v>
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="34">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="29">
         <v>55840</v>
       </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="49">
+      <c r="E66" s="38">
+        <v>2013</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="39">
         <v>254850.89377329874</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H66" s="39">
         <v>197350.03061575905</v>
       </c>
-      <c r="I66" s="49">
+      <c r="I66" s="39">
         <v>296147.26140293787</v>
       </c>
-      <c r="J66" s="60"/>
-      <c r="K66" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="56">
+      <c r="J66" s="44"/>
+      <c r="K66" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="40">
         <v>28230</v>
       </c>
-      <c r="M66" s="57">
+      <c r="M66" s="41">
         <v>13470</v>
       </c>
-      <c r="N66" s="57">
+      <c r="N66" s="41">
         <v>2150</v>
       </c>
-      <c r="O66" s="57">
+      <c r="O66" s="41">
         <v>5160</v>
       </c>
-      <c r="P66" s="57">
+      <c r="P66" s="41">
         <v>7460</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="32"/>
-      <c r="B67" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="34">
+      <c r="A67" s="27"/>
+      <c r="B67" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="29">
         <v>57410</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="49">
+      <c r="E67" s="38">
+        <v>2013</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="39">
         <v>270889.13364510465</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H67" s="39">
         <v>204875.05247205155</v>
       </c>
-      <c r="I67" s="49">
+      <c r="I67" s="39">
         <v>313746.98842726095</v>
       </c>
-      <c r="J67" s="60"/>
-      <c r="K67" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" s="56">
+      <c r="J67" s="44"/>
+      <c r="K67" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="40">
         <v>28100</v>
       </c>
-      <c r="M67" s="57">
+      <c r="M67" s="41">
         <v>13420</v>
       </c>
-      <c r="N67" s="57">
+      <c r="N67" s="41">
         <v>2120</v>
       </c>
-      <c r="O67" s="57">
+      <c r="O67" s="41">
         <v>5310</v>
       </c>
-      <c r="P67" s="57">
+      <c r="P67" s="41">
         <v>7240</v>
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="32"/>
-      <c r="B68" s="37" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="34">
+      <c r="C68" s="33"/>
+      <c r="D68" s="29">
         <v>56940</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="48" t="s">
+      <c r="E68" s="38">
+        <v>2013</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="49">
+      <c r="G68" s="39">
         <v>264484.28505776695</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H68" s="39">
         <v>201352.10350294411</v>
       </c>
-      <c r="I68" s="49">
+      <c r="I68" s="39">
         <v>306847.1043865346</v>
       </c>
-      <c r="J68" s="60"/>
-      <c r="K68" s="61" t="s">
+      <c r="J68" s="44"/>
+      <c r="K68" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="56">
+      <c r="L68" s="40">
         <v>28070</v>
       </c>
-      <c r="M68" s="57">
+      <c r="M68" s="41">
         <v>12900</v>
       </c>
-      <c r="N68" s="57">
+      <c r="N68" s="41">
         <v>2220</v>
       </c>
-      <c r="O68" s="57">
+      <c r="O68" s="41">
         <v>5210</v>
       </c>
-      <c r="P68" s="57">
+      <c r="P68" s="41">
         <v>7750</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="32">
+      <c r="A69" s="27">
         <v>2014</v>
       </c>
-      <c r="B69" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="34">
+      <c r="B69" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="29">
         <v>58410</v>
       </c>
-      <c r="E69" s="48">
+      <c r="E69" s="38">
         <v>2014</v>
       </c>
-      <c r="F69" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="49">
+      <c r="F69" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="39">
         <v>270883.57493333332</v>
       </c>
-      <c r="H69" s="49">
+      <c r="H69" s="39">
         <v>204748.97316666666</v>
       </c>
-      <c r="I69" s="49">
+      <c r="I69" s="39">
         <v>316341.71469999995</v>
       </c>
-      <c r="J69" s="60">
+      <c r="J69" s="44">
         <v>2014</v>
       </c>
-      <c r="K69" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="56">
+      <c r="K69" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="40">
         <v>27200</v>
       </c>
-      <c r="M69" s="57">
+      <c r="M69" s="41">
         <v>12500</v>
       </c>
-      <c r="N69" s="57">
+      <c r="N69" s="41">
         <v>2040</v>
       </c>
-      <c r="O69" s="57">
+      <c r="O69" s="41">
         <v>5360</v>
       </c>
-      <c r="P69" s="57">
+      <c r="P69" s="41">
         <v>7300</v>
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="32"/>
-      <c r="B70" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="34">
+      <c r="A70" s="27"/>
+      <c r="B70" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="29">
         <v>59570</v>
       </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="49">
+      <c r="E70" s="38">
+        <v>2014</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="39">
         <v>275316.48647355818</v>
       </c>
-      <c r="H70" s="49">
+      <c r="H70" s="39">
         <v>210263.12734189155</v>
       </c>
-      <c r="I70" s="49">
+      <c r="I70" s="39">
         <v>319975.19566106261</v>
       </c>
-      <c r="J70" s="60"/>
-      <c r="K70" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" s="56">
+      <c r="J70" s="44"/>
+      <c r="K70" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="40">
         <v>27550</v>
       </c>
-      <c r="M70" s="57">
+      <c r="M70" s="41">
         <v>13190</v>
       </c>
-      <c r="N70" s="57">
+      <c r="N70" s="41">
         <v>2060</v>
       </c>
-      <c r="O70" s="57">
+      <c r="O70" s="41">
         <v>4970</v>
       </c>
-      <c r="P70" s="57">
+      <c r="P70" s="41">
         <v>7330</v>
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="32"/>
-      <c r="B71" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="34">
+      <c r="A71" s="27"/>
+      <c r="B71" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="29">
         <v>60900</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="49">
+      <c r="E71" s="38">
+        <v>2014</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="39">
         <v>288785.81364484597</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="39">
         <v>217839.3031352165</v>
       </c>
-      <c r="I71" s="49">
+      <c r="I71" s="39">
         <v>336677.25699011103</v>
       </c>
-      <c r="J71" s="60"/>
-      <c r="K71" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L71" s="56">
+      <c r="J71" s="44"/>
+      <c r="K71" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" s="40">
         <v>28510</v>
       </c>
-      <c r="M71" s="57">
+      <c r="M71" s="41">
         <v>14040</v>
       </c>
-      <c r="N71" s="57">
+      <c r="N71" s="41">
         <v>2220</v>
       </c>
-      <c r="O71" s="57">
+      <c r="O71" s="41">
         <v>5120</v>
       </c>
-      <c r="P71" s="57">
+      <c r="P71" s="41">
         <v>7140</v>
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="32"/>
-      <c r="B72" s="37" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="34">
+      <c r="C72" s="33"/>
+      <c r="D72" s="29">
         <v>61930</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="48" t="s">
+      <c r="E72" s="38">
+        <v>2014</v>
+      </c>
+      <c r="F72" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="49">
+      <c r="G72" s="39">
         <v>276467.66666666669</v>
       </c>
-      <c r="H72" s="49">
+      <c r="H72" s="39">
         <v>209485.66666666666</v>
       </c>
-      <c r="I72" s="49">
+      <c r="I72" s="39">
         <v>324880.33333333331</v>
       </c>
-      <c r="J72" s="60"/>
-      <c r="K72" s="61" t="s">
+      <c r="J72" s="44"/>
+      <c r="K72" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L72" s="56">
+      <c r="L72" s="40">
         <v>28640</v>
       </c>
-      <c r="M72" s="57">
+      <c r="M72" s="41">
         <v>13680</v>
       </c>
-      <c r="N72" s="57">
+      <c r="N72" s="41">
         <v>2450</v>
       </c>
-      <c r="O72" s="57">
+      <c r="O72" s="41">
         <v>5210</v>
       </c>
-      <c r="P72" s="57">
+      <c r="P72" s="41">
         <v>7300</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="32">
+      <c r="A73" s="27">
         <v>2015</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="34">
+      <c r="B73" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="29">
         <v>64710</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="38">
         <v>2015</v>
       </c>
-      <c r="F73" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="49">
+      <c r="F73" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="39">
         <v>281212.66666666669</v>
       </c>
-      <c r="H73" s="49">
+      <c r="H73" s="39">
         <v>212064</v>
       </c>
-      <c r="I73" s="49">
+      <c r="I73" s="39">
         <v>333743.33333333331</v>
       </c>
-      <c r="J73" s="60">
+      <c r="J73" s="44">
         <v>2015</v>
       </c>
-      <c r="K73" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="56">
+      <c r="K73" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="40">
         <v>27640</v>
       </c>
-      <c r="M73" s="57">
+      <c r="M73" s="41">
         <v>13520</v>
       </c>
-      <c r="N73" s="57">
+      <c r="N73" s="41">
         <v>2270</v>
       </c>
-      <c r="O73" s="57">
+      <c r="O73" s="41">
         <v>5120</v>
       </c>
-      <c r="P73" s="57">
+      <c r="P73" s="41">
         <v>6730</v>
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="32"/>
-      <c r="B74" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="34">
+      <c r="A74" s="27"/>
+      <c r="B74" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="29">
         <v>66980</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="49">
+      <c r="E74" s="38">
+        <v>2015</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="39">
         <v>281836.66666666669</v>
       </c>
-      <c r="H74" s="49">
+      <c r="H74" s="39">
         <v>212212.66666666666</v>
       </c>
-      <c r="I74" s="49">
+      <c r="I74" s="39">
         <v>335808.66666666669</v>
       </c>
-      <c r="J74" s="60"/>
-      <c r="K74" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="56">
+      <c r="J74" s="44"/>
+      <c r="K74" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="40">
         <v>27440</v>
       </c>
-      <c r="M74" s="57">
+      <c r="M74" s="41">
         <v>13840</v>
       </c>
-      <c r="N74" s="57">
+      <c r="N74" s="41">
         <v>2150</v>
       </c>
-      <c r="O74" s="57">
+      <c r="O74" s="41">
         <v>4600</v>
       </c>
-      <c r="P74" s="57">
+      <c r="P74" s="41">
         <v>6850</v>
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="32"/>
-      <c r="B75" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34">
+      <c r="A75" s="27"/>
+      <c r="B75" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29">
         <v>68560</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="49">
+      <c r="E75" s="38">
+        <v>2015</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="39">
         <v>304023</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="39">
         <v>219212</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I75" s="39">
         <v>362861</v>
       </c>
-      <c r="J75" s="60"/>
-      <c r="K75" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L75" s="56">
+      <c r="J75" s="44"/>
+      <c r="K75" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75" s="40">
         <v>28960</v>
       </c>
-      <c r="M75" s="57">
+      <c r="M75" s="41">
         <v>14660</v>
       </c>
-      <c r="N75" s="57">
+      <c r="N75" s="41">
         <v>2460</v>
       </c>
-      <c r="O75" s="57">
+      <c r="O75" s="41">
         <v>4840</v>
       </c>
-      <c r="P75" s="57">
+      <c r="P75" s="41">
         <v>7000</v>
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="32"/>
-      <c r="B76" s="37" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34">
+      <c r="C76" s="28"/>
+      <c r="D76" s="29">
         <v>69140</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="48" t="s">
+      <c r="E76" s="38">
+        <v>2015</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="49">
+      <c r="G76" s="39">
         <v>296424.28333333333</v>
       </c>
-      <c r="H76" s="49">
+      <c r="H76" s="39">
         <v>216527.66666666666</v>
       </c>
-      <c r="I76" s="49">
+      <c r="I76" s="39">
         <v>356484.10000000003</v>
       </c>
-      <c r="J76" s="60"/>
-      <c r="K76" s="61" t="s">
+      <c r="J76" s="44"/>
+      <c r="K76" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L76" s="56">
+      <c r="L76" s="40">
         <v>29280</v>
       </c>
-      <c r="M76" s="57">
+      <c r="M76" s="41">
         <v>14480</v>
       </c>
-      <c r="N76" s="57">
+      <c r="N76" s="41">
         <v>2550</v>
       </c>
-      <c r="O76" s="57">
+      <c r="O76" s="41">
         <v>4980</v>
       </c>
-      <c r="P76" s="57">
+      <c r="P76" s="41">
         <v>7280</v>
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="32">
+      <c r="A77" s="27">
         <v>2016</v>
       </c>
-      <c r="B77" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34">
+      <c r="B77" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29">
         <v>71670</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="38">
         <v>2016</v>
       </c>
-      <c r="F77" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="49">
+      <c r="F77" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="39">
         <v>310040.82969554584</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H77" s="39">
         <v>223038.54670385687</v>
       </c>
-      <c r="I77" s="49">
+      <c r="I77" s="39">
         <v>373325.81356184563</v>
       </c>
-      <c r="J77" s="60">
+      <c r="J77" s="44">
         <v>2016</v>
       </c>
-      <c r="K77" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" s="56">
+      <c r="K77" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77" s="40">
         <v>29090</v>
       </c>
-      <c r="M77" s="57">
+      <c r="M77" s="41">
         <v>14760</v>
       </c>
-      <c r="N77" s="57">
+      <c r="N77" s="41">
         <v>2410</v>
       </c>
-      <c r="O77" s="57">
+      <c r="O77" s="41">
         <v>5160</v>
       </c>
-      <c r="P77" s="57">
+      <c r="P77" s="41">
         <v>6760</v>
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="32"/>
-      <c r="B78" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34">
+      <c r="A78" s="27"/>
+      <c r="B78" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29">
         <v>73050</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="49">
+      <c r="E78" s="38">
+        <v>2016</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="39">
         <v>283167.81200110022</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H78" s="39">
         <v>219795.47099741115</v>
       </c>
-      <c r="I78" s="49">
+      <c r="I78" s="39">
         <v>347200.36495356361</v>
       </c>
-      <c r="J78" s="60"/>
-      <c r="K78" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="56">
+      <c r="J78" s="44"/>
+      <c r="K78" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="40">
         <v>29760</v>
       </c>
-      <c r="M78" s="57">
+      <c r="M78" s="41">
         <v>15150</v>
       </c>
-      <c r="N78" s="57">
+      <c r="N78" s="41">
         <v>2520</v>
       </c>
-      <c r="O78" s="57">
+      <c r="O78" s="41">
         <v>5090</v>
       </c>
-      <c r="P78" s="57">
+      <c r="P78" s="41">
         <v>7000</v>
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="32"/>
-      <c r="B79" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="34">
+      <c r="A79" s="27"/>
+      <c r="B79" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="29">
         <v>74750</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="49">
+      <c r="E79" s="38">
+        <v>2016</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="39">
         <v>302088.84416468645</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="39">
         <v>226192.48313544944</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79" s="39">
         <v>368966.11682601849</v>
       </c>
-      <c r="J79" s="60"/>
-      <c r="K79" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L79" s="56">
+      <c r="J79" s="44"/>
+      <c r="K79" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" s="40">
         <v>29390</v>
       </c>
-      <c r="M79" s="57">
+      <c r="M79" s="41">
         <v>14930</v>
       </c>
-      <c r="N79" s="57">
+      <c r="N79" s="41">
         <v>2530</v>
       </c>
-      <c r="O79" s="57">
+      <c r="O79" s="41">
         <v>4890</v>
       </c>
-      <c r="P79" s="57">
+      <c r="P79" s="41">
         <v>7040</v>
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="32"/>
-      <c r="B80" s="37" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="34">
+      <c r="C80" s="33"/>
+      <c r="D80" s="29">
         <v>75740</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="48" t="s">
+      <c r="E80" s="38">
+        <v>2016</v>
+      </c>
+      <c r="F80" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80" s="39">
         <v>298548.84697444853</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H80" s="39">
         <v>225228.52718568131</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I80" s="39">
         <v>364033.60775408236</v>
       </c>
-      <c r="J80" s="60"/>
-      <c r="K80" s="61" t="s">
+      <c r="J80" s="44"/>
+      <c r="K80" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L80" s="56">
+      <c r="L80" s="40">
         <v>27960</v>
       </c>
-      <c r="M80" s="57">
+      <c r="M80" s="41">
         <v>14420</v>
       </c>
-      <c r="N80" s="57">
+      <c r="N80" s="41">
         <v>2430</v>
       </c>
-      <c r="O80" s="57">
+      <c r="O80" s="41">
         <v>4570</v>
       </c>
-      <c r="P80" s="57">
+      <c r="P80" s="41">
         <v>6550</v>
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="32">
+      <c r="A81" s="27">
         <v>2017</v>
       </c>
-      <c r="B81" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="39"/>
-      <c r="D81" s="34">
+      <c r="B81" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="29">
         <v>77220</v>
       </c>
-      <c r="E81" s="48">
+      <c r="E81" s="38">
         <v>2017</v>
       </c>
-      <c r="F81" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="49">
+      <c r="F81" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="39">
         <v>291964.84700995428</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H81" s="39">
         <v>221202.65214320205</v>
       </c>
-      <c r="I81" s="49">
+      <c r="I81" s="39">
         <v>357025.19024919701</v>
       </c>
-      <c r="J81" s="60">
+      <c r="J81" s="44">
         <v>2017</v>
       </c>
-      <c r="K81" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" s="56">
+      <c r="K81" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="40">
         <v>28490</v>
       </c>
-      <c r="M81" s="57">
+      <c r="M81" s="41">
         <v>14610</v>
       </c>
-      <c r="N81" s="57">
+      <c r="N81" s="41">
         <v>2370</v>
       </c>
-      <c r="O81" s="57">
+      <c r="O81" s="41">
         <v>4950</v>
       </c>
-      <c r="P81" s="57">
+      <c r="P81" s="41">
         <v>6550</v>
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="32"/>
-      <c r="B82" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="34">
+      <c r="A82" s="27"/>
+      <c r="B82" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="29">
         <v>78540</v>
       </c>
-      <c r="E82" s="50"/>
-      <c r="F82" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="49">
+      <c r="E82" s="38">
+        <v>2017</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="39">
         <v>297527.70558251929</v>
       </c>
-      <c r="H82" s="49">
+      <c r="H82" s="39">
         <v>227542.00041884431</v>
       </c>
-      <c r="I82" s="49">
+      <c r="I82" s="39">
         <v>362290.43447740236</v>
       </c>
-      <c r="J82" s="60"/>
-      <c r="K82" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="56">
+      <c r="J82" s="44"/>
+      <c r="K82" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="40">
         <v>27480</v>
       </c>
-      <c r="M82" s="57">
+      <c r="M82" s="41">
         <v>14360</v>
       </c>
-      <c r="N82" s="57">
+      <c r="N82" s="41">
         <v>2320</v>
       </c>
-      <c r="O82" s="57">
+      <c r="O82" s="41">
         <v>4580</v>
       </c>
-      <c r="P82" s="57">
+      <c r="P82" s="41">
         <v>6230</v>
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="32"/>
-      <c r="B83" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="34">
+      <c r="A83" s="27"/>
+      <c r="B83" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="35"/>
+      <c r="D83" s="29">
         <v>79830</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="49">
+      <c r="E83" s="38">
+        <v>2017</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="39">
         <v>305867.96059673239</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="39">
         <v>229399.70647240549</v>
       </c>
-      <c r="I83" s="49">
+      <c r="I83" s="39">
         <v>372700.04680340196</v>
       </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L83" s="56">
+      <c r="J83" s="44"/>
+      <c r="K83" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83" s="40">
         <v>29360</v>
       </c>
-      <c r="M83" s="57">
+      <c r="M83" s="41">
         <v>15280</v>
       </c>
-      <c r="N83" s="57">
+      <c r="N83" s="41">
         <v>2330</v>
       </c>
-      <c r="O83" s="57">
+      <c r="O83" s="41">
         <v>4910</v>
       </c>
-      <c r="P83" s="57">
+      <c r="P83" s="41">
         <v>6840</v>
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="32"/>
-      <c r="B84" s="37" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="34">
+      <c r="C84" s="35"/>
+      <c r="D84" s="29">
         <v>79720</v>
       </c>
-      <c r="E84" s="50"/>
-      <c r="F84" s="48" t="s">
+      <c r="E84" s="38">
+        <v>2017</v>
+      </c>
+      <c r="F84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="49">
+      <c r="G84" s="39">
         <v>295604.24842200143</v>
       </c>
-      <c r="H84" s="49">
+      <c r="H84" s="39">
         <v>224637.39442233081</v>
       </c>
-      <c r="I84" s="49">
+      <c r="I84" s="39">
         <v>359472.17295990436</v>
       </c>
-      <c r="J84" s="60"/>
-      <c r="K84" s="61" t="s">
+      <c r="J84" s="44"/>
+      <c r="K84" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L84" s="56">
+      <c r="L84" s="40">
         <v>26890</v>
       </c>
-      <c r="M84" s="57">
+      <c r="M84" s="41">
         <v>13640</v>
       </c>
-      <c r="N84" s="57">
+      <c r="N84" s="41">
         <v>2160</v>
       </c>
-      <c r="O84" s="57">
+      <c r="O84" s="41">
         <v>4550</v>
       </c>
-      <c r="P84" s="57">
+      <c r="P84" s="41">
         <v>6540</v>
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="32">
+      <c r="A85" s="27">
         <v>2018</v>
       </c>
-      <c r="B85" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="34">
+      <c r="B85" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="35"/>
+      <c r="D85" s="29">
         <v>80720</v>
       </c>
-      <c r="E85" s="48">
+      <c r="E85" s="38">
         <v>2018</v>
       </c>
-      <c r="F85" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="49">
+      <c r="F85" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="39">
         <v>297704.248594573</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85" s="39">
         <v>226543.7369081784</v>
       </c>
-      <c r="I85" s="49">
+      <c r="I85" s="39">
         <v>366528.24857138254</v>
       </c>
-      <c r="J85" s="62">
+      <c r="J85" s="46">
         <v>2018</v>
       </c>
-      <c r="K85" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" s="56">
+      <c r="K85" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="40">
         <v>25750</v>
       </c>
-      <c r="M85" s="57">
+      <c r="M85" s="41">
         <v>13320</v>
       </c>
-      <c r="N85" s="57">
+      <c r="N85" s="41">
         <v>1900</v>
       </c>
-      <c r="O85" s="57">
+      <c r="O85" s="41">
         <v>4420</v>
       </c>
-      <c r="P85" s="57">
+      <c r="P85" s="41">
         <v>6110</v>
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="32"/>
-      <c r="B86" s="37" t="s">
+      <c r="A86" s="27"/>
+      <c r="B86" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="34">
+      <c r="C86" s="35"/>
+      <c r="D86" s="29">
         <v>82390</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="49">
+      <c r="E86" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="39">
         <v>297314.8770822598</v>
       </c>
-      <c r="H86" s="49">
+      <c r="H86" s="39">
         <v>231505.15688028673</v>
       </c>
-      <c r="I86" s="49">
+      <c r="I86" s="39">
         <v>362404.48933809809</v>
       </c>
-      <c r="J86" s="60"/>
-      <c r="K86" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="56">
+      <c r="J86" s="44"/>
+      <c r="K86" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="40">
         <v>12920</v>
       </c>
-      <c r="M86" s="57">
+      <c r="M86" s="41">
         <v>7400</v>
       </c>
-      <c r="N86" s="57">
+      <c r="N86" s="41">
         <v>1010</v>
       </c>
-      <c r="O86" s="57">
+      <c r="O86" s="41">
         <v>1320</v>
       </c>
-      <c r="P86" s="57">
+      <c r="P86" s="41">
         <v>3190</v>
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="32"/>
-      <c r="B87" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="34">
+      <c r="A87" s="27"/>
+      <c r="B87" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="29">
         <v>83430</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="49">
+      <c r="E87" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="39">
         <v>308070.56884590862</v>
       </c>
-      <c r="H87" s="49">
+      <c r="H87" s="39">
         <v>235526.84363237259</v>
       </c>
-      <c r="I87" s="49">
+      <c r="I87" s="39">
         <v>376017.86469577177</v>
       </c>
-      <c r="J87" s="60"/>
-      <c r="K87" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L87" s="56">
+      <c r="J87" s="44"/>
+      <c r="K87" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" s="40">
         <v>12490</v>
       </c>
-      <c r="M87" s="57">
+      <c r="M87" s="41">
         <v>7120</v>
       </c>
-      <c r="N87" s="57">
+      <c r="N87" s="41">
         <v>1000</v>
       </c>
-      <c r="O87" s="57">
+      <c r="O87" s="41">
         <v>2190</v>
       </c>
-      <c r="P87" s="57">
+      <c r="P87" s="41">
         <v>2190</v>
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="32"/>
-      <c r="B88" s="37" t="s">
+      <c r="A88" s="27"/>
+      <c r="B88" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="34">
+      <c r="C88" s="35"/>
+      <c r="D88" s="29">
         <v>83540</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="48" t="s">
+      <c r="E88" s="38">
+        <v>2018</v>
+      </c>
+      <c r="F88" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="39">
         <v>297579.8670134414</v>
       </c>
-      <c r="H88" s="49">
+      <c r="H88" s="39">
         <v>231389.29671079686</v>
       </c>
-      <c r="I88" s="49">
+      <c r="I88" s="39">
         <v>361258.08229784557</v>
       </c>
-      <c r="J88" s="60"/>
-      <c r="K88" s="61" t="s">
+      <c r="J88" s="44"/>
+      <c r="K88" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L88" s="56">
+      <c r="L88" s="40">
         <v>13190</v>
       </c>
-      <c r="M88" s="57">
+      <c r="M88" s="41">
         <v>7930</v>
       </c>
-      <c r="N88" s="57">
+      <c r="N88" s="41">
         <v>1100</v>
       </c>
-      <c r="O88" s="57">
+      <c r="O88" s="41">
         <v>2900</v>
       </c>
-      <c r="P88" s="57">
+      <c r="P88" s="41">
         <v>1250</v>
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="32">
+      <c r="A89" s="27">
         <v>2019</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="34">
+      <c r="B89" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="29">
         <v>85040</v>
       </c>
-      <c r="E89" s="48">
+      <c r="E89" s="38">
         <v>2019</v>
       </c>
-      <c r="F89" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="49">
+      <c r="F89" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="39">
         <v>292136.09161158669</v>
       </c>
-      <c r="H89" s="49">
+      <c r="H89" s="39">
         <v>227383.36080709836</v>
       </c>
-      <c r="I89" s="49">
+      <c r="I89" s="39">
         <v>358376.86753368791</v>
       </c>
-      <c r="J89" s="60">
+      <c r="J89" s="44">
         <v>2019</v>
       </c>
-      <c r="K89" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="56">
+      <c r="K89" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="40">
         <v>13590</v>
       </c>
-      <c r="M89" s="57">
+      <c r="M89" s="41">
         <v>8050</v>
       </c>
-      <c r="N89" s="57">
+      <c r="N89" s="41">
         <v>1160</v>
       </c>
-      <c r="O89" s="57">
+      <c r="O89" s="41">
         <v>3250</v>
       </c>
-      <c r="P89" s="57">
+      <c r="P89" s="41">
         <v>1150</v>
       </c>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="32"/>
-      <c r="B90" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="34">
+      <c r="A90" s="27"/>
+      <c r="B90" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="35"/>
+      <c r="D90" s="29">
         <v>86240</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="49">
+      <c r="E90" s="38">
+        <v>2019</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="39">
         <v>293927.33333333331</v>
       </c>
-      <c r="H90" s="49">
+      <c r="H90" s="39">
         <v>230524</v>
       </c>
-      <c r="I90" s="49">
+      <c r="I90" s="39">
         <v>359469.66666666669</v>
       </c>
-      <c r="J90" s="60"/>
-      <c r="K90" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L90" s="56">
+      <c r="J90" s="44"/>
+      <c r="K90" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="40">
         <v>15270</v>
       </c>
-      <c r="M90" s="57">
+      <c r="M90" s="41">
         <v>9390</v>
       </c>
-      <c r="N90" s="57">
+      <c r="N90" s="41">
         <v>1230</v>
       </c>
-      <c r="O90" s="57">
+      <c r="O90" s="41">
         <v>3540</v>
       </c>
-      <c r="P90" s="57">
+      <c r="P90" s="41">
         <v>1120</v>
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="32"/>
-      <c r="B91" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="34">
+      <c r="A91" s="27"/>
+      <c r="B91" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="35"/>
+      <c r="D91" s="29">
         <v>87390</v>
       </c>
-      <c r="E91" s="50"/>
-      <c r="F91" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="49">
+      <c r="E91" s="38">
+        <v>2019</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="39">
         <v>307321.33333333331</v>
       </c>
-      <c r="H91" s="49">
+      <c r="H91" s="39">
         <v>234281.33333333334</v>
       </c>
-      <c r="I91" s="49">
+      <c r="I91" s="39">
         <v>377900.66666666669</v>
       </c>
-      <c r="J91" s="60"/>
-      <c r="K91" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L91" s="56">
+      <c r="J91" s="44"/>
+      <c r="K91" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L91" s="40">
         <v>15890</v>
       </c>
-      <c r="M91" s="57">
+      <c r="M91" s="41">
         <v>10180</v>
       </c>
-      <c r="N91" s="57">
+      <c r="N91" s="41">
         <v>1200</v>
       </c>
-      <c r="O91" s="57">
+      <c r="O91" s="41">
         <v>3830</v>
       </c>
-      <c r="P91" s="57">
+      <c r="P91" s="41">
         <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="32"/>
-      <c r="B92" s="37" t="s">
+      <c r="A92" s="27"/>
+      <c r="B92" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="34">
+      <c r="D92" s="29">
         <v>88310</v>
       </c>
-      <c r="E92" s="50"/>
-      <c r="F92" s="48" t="s">
+      <c r="E92" s="38">
+        <v>2019</v>
+      </c>
+      <c r="F92" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="49">
+      <c r="G92" s="39">
         <v>306272.66666666669</v>
       </c>
-      <c r="H92" s="49">
+      <c r="H92" s="39">
         <v>234707.66666666666</v>
       </c>
-      <c r="I92" s="49">
+      <c r="I92" s="39">
         <v>374542.33333333331</v>
       </c>
-      <c r="J92" s="60"/>
-      <c r="K92" s="61" t="s">
+      <c r="J92" s="44"/>
+      <c r="K92" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L92" s="56">
+      <c r="L92" s="40">
         <v>15720</v>
       </c>
-      <c r="M92" s="57">
+      <c r="M92" s="41">
         <v>10210</v>
       </c>
-      <c r="N92" s="57">
+      <c r="N92" s="41">
         <v>1150</v>
       </c>
-      <c r="O92" s="57">
+      <c r="O92" s="41">
         <v>3880</v>
       </c>
-      <c r="P92" s="57">
+      <c r="P92" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="32">
+      <c r="A93" s="27">
         <v>2020</v>
       </c>
-      <c r="B93" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="40" t="s">
+      <c r="B93" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="34">
+      <c r="D93" s="29">
         <v>92190</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="38">
         <v>2020</v>
       </c>
-      <c r="F93" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="49">
+      <c r="F93" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="39">
         <v>308011</v>
       </c>
-      <c r="H93" s="49">
+      <c r="H93" s="39">
         <v>237095.66666666666</v>
       </c>
-      <c r="I93" s="49">
+      <c r="I93" s="39">
         <v>377961.66666666669</v>
       </c>
-      <c r="J93" s="60">
+      <c r="J93" s="44">
         <v>2020</v>
       </c>
-      <c r="K93" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="L93" s="56">
+      <c r="K93" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="40">
         <v>15910</v>
       </c>
-      <c r="M93" s="57">
+      <c r="M93" s="41">
         <v>10560</v>
       </c>
-      <c r="N93" s="57">
+      <c r="N93" s="41">
         <v>1050</v>
       </c>
-      <c r="O93" s="57">
+      <c r="O93" s="41">
         <v>3980</v>
       </c>
-      <c r="P93" s="57">
+      <c r="P93" s="41">
         <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="32"/>
-      <c r="B94" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="40" t="s">
+      <c r="A94" s="27"/>
+      <c r="B94" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="29">
         <v>98260</v>
       </c>
-      <c r="E94" s="50"/>
-      <c r="F94" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="49">
+      <c r="E94" s="38">
+        <v>2020</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="39">
         <v>295366.66666666669</v>
       </c>
-      <c r="H94" s="49">
+      <c r="H94" s="39">
         <v>231253</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94" s="39">
         <v>365903.33333333331</v>
       </c>
-      <c r="J94" s="60"/>
-      <c r="K94" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L94" s="56">
+      <c r="J94" s="44"/>
+      <c r="K94" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="40">
         <v>16770</v>
       </c>
-      <c r="M94" s="57">
+      <c r="M94" s="41">
         <v>10440</v>
       </c>
-      <c r="N94" s="57">
+      <c r="N94" s="41">
         <v>1050</v>
       </c>
-      <c r="O94" s="57">
+      <c r="O94" s="41">
         <v>4790</v>
       </c>
-      <c r="P94" s="57">
+      <c r="P94" s="41">
         <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="32"/>
-      <c r="B95" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="40" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="29">
         <v>94610</v>
       </c>
-      <c r="E95" s="50"/>
-      <c r="F95" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="49">
+      <c r="E95" s="38">
+        <v>2020</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="39">
         <v>333202.66666666669</v>
       </c>
-      <c r="H95" s="49">
+      <c r="H95" s="39">
         <v>253955.66666666666</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="39">
         <v>408046.66666666669</v>
       </c>
-      <c r="J95" s="60"/>
-      <c r="K95" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95" s="56">
+      <c r="J95" s="44"/>
+      <c r="K95" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95" s="40">
         <v>15200</v>
       </c>
-      <c r="M95" s="57">
+      <c r="M95" s="41">
         <v>9140</v>
       </c>
-      <c r="N95" s="57">
+      <c r="N95" s="41">
         <v>850</v>
       </c>
-      <c r="O95" s="57">
+      <c r="O95" s="41">
         <v>4930</v>
       </c>
-      <c r="P95" s="57">
+      <c r="P95" s="41">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="32"/>
-      <c r="B96" s="37" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="29">
         <v>95100</v>
       </c>
-      <c r="E96" s="50"/>
-      <c r="F96" s="48" t="s">
+      <c r="E96" s="38">
+        <v>2020</v>
+      </c>
+      <c r="F96" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G96" s="39">
         <v>347266.66666666669</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="39">
         <v>262106.66666666666</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="39">
         <v>416700</v>
       </c>
-      <c r="J96" s="60"/>
-      <c r="K96" s="61" t="s">
+      <c r="J96" s="44"/>
+      <c r="K96" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L96" s="56">
+      <c r="L96" s="40">
         <v>15790</v>
       </c>
-      <c r="M96" s="57">
+      <c r="M96" s="41">
         <v>10160</v>
       </c>
-      <c r="N96" s="57">
+      <c r="N96" s="41">
         <v>790</v>
       </c>
-      <c r="O96" s="57">
+      <c r="O96" s="41">
         <v>4470</v>
       </c>
-      <c r="P96" s="57">
+      <c r="P96" s="41">
         <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="32">
+      <c r="A97" s="27">
         <v>2021</v>
       </c>
-      <c r="B97" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="40" t="s">
+      <c r="B97" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="34">
+      <c r="D97" s="29">
         <v>95290</v>
       </c>
-      <c r="E97" s="48">
+      <c r="E97" s="38">
         <v>2021</v>
       </c>
-      <c r="F97" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="49">
+      <c r="F97" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="39">
         <v>364031</v>
       </c>
-      <c r="H97" s="49">
+      <c r="H97" s="39">
         <v>272871.66666666669</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="39">
         <v>427464.66666666669</v>
       </c>
-      <c r="J97" s="64">
+      <c r="J97" s="48">
         <v>2021</v>
       </c>
-      <c r="K97" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="56">
+      <c r="K97" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="40">
         <v>15320</v>
       </c>
-      <c r="M97" s="57">
+      <c r="M97" s="41">
         <v>9830</v>
       </c>
-      <c r="N97" s="57">
+      <c r="N97" s="41">
         <v>740</v>
       </c>
-      <c r="O97" s="57">
+      <c r="O97" s="41">
         <v>4450</v>
       </c>
-      <c r="P97" s="57">
+      <c r="P97" s="41">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="32"/>
-      <c r="B98" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="40" t="s">
+      <c r="A98" s="27"/>
+      <c r="B98" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="34">
+      <c r="D98" s="29">
         <v>95850</v>
       </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="49">
+      <c r="E98" s="38">
+        <v>2021</v>
+      </c>
+      <c r="F98" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="39">
         <v>361983</v>
       </c>
-      <c r="H98" s="49">
+      <c r="H98" s="39">
         <v>271880.33333333331</v>
       </c>
-      <c r="I98" s="49">
+      <c r="I98" s="39">
         <v>435205</v>
       </c>
-      <c r="J98" s="64"/>
-      <c r="K98" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L98" s="56">
+      <c r="J98" s="48"/>
+      <c r="K98" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" s="40">
         <v>15560</v>
       </c>
-      <c r="M98" s="57">
+      <c r="M98" s="41">
         <v>9940</v>
       </c>
-      <c r="N98" s="57">
+      <c r="N98" s="41">
         <v>720</v>
       </c>
-      <c r="O98" s="57">
+      <c r="O98" s="41">
         <v>4560</v>
       </c>
-      <c r="P98" s="57">
+      <c r="P98" s="41">
         <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="32"/>
-      <c r="B99" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="41" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="34">
+      <c r="D99" s="29">
         <v>96060</v>
       </c>
-      <c r="E99" s="50"/>
-      <c r="F99" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="49">
+      <c r="E99" s="38">
+        <v>2021</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="39">
         <v>310666.33333333331</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H99" s="39">
         <v>235991</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99" s="39">
         <v>386209</v>
       </c>
-      <c r="J99" s="64"/>
-      <c r="K99" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="L99" s="56">
+      <c r="J99" s="48"/>
+      <c r="K99" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99" s="40">
         <v>15010</v>
       </c>
-      <c r="M99" s="57">
+      <c r="M99" s="41">
         <v>10010</v>
       </c>
-      <c r="N99" s="57">
+      <c r="N99" s="41">
         <v>750</v>
       </c>
-      <c r="O99" s="57">
+      <c r="O99" s="41">
         <v>3980</v>
       </c>
-      <c r="P99" s="57">
+      <c r="P99" s="41">
         <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="E100" s="50"/>
-      <c r="F100" s="48" t="s">
+      <c r="E100" s="38">
+        <v>2021</v>
+      </c>
+      <c r="F100" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="49">
+      <c r="G100" s="39">
         <v>330471.33333333331</v>
       </c>
-      <c r="H100" s="49">
+      <c r="H100" s="39">
         <v>246672</v>
       </c>
-      <c r="I100" s="49">
+      <c r="I100" s="39">
         <v>432760.66666666669</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:K1"/>
@@ -7125,10 +7289,2031 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A6784B-8606-44D0-BE1A-51014B80E135}">
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="29">
+        <v>47520</v>
+      </c>
+      <c r="E2" s="39">
+        <v>80650</v>
+      </c>
+      <c r="F2" s="40">
+        <v>63070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="29">
+        <v>49390</v>
+      </c>
+      <c r="E3" s="39">
+        <v>83933</v>
+      </c>
+      <c r="F3" s="40">
+        <v>59350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27" t="str">
+        <f>_xlfn.CONCAT(A4,B4)</f>
+        <v>1998Q3</v>
+      </c>
+      <c r="D4" s="29">
+        <v>52510</v>
+      </c>
+      <c r="E4" s="39">
+        <v>88147</v>
+      </c>
+      <c r="F4" s="40">
+        <v>63430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>_xlfn.CONCAT(A5,B5)</f>
+        <v>1998Q4</v>
+      </c>
+      <c r="D5" s="29">
+        <v>53790</v>
+      </c>
+      <c r="E5" s="39">
+        <v>85731</v>
+      </c>
+      <c r="F5" s="40">
+        <v>59520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f>_xlfn.CONCAT(A6,B6)</f>
+        <v>1999Q1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>56580</v>
+      </c>
+      <c r="E6" s="39">
+        <v>87294</v>
+      </c>
+      <c r="F6" s="40">
+        <v>62550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f>_xlfn.CONCAT(A7,B7)</f>
+        <v>1999Q2</v>
+      </c>
+      <c r="D7" s="29">
+        <v>58430</v>
+      </c>
+      <c r="E7" s="39">
+        <v>93136</v>
+      </c>
+      <c r="F7" s="40">
+        <v>59920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f>_xlfn.CONCAT(A8,B8)</f>
+        <v>1999Q3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>61450</v>
+      </c>
+      <c r="E8" s="39">
+        <v>100974</v>
+      </c>
+      <c r="F8" s="40">
+        <v>63330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="str">
+        <f>_xlfn.CONCAT(A9,B9)</f>
+        <v>1999Q4</v>
+      </c>
+      <c r="D9" s="29">
+        <v>62180</v>
+      </c>
+      <c r="E9" s="39">
+        <v>100250</v>
+      </c>
+      <c r="F9" s="40">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f>_xlfn.CONCAT(A10,B10)</f>
+        <v>2000Q1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>65170</v>
+      </c>
+      <c r="E10" s="39">
+        <v>101606</v>
+      </c>
+      <c r="F10" s="40">
+        <v>62490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f>_xlfn.CONCAT(A11,B11)</f>
+        <v>2000Q2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>67520</v>
+      </c>
+      <c r="E11" s="39">
+        <v>107022</v>
+      </c>
+      <c r="F11" s="40">
+        <v>60330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f>_xlfn.CONCAT(A12,B12)</f>
+        <v>2000Q3</v>
+      </c>
+      <c r="D12" s="29">
+        <v>71860</v>
+      </c>
+      <c r="E12" s="39">
+        <v>108395</v>
+      </c>
+      <c r="F12" s="40">
+        <v>64080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f>_xlfn.CONCAT(A13,B13)</f>
+        <v>2000Q4</v>
+      </c>
+      <c r="D13" s="29">
+        <v>73080</v>
+      </c>
+      <c r="E13" s="39">
+        <v>110201</v>
+      </c>
+      <c r="F13" s="40">
+        <v>60280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="27" t="str">
+        <f>_xlfn.CONCAT(A14,B14)</f>
+        <v>2001Q1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>75200</v>
+      </c>
+      <c r="E14" s="39">
+        <v>112931</v>
+      </c>
+      <c r="F14" s="40">
+        <v>64880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="str">
+        <f>_xlfn.CONCAT(A15,B15)</f>
+        <v>2001Q2</v>
+      </c>
+      <c r="D15" s="29">
+        <v>75920</v>
+      </c>
+      <c r="E15" s="39">
+        <v>118927</v>
+      </c>
+      <c r="F15" s="40">
+        <v>62370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27" t="str">
+        <f>_xlfn.CONCAT(A16,B16)</f>
+        <v>2001Q3</v>
+      </c>
+      <c r="D16" s="29">
+        <v>77800</v>
+      </c>
+      <c r="E16" s="39">
+        <v>124379</v>
+      </c>
+      <c r="F16" s="40">
+        <v>67160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27" t="str">
+        <f>_xlfn.CONCAT(A17,B17)</f>
+        <v>2001Q4</v>
+      </c>
+      <c r="D17" s="29">
+        <v>77510</v>
+      </c>
+      <c r="E17" s="39">
+        <v>119682</v>
+      </c>
+      <c r="F17" s="40">
+        <v>60670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="27" t="str">
+        <f>_xlfn.CONCAT(A18,B18)</f>
+        <v>2002Q1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>80200</v>
+      </c>
+      <c r="E18" s="39">
+        <v>120711</v>
+      </c>
+      <c r="F18" s="40">
+        <v>63850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27" t="str">
+        <f>_xlfn.CONCAT(A19,B19)</f>
+        <v>2002Q2</v>
+      </c>
+      <c r="D19" s="29">
+        <v>81660</v>
+      </c>
+      <c r="E19" s="39">
+        <v>134149</v>
+      </c>
+      <c r="F19" s="40">
+        <v>66090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f>_xlfn.CONCAT(A20,B20)</f>
+        <v>2002Q3</v>
+      </c>
+      <c r="D20" s="29">
+        <v>85010</v>
+      </c>
+      <c r="E20" s="39">
+        <v>145378</v>
+      </c>
+      <c r="F20" s="40">
+        <v>71910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="27" t="str">
+        <f>_xlfn.CONCAT(A21,B21)</f>
+        <v>2002Q4</v>
+      </c>
+      <c r="D21" s="29">
+        <v>85140</v>
+      </c>
+      <c r="E21" s="39">
+        <v>144636</v>
+      </c>
+      <c r="F21" s="40">
+        <v>67490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="27" t="str">
+        <f>_xlfn.CONCAT(A22,B22)</f>
+        <v>2003Q1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>89040</v>
+      </c>
+      <c r="E22" s="39">
+        <v>144166</v>
+      </c>
+      <c r="F22" s="40">
+        <v>73640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="27" t="str">
+        <f>_xlfn.CONCAT(A23,B23)</f>
+        <v>2003Q2</v>
+      </c>
+      <c r="D23" s="29">
+        <v>91870</v>
+      </c>
+      <c r="E23" s="39">
+        <v>153301</v>
+      </c>
+      <c r="F23" s="40">
+        <v>72070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="27" t="str">
+        <f>_xlfn.CONCAT(A24,B24)</f>
+        <v>2003Q3</v>
+      </c>
+      <c r="D24" s="29">
+        <v>94440</v>
+      </c>
+      <c r="E24" s="39">
+        <v>174437</v>
+      </c>
+      <c r="F24" s="40">
+        <v>79710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="27" t="str">
+        <f>_xlfn.CONCAT(A25,B25)</f>
+        <v>2003Q4</v>
+      </c>
+      <c r="D25" s="29">
+        <v>94610</v>
+      </c>
+      <c r="E25" s="39">
+        <v>176847</v>
+      </c>
+      <c r="F25" s="40">
+        <v>71550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="27" t="str">
+        <f>_xlfn.CONCAT(A26,B26)</f>
+        <v>2004Q1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>97680</v>
+      </c>
+      <c r="E26" s="39">
+        <v>179479</v>
+      </c>
+      <c r="F26" s="40">
+        <v>75060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f>_xlfn.CONCAT(A27,B27)</f>
+        <v>2004Q2</v>
+      </c>
+      <c r="D27" s="29">
+        <v>99530</v>
+      </c>
+      <c r="E27" s="39">
+        <v>189063</v>
+      </c>
+      <c r="F27" s="40">
+        <v>71150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f>_xlfn.CONCAT(A28,B28)</f>
+        <v>2004Q3</v>
+      </c>
+      <c r="D28" s="29">
+        <v>101300</v>
+      </c>
+      <c r="E28" s="39">
+        <v>201071</v>
+      </c>
+      <c r="F28" s="40">
+        <v>71110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f>_xlfn.CONCAT(A29,B29)</f>
+        <v>2004Q4</v>
+      </c>
+      <c r="D29" s="29">
+        <v>101030</v>
+      </c>
+      <c r="E29" s="39">
+        <v>198395</v>
+      </c>
+      <c r="F29" s="40">
+        <v>64140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f>_xlfn.CONCAT(A30,B30)</f>
+        <v>2005Q1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>101070</v>
+      </c>
+      <c r="E30" s="39">
+        <v>198752</v>
+      </c>
+      <c r="F30" s="40">
+        <v>60480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f>_xlfn.CONCAT(A31,B31)</f>
+        <v>2005Q2</v>
+      </c>
+      <c r="D31" s="29">
+        <v>100970</v>
+      </c>
+      <c r="E31" s="39">
+        <v>202223</v>
+      </c>
+      <c r="F31" s="40">
+        <v>61300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f>_xlfn.CONCAT(A32,B32)</f>
+        <v>2005Q3</v>
+      </c>
+      <c r="D32" s="29">
+        <v>101020</v>
+      </c>
+      <c r="E32" s="39">
+        <v>210734</v>
+      </c>
+      <c r="F32" s="40">
+        <v>56270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="27" t="str">
+        <f>_xlfn.CONCAT(A33,B33)</f>
+        <v>2005Q4</v>
+      </c>
+      <c r="D33" s="29">
+        <v>98730</v>
+      </c>
+      <c r="E33" s="39">
+        <v>197926</v>
+      </c>
+      <c r="F33" s="40">
+        <v>49210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f>_xlfn.CONCAT(A34,B34)</f>
+        <v>2006Q1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>96370</v>
+      </c>
+      <c r="E34" s="39">
+        <v>202725</v>
+      </c>
+      <c r="F34" s="40">
+        <v>46490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="27" t="str">
+        <f>_xlfn.CONCAT(A35,B35)</f>
+        <v>2006Q2</v>
+      </c>
+      <c r="D35" s="29">
+        <v>93910</v>
+      </c>
+      <c r="E35" s="39">
+        <v>208911</v>
+      </c>
+      <c r="F35" s="40">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="27" t="str">
+        <f>_xlfn.CONCAT(A36,B36)</f>
+        <v>2006Q3</v>
+      </c>
+      <c r="D36" s="29">
+        <v>93090</v>
+      </c>
+      <c r="E36" s="39">
+        <v>223419</v>
+      </c>
+      <c r="F36" s="40">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="27" t="str">
+        <f>_xlfn.CONCAT(A37,B37)</f>
+        <v>2006Q4</v>
+      </c>
+      <c r="D37" s="29">
+        <v>89510</v>
+      </c>
+      <c r="E37" s="39">
+        <v>221124</v>
+      </c>
+      <c r="F37" s="40">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="27" t="str">
+        <f>_xlfn.CONCAT(A38,B38)</f>
+        <v>2007Q1</v>
+      </c>
+      <c r="D38" s="29">
+        <v>87120</v>
+      </c>
+      <c r="E38" s="39">
+        <v>225914</v>
+      </c>
+      <c r="F38" s="40">
+        <v>37300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="27" t="str">
+        <f>_xlfn.CONCAT(A39,B39)</f>
+        <v>2007Q2</v>
+      </c>
+      <c r="D39" s="29">
+        <v>84900</v>
+      </c>
+      <c r="E39" s="39">
+        <v>227127</v>
+      </c>
+      <c r="F39" s="40">
+        <v>34040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f>_xlfn.CONCAT(A40,B40)</f>
+        <v>2007Q3</v>
+      </c>
+      <c r="D40" s="29">
+        <v>82750</v>
+      </c>
+      <c r="E40" s="39">
+        <v>240966.19585533286</v>
+      </c>
+      <c r="F40" s="40">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="27" t="str">
+        <f>_xlfn.CONCAT(A41,B41)</f>
+        <v>2007Q4</v>
+      </c>
+      <c r="D41" s="29">
+        <v>79500</v>
+      </c>
+      <c r="E41" s="39">
+        <v>234209.24283029581</v>
+      </c>
+      <c r="F41" s="40">
+        <v>31150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="27" t="str">
+        <f>_xlfn.CONCAT(A42,B42)</f>
+        <v>2008Q1</v>
+      </c>
+      <c r="D42" s="29">
+        <v>77510</v>
+      </c>
+      <c r="E42" s="39">
+        <v>236383.48444642569</v>
+      </c>
+      <c r="F42" s="40">
+        <v>30450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="27" t="str">
+        <f>_xlfn.CONCAT(A43,B43)</f>
+        <v>2008Q2</v>
+      </c>
+      <c r="D43" s="29">
+        <v>74690</v>
+      </c>
+      <c r="E43" s="39">
+        <v>237799.35917276281</v>
+      </c>
+      <c r="F43" s="40">
+        <v>30440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="27" t="str">
+        <f>_xlfn.CONCAT(A44,B44)</f>
+        <v>2008Q3</v>
+      </c>
+      <c r="D44" s="29">
+        <v>72130</v>
+      </c>
+      <c r="E44" s="39">
+        <v>243573.44906650123</v>
+      </c>
+      <c r="F44" s="40">
+        <v>30040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="27" t="str">
+        <f>_xlfn.CONCAT(A45,B45)</f>
+        <v>2008Q4</v>
+      </c>
+      <c r="D45" s="29">
+        <v>67480</v>
+      </c>
+      <c r="E45" s="39">
+        <v>230691.91342468504</v>
+      </c>
+      <c r="F45" s="40">
+        <v>26530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="27" t="str">
+        <f>_xlfn.CONCAT(A46,B46)</f>
+        <v>2009Q1</v>
+      </c>
+      <c r="D46" s="29">
+        <v>64000</v>
+      </c>
+      <c r="E46" s="39">
+        <v>224848.72128158101</v>
+      </c>
+      <c r="F46" s="40">
+        <v>25890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="27" t="str">
+        <f>_xlfn.CONCAT(A47,B47)</f>
+        <v>2009Q2</v>
+      </c>
+      <c r="D47" s="29">
+        <v>60230</v>
+      </c>
+      <c r="E47" s="39">
+        <v>223375.67226748742</v>
+      </c>
+      <c r="F47" s="40">
+        <v>23560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="27" t="str">
+        <f>_xlfn.CONCAT(A48,B48)</f>
+        <v>2009Q3</v>
+      </c>
+      <c r="D48" s="29">
+        <v>56920</v>
+      </c>
+      <c r="E48" s="39">
+        <v>243928.59097007019</v>
+      </c>
+      <c r="F48" s="40">
+        <v>22950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="27" t="str">
+        <f>_xlfn.CONCAT(A49,B49)</f>
+        <v>2009Q4</v>
+      </c>
+      <c r="D49" s="29">
+        <v>53370</v>
+      </c>
+      <c r="E49" s="39">
+        <v>241894.85544066262</v>
+      </c>
+      <c r="F49" s="40">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="27" t="str">
+        <f>_xlfn.CONCAT(A50,B50)</f>
+        <v>2010Q1</v>
+      </c>
+      <c r="D50" s="29">
+        <v>51310</v>
+      </c>
+      <c r="E50" s="39">
+        <v>262740.91254881129</v>
+      </c>
+      <c r="F50" s="40">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="27" t="str">
+        <f>_xlfn.CONCAT(A51,B51)</f>
+        <v>2010Q2</v>
+      </c>
+      <c r="D51" s="29">
+        <v>50400</v>
+      </c>
+      <c r="E51" s="39">
+        <v>259468.55516312143</v>
+      </c>
+      <c r="F51" s="40">
+        <v>22850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="27" t="str">
+        <f>_xlfn.CONCAT(A52,B52)</f>
+        <v>2010Q3</v>
+      </c>
+      <c r="D52" s="29">
+        <v>49680</v>
+      </c>
+      <c r="E52" s="39">
+        <v>268649.92746424029</v>
+      </c>
+      <c r="F52" s="40">
+        <v>26890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="27" t="str">
+        <f>_xlfn.CONCAT(A53,B53)</f>
+        <v>2010Q4</v>
+      </c>
+      <c r="D53" s="29">
+        <v>48010</v>
+      </c>
+      <c r="E53" s="39">
+        <v>253909.2819920769</v>
+      </c>
+      <c r="F53" s="40">
+        <v>26060</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="27" t="str">
+        <f>_xlfn.CONCAT(A54,B54)</f>
+        <v>2011Q1</v>
+      </c>
+      <c r="D54" s="29">
+        <v>48240</v>
+      </c>
+      <c r="E54" s="39">
+        <v>255013.27365477791</v>
+      </c>
+      <c r="F54" s="40">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="27" t="str">
+        <f>_xlfn.CONCAT(A55,B55)</f>
+        <v>2011Q2</v>
+      </c>
+      <c r="D55" s="29">
+        <v>48330</v>
+      </c>
+      <c r="E55" s="39">
+        <v>250036.40616366352</v>
+      </c>
+      <c r="F55" s="40">
+        <v>25980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="27" t="str">
+        <f>_xlfn.CONCAT(A56,B56)</f>
+        <v>2011Q3</v>
+      </c>
+      <c r="D56" s="29">
+        <v>49100</v>
+      </c>
+      <c r="E56" s="39">
+        <v>264626.79321165459</v>
+      </c>
+      <c r="F56" s="40">
+        <v>27390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="27" t="str">
+        <f>_xlfn.CONCAT(A57,B57)</f>
+        <v>2011Q4</v>
+      </c>
+      <c r="D57" s="29">
+        <v>48920</v>
+      </c>
+      <c r="E57" s="39">
+        <v>252476.30999999997</v>
+      </c>
+      <c r="F57" s="40">
+        <v>27470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="27" t="str">
+        <f>_xlfn.CONCAT(A58,B58)</f>
+        <v>2012Q1</v>
+      </c>
+      <c r="D58" s="29">
+        <v>50430</v>
+      </c>
+      <c r="E58" s="39">
+        <v>248768.39196866922</v>
+      </c>
+      <c r="F58" s="40">
+        <v>27880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="27" t="str">
+        <f>_xlfn.CONCAT(A59,B59)</f>
+        <v>2012Q2</v>
+      </c>
+      <c r="D59" s="29">
+        <v>51630</v>
+      </c>
+      <c r="E59" s="39">
+        <v>255157.38662902627</v>
+      </c>
+      <c r="F59" s="40">
+        <v>26780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="27" t="str">
+        <f>_xlfn.CONCAT(A60,B60)</f>
+        <v>2012Q3</v>
+      </c>
+      <c r="D60" s="29">
+        <v>52960</v>
+      </c>
+      <c r="E60" s="39">
+        <v>264480.61773333332</v>
+      </c>
+      <c r="F60" s="40">
+        <v>29140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="27" t="str">
+        <f>_xlfn.CONCAT(A61,B61)</f>
+        <v>2012Q4</v>
+      </c>
+      <c r="D61" s="29">
+        <v>53140</v>
+      </c>
+      <c r="E61" s="39">
+        <v>256197.35153333333</v>
+      </c>
+      <c r="F61" s="40">
+        <v>29070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="27" t="str">
+        <f>_xlfn.CONCAT(A62,B62)</f>
+        <v>2013Q1</v>
+      </c>
+      <c r="D62" s="29">
+        <v>55320</v>
+      </c>
+      <c r="E62" s="39">
+        <v>253175.14260063707</v>
+      </c>
+      <c r="F62" s="40">
+        <v>28520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="27" t="str">
+        <f>_xlfn.CONCAT(A63,B63)</f>
+        <v>2013Q2</v>
+      </c>
+      <c r="D63" s="29">
+        <v>55840</v>
+      </c>
+      <c r="E63" s="39">
+        <v>254850.89377329874</v>
+      </c>
+      <c r="F63" s="40">
+        <v>28230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="27" t="str">
+        <f>_xlfn.CONCAT(A64,B64)</f>
+        <v>2013Q3</v>
+      </c>
+      <c r="D64" s="29">
+        <v>57410</v>
+      </c>
+      <c r="E64" s="39">
+        <v>270889.13364510465</v>
+      </c>
+      <c r="F64" s="40">
+        <v>28100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="27" t="str">
+        <f>_xlfn.CONCAT(A65,B65)</f>
+        <v>2013Q4</v>
+      </c>
+      <c r="D65" s="29">
+        <v>56940</v>
+      </c>
+      <c r="E65" s="39">
+        <v>264484.28505776695</v>
+      </c>
+      <c r="F65" s="40">
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="27" t="str">
+        <f>_xlfn.CONCAT(A66,B66)</f>
+        <v>2014Q1</v>
+      </c>
+      <c r="D66" s="29">
+        <v>58410</v>
+      </c>
+      <c r="E66" s="39">
+        <v>270883.57493333332</v>
+      </c>
+      <c r="F66" s="40">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="27" t="str">
+        <f>_xlfn.CONCAT(A67,B67)</f>
+        <v>2014Q2</v>
+      </c>
+      <c r="D67" s="29">
+        <v>59570</v>
+      </c>
+      <c r="E67" s="39">
+        <v>275316.48647355818</v>
+      </c>
+      <c r="F67" s="40">
+        <v>27550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="27" t="str">
+        <f>_xlfn.CONCAT(A68,B68)</f>
+        <v>2014Q3</v>
+      </c>
+      <c r="D68" s="29">
+        <v>60900</v>
+      </c>
+      <c r="E68" s="39">
+        <v>288785.81364484597</v>
+      </c>
+      <c r="F68" s="40">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="27" t="str">
+        <f>_xlfn.CONCAT(A69,B69)</f>
+        <v>2014Q4</v>
+      </c>
+      <c r="D69" s="29">
+        <v>61930</v>
+      </c>
+      <c r="E69" s="39">
+        <v>276467.66666666669</v>
+      </c>
+      <c r="F69" s="40">
+        <v>28640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="27" t="str">
+        <f>_xlfn.CONCAT(A70,B70)</f>
+        <v>2015Q1</v>
+      </c>
+      <c r="D70" s="29">
+        <v>64710</v>
+      </c>
+      <c r="E70" s="39">
+        <v>281212.66666666669</v>
+      </c>
+      <c r="F70" s="40">
+        <v>27640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="27" t="str">
+        <f>_xlfn.CONCAT(A71,B71)</f>
+        <v>2015Q2</v>
+      </c>
+      <c r="D71" s="29">
+        <v>66980</v>
+      </c>
+      <c r="E71" s="39">
+        <v>281836.66666666669</v>
+      </c>
+      <c r="F71" s="40">
+        <v>27440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="27" t="str">
+        <f>_xlfn.CONCAT(A72,B72)</f>
+        <v>2015Q3</v>
+      </c>
+      <c r="D72" s="29">
+        <v>68560</v>
+      </c>
+      <c r="E72" s="39">
+        <v>304023</v>
+      </c>
+      <c r="F72" s="40">
+        <v>28960</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="27" t="str">
+        <f>_xlfn.CONCAT(A73,B73)</f>
+        <v>2015Q4</v>
+      </c>
+      <c r="D73" s="29">
+        <v>69140</v>
+      </c>
+      <c r="E73" s="39">
+        <v>296424.28333333333</v>
+      </c>
+      <c r="F73" s="40">
+        <v>29280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="27" t="str">
+        <f>_xlfn.CONCAT(A74,B74)</f>
+        <v>2016Q1</v>
+      </c>
+      <c r="D74" s="29">
+        <v>71670</v>
+      </c>
+      <c r="E74" s="39">
+        <v>310040.82969554584</v>
+      </c>
+      <c r="F74" s="40">
+        <v>29090</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="27" t="str">
+        <f>_xlfn.CONCAT(A75,B75)</f>
+        <v>2016Q2</v>
+      </c>
+      <c r="D75" s="29">
+        <v>73050</v>
+      </c>
+      <c r="E75" s="39">
+        <v>283167.81200110022</v>
+      </c>
+      <c r="F75" s="40">
+        <v>29760</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="27" t="str">
+        <f>_xlfn.CONCAT(A76,B76)</f>
+        <v>2016Q3</v>
+      </c>
+      <c r="D76" s="29">
+        <v>74750</v>
+      </c>
+      <c r="E76" s="39">
+        <v>302088.84416468645</v>
+      </c>
+      <c r="F76" s="40">
+        <v>29390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="27" t="str">
+        <f>_xlfn.CONCAT(A77,B77)</f>
+        <v>2016Q4</v>
+      </c>
+      <c r="D77" s="29">
+        <v>75740</v>
+      </c>
+      <c r="E77" s="39">
+        <v>298548.84697444853</v>
+      </c>
+      <c r="F77" s="40">
+        <v>27960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="27" t="str">
+        <f>_xlfn.CONCAT(A78,B78)</f>
+        <v>2017Q1</v>
+      </c>
+      <c r="D78" s="29">
+        <v>77220</v>
+      </c>
+      <c r="E78" s="39">
+        <v>291964.84700995428</v>
+      </c>
+      <c r="F78" s="40">
+        <v>28490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="27" t="str">
+        <f>_xlfn.CONCAT(A79,B79)</f>
+        <v>2017Q2</v>
+      </c>
+      <c r="D79" s="29">
+        <v>78540</v>
+      </c>
+      <c r="E79" s="39">
+        <v>297527.70558251929</v>
+      </c>
+      <c r="F79" s="40">
+        <v>27480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="27" t="str">
+        <f>_xlfn.CONCAT(A80,B80)</f>
+        <v>2017Q3</v>
+      </c>
+      <c r="D80" s="29">
+        <v>79830</v>
+      </c>
+      <c r="E80" s="39">
+        <v>305867.96059673239</v>
+      </c>
+      <c r="F80" s="40">
+        <v>29360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="27" t="str">
+        <f>_xlfn.CONCAT(A81,B81)</f>
+        <v>2017Q4</v>
+      </c>
+      <c r="D81" s="29">
+        <v>79720</v>
+      </c>
+      <c r="E81" s="39">
+        <v>295604.24842200143</v>
+      </c>
+      <c r="F81" s="40">
+        <v>26890</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="27" t="str">
+        <f>_xlfn.CONCAT(A82,B82)</f>
+        <v>2018Q1</v>
+      </c>
+      <c r="D82" s="29">
+        <v>80720</v>
+      </c>
+      <c r="E82" s="39">
+        <v>297704.248594573</v>
+      </c>
+      <c r="F82" s="40">
+        <v>25750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="27" t="str">
+        <f>_xlfn.CONCAT(A83,B83)</f>
+        <v>2018Q2</v>
+      </c>
+      <c r="D83" s="29">
+        <v>82390</v>
+      </c>
+      <c r="E83" s="39">
+        <v>297314.8770822598</v>
+      </c>
+      <c r="F83" s="40">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="27" t="str">
+        <f>_xlfn.CONCAT(A84,B84)</f>
+        <v>2018Q3</v>
+      </c>
+      <c r="D84" s="29">
+        <v>83430</v>
+      </c>
+      <c r="E84" s="39">
+        <v>308070.56884590862</v>
+      </c>
+      <c r="F84" s="40">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="27" t="str">
+        <f>_xlfn.CONCAT(A85,B85)</f>
+        <v>2018Q4</v>
+      </c>
+      <c r="D85" s="29">
+        <v>83540</v>
+      </c>
+      <c r="E85" s="39">
+        <v>297579.8670134414</v>
+      </c>
+      <c r="F85" s="40">
+        <v>13190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="27" t="str">
+        <f>_xlfn.CONCAT(A86,B86)</f>
+        <v>2019Q1</v>
+      </c>
+      <c r="D86" s="29">
+        <v>85040</v>
+      </c>
+      <c r="E86" s="39">
+        <v>292136.09161158669</v>
+      </c>
+      <c r="F86" s="40">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="27" t="str">
+        <f>_xlfn.CONCAT(A87,B87)</f>
+        <v>2019Q2</v>
+      </c>
+      <c r="D87" s="29">
+        <v>86240</v>
+      </c>
+      <c r="E87" s="39">
+        <v>293927.33333333331</v>
+      </c>
+      <c r="F87" s="40">
+        <v>15270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="27" t="str">
+        <f>_xlfn.CONCAT(A88,B88)</f>
+        <v>2019Q3</v>
+      </c>
+      <c r="D88" s="29">
+        <v>87390</v>
+      </c>
+      <c r="E88" s="39">
+        <v>307321.33333333331</v>
+      </c>
+      <c r="F88" s="40">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="27" t="str">
+        <f>_xlfn.CONCAT(A89,B89)</f>
+        <v>2019Q4</v>
+      </c>
+      <c r="D89" s="29">
+        <v>88310</v>
+      </c>
+      <c r="E89" s="39">
+        <v>306272.66666666669</v>
+      </c>
+      <c r="F89" s="40">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="27" t="str">
+        <f>_xlfn.CONCAT(A90,B90)</f>
+        <v>2020Q1</v>
+      </c>
+      <c r="D90" s="29">
+        <v>92190</v>
+      </c>
+      <c r="E90" s="39">
+        <v>308011</v>
+      </c>
+      <c r="F90" s="40">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="27" t="str">
+        <f>_xlfn.CONCAT(A91,B91)</f>
+        <v>2020Q2</v>
+      </c>
+      <c r="D91" s="29">
+        <v>98260</v>
+      </c>
+      <c r="E91" s="39">
+        <v>295366.66666666669</v>
+      </c>
+      <c r="F91" s="40">
+        <v>16770</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="27" t="str">
+        <f>_xlfn.CONCAT(A92,B92)</f>
+        <v>2020Q3</v>
+      </c>
+      <c r="D92" s="29">
+        <v>94610</v>
+      </c>
+      <c r="E92" s="39">
+        <v>333202.66666666669</v>
+      </c>
+      <c r="F92" s="40">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="27" t="str">
+        <f>_xlfn.CONCAT(A93,B93)</f>
+        <v>2020Q4</v>
+      </c>
+      <c r="D93" s="29">
+        <v>95100</v>
+      </c>
+      <c r="E93" s="39">
+        <v>347266.66666666669</v>
+      </c>
+      <c r="F93" s="40">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="27" t="str">
+        <f>_xlfn.CONCAT(A94,B94)</f>
+        <v>2021Q1</v>
+      </c>
+      <c r="D94" s="29">
+        <v>95290</v>
+      </c>
+      <c r="E94" s="39">
+        <v>364031</v>
+      </c>
+      <c r="F94" s="40">
+        <v>15320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="27" t="str">
+        <f>_xlfn.CONCAT(A95,B95)</f>
+        <v>2021Q2</v>
+      </c>
+      <c r="D95" s="29">
+        <v>95850</v>
+      </c>
+      <c r="E95" s="39">
+        <v>361983</v>
+      </c>
+      <c r="F95" s="40">
+        <v>15560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="27" t="str">
+        <f>_xlfn.CONCAT(A96,B96)</f>
+        <v>2021Q3</v>
+      </c>
+      <c r="D96" s="29">
+        <v>96060</v>
+      </c>
+      <c r="E96" s="39">
+        <v>310666.33333333331</v>
+      </c>
+      <c r="F96" s="40">
+        <v>15010</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/all_in_one_Time_sieries_data_color.xlsx
+++ b/Data/all_in_one_Time_sieries_data_color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D4A6F-528D-471E-941B-72F2299B7EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A7B4C-CBA1-4EE2-992A-CE693FE0A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="42">
   <si>
     <t>Size_of_waiting_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>1998 - Q2</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>quarter</t>
   </si>
 </sst>
 </file>
@@ -1053,6 +1062,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1088,12 +1103,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2863,102 +2872,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="53" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16" ht="104" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27">
@@ -7271,11 +7280,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -7289,6 +7293,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7300,7 +7309,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7309,6 +7318,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
       <c r="D1" t="s">
         <v>34</v>
       </c>
@@ -7367,7 +7385,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="27" t="str">
-        <f>_xlfn.CONCAT(A4,B4)</f>
+        <f t="shared" ref="C4:C35" si="0">_xlfn.CONCAT(A4,B4)</f>
         <v>1998Q3</v>
       </c>
       <c r="D4" s="29">
@@ -7388,7 +7406,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="27" t="str">
-        <f>_xlfn.CONCAT(A5,B5)</f>
+        <f t="shared" si="0"/>
         <v>1998Q4</v>
       </c>
       <c r="D5" s="29">
@@ -7409,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="27" t="str">
-        <f>_xlfn.CONCAT(A6,B6)</f>
+        <f t="shared" si="0"/>
         <v>1999Q1</v>
       </c>
       <c r="D6" s="29">
@@ -7430,7 +7448,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="27" t="str">
-        <f>_xlfn.CONCAT(A7,B7)</f>
+        <f t="shared" si="0"/>
         <v>1999Q2</v>
       </c>
       <c r="D7" s="29">
@@ -7451,7 +7469,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="27" t="str">
-        <f>_xlfn.CONCAT(A8,B8)</f>
+        <f t="shared" si="0"/>
         <v>1999Q3</v>
       </c>
       <c r="D8" s="29">
@@ -7472,7 +7490,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="27" t="str">
-        <f>_xlfn.CONCAT(A9,B9)</f>
+        <f t="shared" si="0"/>
         <v>1999Q4</v>
       </c>
       <c r="D9" s="29">
@@ -7493,7 +7511,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="27" t="str">
-        <f>_xlfn.CONCAT(A10,B10)</f>
+        <f t="shared" si="0"/>
         <v>2000Q1</v>
       </c>
       <c r="D10" s="29">
@@ -7514,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="27" t="str">
-        <f>_xlfn.CONCAT(A11,B11)</f>
+        <f t="shared" si="0"/>
         <v>2000Q2</v>
       </c>
       <c r="D11" s="29">
@@ -7535,7 +7553,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="27" t="str">
-        <f>_xlfn.CONCAT(A12,B12)</f>
+        <f t="shared" si="0"/>
         <v>2000Q3</v>
       </c>
       <c r="D12" s="29">
@@ -7556,7 +7574,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="27" t="str">
-        <f>_xlfn.CONCAT(A13,B13)</f>
+        <f t="shared" si="0"/>
         <v>2000Q4</v>
       </c>
       <c r="D13" s="29">
@@ -7577,7 +7595,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="27" t="str">
-        <f>_xlfn.CONCAT(A14,B14)</f>
+        <f t="shared" si="0"/>
         <v>2001Q1</v>
       </c>
       <c r="D14" s="29">
@@ -7598,7 +7616,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="27" t="str">
-        <f>_xlfn.CONCAT(A15,B15)</f>
+        <f t="shared" si="0"/>
         <v>2001Q2</v>
       </c>
       <c r="D15" s="29">
@@ -7619,7 +7637,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="27" t="str">
-        <f>_xlfn.CONCAT(A16,B16)</f>
+        <f t="shared" si="0"/>
         <v>2001Q3</v>
       </c>
       <c r="D16" s="29">
@@ -7640,7 +7658,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="27" t="str">
-        <f>_xlfn.CONCAT(A17,B17)</f>
+        <f t="shared" si="0"/>
         <v>2001Q4</v>
       </c>
       <c r="D17" s="29">
@@ -7661,7 +7679,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="27" t="str">
-        <f>_xlfn.CONCAT(A18,B18)</f>
+        <f t="shared" si="0"/>
         <v>2002Q1</v>
       </c>
       <c r="D18" s="29">
@@ -7682,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="str">
-        <f>_xlfn.CONCAT(A19,B19)</f>
+        <f t="shared" si="0"/>
         <v>2002Q2</v>
       </c>
       <c r="D19" s="29">
@@ -7703,7 +7721,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="27" t="str">
-        <f>_xlfn.CONCAT(A20,B20)</f>
+        <f t="shared" si="0"/>
         <v>2002Q3</v>
       </c>
       <c r="D20" s="29">
@@ -7724,7 +7742,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="27" t="str">
-        <f>_xlfn.CONCAT(A21,B21)</f>
+        <f t="shared" si="0"/>
         <v>2002Q4</v>
       </c>
       <c r="D21" s="29">
@@ -7745,7 +7763,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="27" t="str">
-        <f>_xlfn.CONCAT(A22,B22)</f>
+        <f t="shared" si="0"/>
         <v>2003Q1</v>
       </c>
       <c r="D22" s="29">
@@ -7766,7 +7784,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="27" t="str">
-        <f>_xlfn.CONCAT(A23,B23)</f>
+        <f t="shared" si="0"/>
         <v>2003Q2</v>
       </c>
       <c r="D23" s="29">
@@ -7787,7 +7805,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="27" t="str">
-        <f>_xlfn.CONCAT(A24,B24)</f>
+        <f t="shared" si="0"/>
         <v>2003Q3</v>
       </c>
       <c r="D24" s="29">
@@ -7808,7 +7826,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="27" t="str">
-        <f>_xlfn.CONCAT(A25,B25)</f>
+        <f t="shared" si="0"/>
         <v>2003Q4</v>
       </c>
       <c r="D25" s="29">
@@ -7829,7 +7847,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="27" t="str">
-        <f>_xlfn.CONCAT(A26,B26)</f>
+        <f t="shared" si="0"/>
         <v>2004Q1</v>
       </c>
       <c r="D26" s="29">
@@ -7850,7 +7868,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="27" t="str">
-        <f>_xlfn.CONCAT(A27,B27)</f>
+        <f t="shared" si="0"/>
         <v>2004Q2</v>
       </c>
       <c r="D27" s="29">
@@ -7871,7 +7889,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="str">
-        <f>_xlfn.CONCAT(A28,B28)</f>
+        <f t="shared" si="0"/>
         <v>2004Q3</v>
       </c>
       <c r="D28" s="29">
@@ -7892,7 +7910,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="27" t="str">
-        <f>_xlfn.CONCAT(A29,B29)</f>
+        <f t="shared" si="0"/>
         <v>2004Q4</v>
       </c>
       <c r="D29" s="29">
@@ -7913,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="27" t="str">
-        <f>_xlfn.CONCAT(A30,B30)</f>
+        <f t="shared" si="0"/>
         <v>2005Q1</v>
       </c>
       <c r="D30" s="29">
@@ -7934,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="27" t="str">
-        <f>_xlfn.CONCAT(A31,B31)</f>
+        <f t="shared" si="0"/>
         <v>2005Q2</v>
       </c>
       <c r="D31" s="29">
@@ -7955,7 +7973,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="27" t="str">
-        <f>_xlfn.CONCAT(A32,B32)</f>
+        <f t="shared" si="0"/>
         <v>2005Q3</v>
       </c>
       <c r="D32" s="29">
@@ -7976,7 +7994,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="27" t="str">
-        <f>_xlfn.CONCAT(A33,B33)</f>
+        <f t="shared" si="0"/>
         <v>2005Q4</v>
       </c>
       <c r="D33" s="29">
@@ -7997,7 +8015,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="27" t="str">
-        <f>_xlfn.CONCAT(A34,B34)</f>
+        <f t="shared" si="0"/>
         <v>2006Q1</v>
       </c>
       <c r="D34" s="29">
@@ -8018,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="27" t="str">
-        <f>_xlfn.CONCAT(A35,B35)</f>
+        <f t="shared" si="0"/>
         <v>2006Q2</v>
       </c>
       <c r="D35" s="29">
@@ -8039,7 +8057,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="27" t="str">
-        <f>_xlfn.CONCAT(A36,B36)</f>
+        <f t="shared" ref="C36:C67" si="1">_xlfn.CONCAT(A36,B36)</f>
         <v>2006Q3</v>
       </c>
       <c r="D36" s="29">
@@ -8060,7 +8078,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="27" t="str">
-        <f>_xlfn.CONCAT(A37,B37)</f>
+        <f t="shared" si="1"/>
         <v>2006Q4</v>
       </c>
       <c r="D37" s="29">
@@ -8081,7 +8099,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="27" t="str">
-        <f>_xlfn.CONCAT(A38,B38)</f>
+        <f t="shared" si="1"/>
         <v>2007Q1</v>
       </c>
       <c r="D38" s="29">
@@ -8102,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="27" t="str">
-        <f>_xlfn.CONCAT(A39,B39)</f>
+        <f t="shared" si="1"/>
         <v>2007Q2</v>
       </c>
       <c r="D39" s="29">
@@ -8123,7 +8141,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="27" t="str">
-        <f>_xlfn.CONCAT(A40,B40)</f>
+        <f t="shared" si="1"/>
         <v>2007Q3</v>
       </c>
       <c r="D40" s="29">
@@ -8144,7 +8162,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="27" t="str">
-        <f>_xlfn.CONCAT(A41,B41)</f>
+        <f t="shared" si="1"/>
         <v>2007Q4</v>
       </c>
       <c r="D41" s="29">
@@ -8165,7 +8183,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="27" t="str">
-        <f>_xlfn.CONCAT(A42,B42)</f>
+        <f t="shared" si="1"/>
         <v>2008Q1</v>
       </c>
       <c r="D42" s="29">
@@ -8186,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="27" t="str">
-        <f>_xlfn.CONCAT(A43,B43)</f>
+        <f t="shared" si="1"/>
         <v>2008Q2</v>
       </c>
       <c r="D43" s="29">
@@ -8207,7 +8225,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="27" t="str">
-        <f>_xlfn.CONCAT(A44,B44)</f>
+        <f t="shared" si="1"/>
         <v>2008Q3</v>
       </c>
       <c r="D44" s="29">
@@ -8228,7 +8246,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="27" t="str">
-        <f>_xlfn.CONCAT(A45,B45)</f>
+        <f t="shared" si="1"/>
         <v>2008Q4</v>
       </c>
       <c r="D45" s="29">
@@ -8249,7 +8267,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="27" t="str">
-        <f>_xlfn.CONCAT(A46,B46)</f>
+        <f t="shared" si="1"/>
         <v>2009Q1</v>
       </c>
       <c r="D46" s="29">
@@ -8270,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="27" t="str">
-        <f>_xlfn.CONCAT(A47,B47)</f>
+        <f t="shared" si="1"/>
         <v>2009Q2</v>
       </c>
       <c r="D47" s="29">
@@ -8291,7 +8309,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="27" t="str">
-        <f>_xlfn.CONCAT(A48,B48)</f>
+        <f t="shared" si="1"/>
         <v>2009Q3</v>
       </c>
       <c r="D48" s="29">
@@ -8312,7 +8330,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="27" t="str">
-        <f>_xlfn.CONCAT(A49,B49)</f>
+        <f t="shared" si="1"/>
         <v>2009Q4</v>
       </c>
       <c r="D49" s="29">
@@ -8333,7 +8351,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="27" t="str">
-        <f>_xlfn.CONCAT(A50,B50)</f>
+        <f t="shared" si="1"/>
         <v>2010Q1</v>
       </c>
       <c r="D50" s="29">
@@ -8354,7 +8372,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="27" t="str">
-        <f>_xlfn.CONCAT(A51,B51)</f>
+        <f t="shared" si="1"/>
         <v>2010Q2</v>
       </c>
       <c r="D51" s="29">
@@ -8375,7 +8393,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="27" t="str">
-        <f>_xlfn.CONCAT(A52,B52)</f>
+        <f t="shared" si="1"/>
         <v>2010Q3</v>
       </c>
       <c r="D52" s="29">
@@ -8396,7 +8414,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="27" t="str">
-        <f>_xlfn.CONCAT(A53,B53)</f>
+        <f t="shared" si="1"/>
         <v>2010Q4</v>
       </c>
       <c r="D53" s="29">
@@ -8417,7 +8435,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="27" t="str">
-        <f>_xlfn.CONCAT(A54,B54)</f>
+        <f t="shared" si="1"/>
         <v>2011Q1</v>
       </c>
       <c r="D54" s="29">
@@ -8438,7 +8456,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="27" t="str">
-        <f>_xlfn.CONCAT(A55,B55)</f>
+        <f t="shared" si="1"/>
         <v>2011Q2</v>
       </c>
       <c r="D55" s="29">
@@ -8459,7 +8477,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="27" t="str">
-        <f>_xlfn.CONCAT(A56,B56)</f>
+        <f t="shared" si="1"/>
         <v>2011Q3</v>
       </c>
       <c r="D56" s="29">
@@ -8480,7 +8498,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="27" t="str">
-        <f>_xlfn.CONCAT(A57,B57)</f>
+        <f t="shared" si="1"/>
         <v>2011Q4</v>
       </c>
       <c r="D57" s="29">
@@ -8501,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="27" t="str">
-        <f>_xlfn.CONCAT(A58,B58)</f>
+        <f t="shared" si="1"/>
         <v>2012Q1</v>
       </c>
       <c r="D58" s="29">
@@ -8522,7 +8540,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="27" t="str">
-        <f>_xlfn.CONCAT(A59,B59)</f>
+        <f t="shared" si="1"/>
         <v>2012Q2</v>
       </c>
       <c r="D59" s="29">
@@ -8543,7 +8561,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="27" t="str">
-        <f>_xlfn.CONCAT(A60,B60)</f>
+        <f t="shared" si="1"/>
         <v>2012Q3</v>
       </c>
       <c r="D60" s="29">
@@ -8564,7 +8582,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="27" t="str">
-        <f>_xlfn.CONCAT(A61,B61)</f>
+        <f t="shared" si="1"/>
         <v>2012Q4</v>
       </c>
       <c r="D61" s="29">
@@ -8585,7 +8603,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="27" t="str">
-        <f>_xlfn.CONCAT(A62,B62)</f>
+        <f t="shared" si="1"/>
         <v>2013Q1</v>
       </c>
       <c r="D62" s="29">
@@ -8606,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="27" t="str">
-        <f>_xlfn.CONCAT(A63,B63)</f>
+        <f t="shared" si="1"/>
         <v>2013Q2</v>
       </c>
       <c r="D63" s="29">
@@ -8627,7 +8645,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="27" t="str">
-        <f>_xlfn.CONCAT(A64,B64)</f>
+        <f t="shared" si="1"/>
         <v>2013Q3</v>
       </c>
       <c r="D64" s="29">
@@ -8648,7 +8666,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="27" t="str">
-        <f>_xlfn.CONCAT(A65,B65)</f>
+        <f t="shared" si="1"/>
         <v>2013Q4</v>
       </c>
       <c r="D65" s="29">
@@ -8669,7 +8687,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="27" t="str">
-        <f>_xlfn.CONCAT(A66,B66)</f>
+        <f t="shared" si="1"/>
         <v>2014Q1</v>
       </c>
       <c r="D66" s="29">
@@ -8690,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="27" t="str">
-        <f>_xlfn.CONCAT(A67,B67)</f>
+        <f t="shared" si="1"/>
         <v>2014Q2</v>
       </c>
       <c r="D67" s="29">
@@ -8711,7 +8729,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="27" t="str">
-        <f>_xlfn.CONCAT(A68,B68)</f>
+        <f t="shared" ref="C68:C99" si="2">_xlfn.CONCAT(A68,B68)</f>
         <v>2014Q3</v>
       </c>
       <c r="D68" s="29">
@@ -8732,7 +8750,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="27" t="str">
-        <f>_xlfn.CONCAT(A69,B69)</f>
+        <f t="shared" si="2"/>
         <v>2014Q4</v>
       </c>
       <c r="D69" s="29">
@@ -8753,7 +8771,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="27" t="str">
-        <f>_xlfn.CONCAT(A70,B70)</f>
+        <f t="shared" si="2"/>
         <v>2015Q1</v>
       </c>
       <c r="D70" s="29">
@@ -8774,7 +8792,7 @@
         <v>12</v>
       </c>
       <c r="C71" s="27" t="str">
-        <f>_xlfn.CONCAT(A71,B71)</f>
+        <f t="shared" si="2"/>
         <v>2015Q2</v>
       </c>
       <c r="D71" s="29">
@@ -8795,7 +8813,7 @@
         <v>13</v>
       </c>
       <c r="C72" s="27" t="str">
-        <f>_xlfn.CONCAT(A72,B72)</f>
+        <f t="shared" si="2"/>
         <v>2015Q3</v>
       </c>
       <c r="D72" s="29">
@@ -8816,7 +8834,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="27" t="str">
-        <f>_xlfn.CONCAT(A73,B73)</f>
+        <f t="shared" si="2"/>
         <v>2015Q4</v>
       </c>
       <c r="D73" s="29">
@@ -8837,7 +8855,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="27" t="str">
-        <f>_xlfn.CONCAT(A74,B74)</f>
+        <f t="shared" si="2"/>
         <v>2016Q1</v>
       </c>
       <c r="D74" s="29">
@@ -8858,7 +8876,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="27" t="str">
-        <f>_xlfn.CONCAT(A75,B75)</f>
+        <f t="shared" si="2"/>
         <v>2016Q2</v>
       </c>
       <c r="D75" s="29">
@@ -8879,7 +8897,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="27" t="str">
-        <f>_xlfn.CONCAT(A76,B76)</f>
+        <f t="shared" si="2"/>
         <v>2016Q3</v>
       </c>
       <c r="D76" s="29">
@@ -8900,7 +8918,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="27" t="str">
-        <f>_xlfn.CONCAT(A77,B77)</f>
+        <f t="shared" si="2"/>
         <v>2016Q4</v>
       </c>
       <c r="D77" s="29">
@@ -8921,7 +8939,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="27" t="str">
-        <f>_xlfn.CONCAT(A78,B78)</f>
+        <f t="shared" si="2"/>
         <v>2017Q1</v>
       </c>
       <c r="D78" s="29">
@@ -8942,7 +8960,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="27" t="str">
-        <f>_xlfn.CONCAT(A79,B79)</f>
+        <f t="shared" si="2"/>
         <v>2017Q2</v>
       </c>
       <c r="D79" s="29">
@@ -8963,7 +8981,7 @@
         <v>13</v>
       </c>
       <c r="C80" s="27" t="str">
-        <f>_xlfn.CONCAT(A80,B80)</f>
+        <f t="shared" si="2"/>
         <v>2017Q3</v>
       </c>
       <c r="D80" s="29">
@@ -8984,7 +9002,7 @@
         <v>14</v>
       </c>
       <c r="C81" s="27" t="str">
-        <f>_xlfn.CONCAT(A81,B81)</f>
+        <f t="shared" si="2"/>
         <v>2017Q4</v>
       </c>
       <c r="D81" s="29">
@@ -9005,7 +9023,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="27" t="str">
-        <f>_xlfn.CONCAT(A82,B82)</f>
+        <f t="shared" si="2"/>
         <v>2018Q1</v>
       </c>
       <c r="D82" s="29">
@@ -9026,7 +9044,7 @@
         <v>12</v>
       </c>
       <c r="C83" s="27" t="str">
-        <f>_xlfn.CONCAT(A83,B83)</f>
+        <f t="shared" si="2"/>
         <v>2018Q2</v>
       </c>
       <c r="D83" s="29">
@@ -9047,7 +9065,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="27" t="str">
-        <f>_xlfn.CONCAT(A84,B84)</f>
+        <f t="shared" si="2"/>
         <v>2018Q3</v>
       </c>
       <c r="D84" s="29">
@@ -9068,7 +9086,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="27" t="str">
-        <f>_xlfn.CONCAT(A85,B85)</f>
+        <f t="shared" si="2"/>
         <v>2018Q4</v>
       </c>
       <c r="D85" s="29">
@@ -9089,7 +9107,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="27" t="str">
-        <f>_xlfn.CONCAT(A86,B86)</f>
+        <f t="shared" si="2"/>
         <v>2019Q1</v>
       </c>
       <c r="D86" s="29">
@@ -9110,7 +9128,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="27" t="str">
-        <f>_xlfn.CONCAT(A87,B87)</f>
+        <f t="shared" si="2"/>
         <v>2019Q2</v>
       </c>
       <c r="D87" s="29">
@@ -9131,7 +9149,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="27" t="str">
-        <f>_xlfn.CONCAT(A88,B88)</f>
+        <f t="shared" si="2"/>
         <v>2019Q3</v>
       </c>
       <c r="D88" s="29">
@@ -9152,7 +9170,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="27" t="str">
-        <f>_xlfn.CONCAT(A89,B89)</f>
+        <f t="shared" si="2"/>
         <v>2019Q4</v>
       </c>
       <c r="D89" s="29">
@@ -9173,7 +9191,7 @@
         <v>15</v>
       </c>
       <c r="C90" s="27" t="str">
-        <f>_xlfn.CONCAT(A90,B90)</f>
+        <f t="shared" si="2"/>
         <v>2020Q1</v>
       </c>
       <c r="D90" s="29">
@@ -9194,7 +9212,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="27" t="str">
-        <f>_xlfn.CONCAT(A91,B91)</f>
+        <f t="shared" si="2"/>
         <v>2020Q2</v>
       </c>
       <c r="D91" s="29">
@@ -9215,7 +9233,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="27" t="str">
-        <f>_xlfn.CONCAT(A92,B92)</f>
+        <f t="shared" si="2"/>
         <v>2020Q3</v>
       </c>
       <c r="D92" s="29">
@@ -9236,7 +9254,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="27" t="str">
-        <f>_xlfn.CONCAT(A93,B93)</f>
+        <f t="shared" si="2"/>
         <v>2020Q4</v>
       </c>
       <c r="D93" s="29">
@@ -9257,7 +9275,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="27" t="str">
-        <f>_xlfn.CONCAT(A94,B94)</f>
+        <f t="shared" si="2"/>
         <v>2021Q1</v>
       </c>
       <c r="D94" s="29">
@@ -9278,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="C95" s="27" t="str">
-        <f>_xlfn.CONCAT(A95,B95)</f>
+        <f t="shared" si="2"/>
         <v>2021Q2</v>
       </c>
       <c r="D95" s="29">
@@ -9299,7 +9317,7 @@
         <v>13</v>
       </c>
       <c r="C96" s="27" t="str">
-        <f>_xlfn.CONCAT(A96,B96)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="D96" s="29">

--- a/Data/all_in_one_Time_sieries_data_color.xlsx
+++ b/Data/all_in_one_Time_sieries_data_color.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A7B4C-CBA1-4EE2-992A-CE693FE0A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A65FF-219D-4E3A-A55C-62ABB03C6146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_data_together" sheetId="1" r:id="rId1"/>
     <sheet name="yearly-Usable" sheetId="2" r:id="rId2"/>
     <sheet name="quarterly-Homeless" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="yearly 2002" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,17 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
   <si>
     <t>Size_of_waiting_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Median_House_price_and_earning_ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower_quatile_House_price_and_earning_ratio</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,12 +209,39 @@
   <si>
     <t>quarter</t>
   </si>
+  <si>
+    <t>Median_House_price_and_earning_ratio</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>homeless</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>householdPop</t>
+  </si>
+  <si>
+    <t>affordable completed</t>
+  </si>
+  <si>
+    <t>social Lettings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -230,8 +254,10 @@
     <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
     <numFmt numFmtId="175" formatCode="#,##0,\,\0\0\0\ ;[Red]\(#,##0,\);\-\ ;"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0&quot; &quot;;&quot;-&quot;0&quot; &quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +414,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +493,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -474,6 +530,26 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -937,7 +1013,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -1062,21 +1138,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,6 +1166,59 @@
     <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="25" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="26" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="0" xfId="39" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="216">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1634,7 +1748,7 @@
   <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1651,16 +1765,16 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1669,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -1935,7 +2049,7 @@
         <v>5.2</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1958,7 +2072,7 @@
         <v>6.25</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1981,7 +2095,7 @@
         <v>6.81</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2004,7 +2118,7 @@
         <v>7.16</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2446,7 +2560,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2463,31 +2577,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2840,7 +2954,7 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2853,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43397F51-2696-4101-B143-2771814A5B96}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F100" sqref="E5:F100"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2872,109 +2986,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="55" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="104" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="I3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="L3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="M3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="N3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="O3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="P3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="59" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27">
         <v>1998</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29">
@@ -2984,7 +3098,7 @@
         <v>1998</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="39">
         <v>80650</v>
@@ -2999,7 +3113,7 @@
         <v>1998</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="40">
         <v>63070</v>
@@ -3020,7 +3134,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="29">
@@ -3030,7 +3144,7 @@
         <v>1998</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="39">
         <v>83933</v>
@@ -3043,7 +3157,7 @@
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="40">
         <v>59350</v>
@@ -3064,7 +3178,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29">
@@ -3074,7 +3188,7 @@
         <v>1998</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="39">
         <v>88147</v>
@@ -3087,7 +3201,7 @@
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="40">
         <v>63430</v>
@@ -3108,7 +3222,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
@@ -3118,7 +3232,7 @@
         <v>1998</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="39">
         <v>85731</v>
@@ -3131,7 +3245,7 @@
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="40">
         <v>59520</v>
@@ -3154,7 +3268,7 @@
         <v>1999</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="29">
@@ -3164,7 +3278,7 @@
         <v>1999</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="39">
         <v>87294</v>
@@ -3179,7 +3293,7 @@
         <v>1999</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="40">
         <v>62550</v>
@@ -3200,7 +3314,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="29">
@@ -3210,7 +3324,7 @@
         <v>1999</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="39">
         <v>93136</v>
@@ -3223,7 +3337,7 @@
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="40">
         <v>59920</v>
@@ -3244,7 +3358,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29">
@@ -3254,7 +3368,7 @@
         <v>1999</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="39">
         <v>100974</v>
@@ -3267,7 +3381,7 @@
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="40">
         <v>63330</v>
@@ -3288,7 +3402,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29">
@@ -3298,7 +3412,7 @@
         <v>1999</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="39">
         <v>100250</v>
@@ -3311,7 +3425,7 @@
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="40">
         <v>57500</v>
@@ -3334,7 +3448,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="29">
@@ -3344,7 +3458,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="39">
         <v>101606</v>
@@ -3359,7 +3473,7 @@
         <v>2000</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="40">
         <v>62490</v>
@@ -3380,7 +3494,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="29">
@@ -3390,7 +3504,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="39">
         <v>107022</v>
@@ -3403,7 +3517,7 @@
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="40">
         <v>60330</v>
@@ -3424,7 +3538,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="29">
@@ -3434,7 +3548,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="39">
         <v>108395</v>
@@ -3447,7 +3561,7 @@
       </c>
       <c r="J15" s="42"/>
       <c r="K15" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="40">
         <v>64080</v>
@@ -3468,7 +3582,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29">
@@ -3478,7 +3592,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="39">
         <v>110201</v>
@@ -3491,7 +3605,7 @@
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="40">
         <v>60280</v>
@@ -3514,7 +3628,7 @@
         <v>2001</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="29">
@@ -3524,7 +3638,7 @@
         <v>2001</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="39">
         <v>112931</v>
@@ -3539,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="40">
         <v>64880</v>
@@ -3560,7 +3674,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="29">
@@ -3570,7 +3684,7 @@
         <v>2001</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="39">
         <v>118927</v>
@@ -3583,7 +3697,7 @@
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="40">
         <v>62370</v>
@@ -3604,7 +3718,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29">
@@ -3614,7 +3728,7 @@
         <v>2001</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="39">
         <v>124379</v>
@@ -3627,7 +3741,7 @@
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="40">
         <v>67160</v>
@@ -3648,7 +3762,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="29">
@@ -3658,7 +3772,7 @@
         <v>2001</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="39">
         <v>119682</v>
@@ -3671,7 +3785,7 @@
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20" s="40">
         <v>60670</v>
@@ -3694,7 +3808,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="29">
@@ -3704,7 +3818,7 @@
         <v>2002</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="39">
         <v>120711</v>
@@ -3719,7 +3833,7 @@
         <v>2002</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="40">
         <v>63850</v>
@@ -3740,7 +3854,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="29">
@@ -3750,7 +3864,7 @@
         <v>2002</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="39">
         <v>134149</v>
@@ -3763,7 +3877,7 @@
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="40">
         <v>66090</v>
@@ -3784,7 +3898,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="29">
@@ -3794,7 +3908,7 @@
         <v>2002</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="39">
         <v>145378</v>
@@ -3807,7 +3921,7 @@
       </c>
       <c r="J23" s="42"/>
       <c r="K23" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" s="40">
         <v>71910</v>
@@ -3828,7 +3942,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="29">
@@ -3838,7 +3952,7 @@
         <v>2002</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="39">
         <v>144636</v>
@@ -3851,7 +3965,7 @@
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L24" s="40">
         <v>67490</v>
@@ -3874,7 +3988,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="29">
@@ -3884,7 +3998,7 @@
         <v>2003</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="39">
         <v>144166</v>
@@ -3899,7 +4013,7 @@
         <v>2003</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="40">
         <v>73640</v>
@@ -3920,7 +4034,7 @@
     <row r="26" spans="1:16">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="29">
@@ -3930,7 +4044,7 @@
         <v>2003</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="39">
         <v>153301</v>
@@ -3943,7 +4057,7 @@
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="40">
         <v>72070</v>
@@ -3964,7 +4078,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="29">
@@ -3974,7 +4088,7 @@
         <v>2003</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="39">
         <v>174437</v>
@@ -3987,7 +4101,7 @@
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" s="40">
         <v>79710</v>
@@ -4008,7 +4122,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="29">
@@ -4018,7 +4132,7 @@
         <v>2003</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="39">
         <v>176847</v>
@@ -4031,7 +4145,7 @@
       </c>
       <c r="J28" s="42"/>
       <c r="K28" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" s="40">
         <v>71550</v>
@@ -4054,7 +4168,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="29">
@@ -4064,7 +4178,7 @@
         <v>2004</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="39">
         <v>179479</v>
@@ -4079,7 +4193,7 @@
         <v>2004</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="40">
         <v>75060</v>
@@ -4100,7 +4214,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="29">
@@ -4110,7 +4224,7 @@
         <v>2004</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="39">
         <v>189063</v>
@@ -4123,7 +4237,7 @@
       </c>
       <c r="J30" s="42"/>
       <c r="K30" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="40">
         <v>71150</v>
@@ -4144,7 +4258,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="29">
@@ -4154,7 +4268,7 @@
         <v>2004</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="39">
         <v>201071</v>
@@ -4167,7 +4281,7 @@
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" s="40">
         <v>71110</v>
@@ -4188,7 +4302,7 @@
     <row r="32" spans="1:16">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="29">
@@ -4198,7 +4312,7 @@
         <v>2004</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="39">
         <v>198395</v>
@@ -4211,7 +4325,7 @@
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" s="40">
         <v>64140</v>
@@ -4234,7 +4348,7 @@
         <v>2005</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="29">
@@ -4244,7 +4358,7 @@
         <v>2005</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="39">
         <v>198752</v>
@@ -4259,7 +4373,7 @@
         <v>2005</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="40">
         <v>60480</v>
@@ -4280,7 +4394,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="29">
@@ -4290,7 +4404,7 @@
         <v>2005</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="39">
         <v>202223</v>
@@ -4303,7 +4417,7 @@
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="40">
         <v>61300</v>
@@ -4324,7 +4438,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="27"/>
       <c r="B35" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="29">
@@ -4334,7 +4448,7 @@
         <v>2005</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="39">
         <v>210734</v>
@@ -4347,7 +4461,7 @@
       </c>
       <c r="J35" s="42"/>
       <c r="K35" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" s="40">
         <v>56270</v>
@@ -4368,7 +4482,7 @@
     <row r="36" spans="1:16">
       <c r="A36" s="27"/>
       <c r="B36" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="29">
@@ -4378,7 +4492,7 @@
         <v>2005</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="39">
         <v>197926</v>
@@ -4391,7 +4505,7 @@
       </c>
       <c r="J36" s="42"/>
       <c r="K36" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36" s="40">
         <v>49210</v>
@@ -4414,7 +4528,7 @@
         <v>2006</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="29">
@@ -4424,7 +4538,7 @@
         <v>2006</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="39">
         <v>202725</v>
@@ -4439,7 +4553,7 @@
         <v>2006</v>
       </c>
       <c r="K37" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" s="40">
         <v>46490</v>
@@ -4460,7 +4574,7 @@
     <row r="38" spans="1:16">
       <c r="A38" s="27"/>
       <c r="B38" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="29">
@@ -4470,7 +4584,7 @@
         <v>2006</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="39">
         <v>208911</v>
@@ -4483,7 +4597,7 @@
       </c>
       <c r="J38" s="42"/>
       <c r="K38" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="40">
         <v>41700</v>
@@ -4504,7 +4618,7 @@
     <row r="39" spans="1:16">
       <c r="A39" s="27"/>
       <c r="B39" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="29">
@@ -4514,7 +4628,7 @@
         <v>2006</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="39">
         <v>223419</v>
@@ -4527,7 +4641,7 @@
       </c>
       <c r="J39" s="42"/>
       <c r="K39" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" s="40">
         <v>42590</v>
@@ -4548,7 +4662,7 @@
     <row r="40" spans="1:16">
       <c r="A40" s="27"/>
       <c r="B40" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="29">
@@ -4558,7 +4672,7 @@
         <v>2006</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="39">
         <v>221124</v>
@@ -4571,7 +4685,7 @@
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L40" s="40">
         <v>37740</v>
@@ -4594,7 +4708,7 @@
         <v>2007</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="29">
@@ -4604,7 +4718,7 @@
         <v>2007</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="39">
         <v>225914</v>
@@ -4619,7 +4733,7 @@
         <v>2007</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" s="40">
         <v>37300</v>
@@ -4640,7 +4754,7 @@
     <row r="42" spans="1:16">
       <c r="A42" s="27"/>
       <c r="B42" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="29">
@@ -4650,7 +4764,7 @@
         <v>2007</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="39">
         <v>227127</v>
@@ -4663,7 +4777,7 @@
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="40">
         <v>34040</v>
@@ -4684,7 +4798,7 @@
     <row r="43" spans="1:16">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="29">
@@ -4694,7 +4808,7 @@
         <v>2007</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="39">
         <v>240966.19585533286</v>
@@ -4707,7 +4821,7 @@
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" s="40">
         <v>35200</v>
@@ -4728,7 +4842,7 @@
     <row r="44" spans="1:16">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="29">
@@ -4738,7 +4852,7 @@
         <v>2007</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" s="39">
         <v>234209.24283029581</v>
@@ -4751,7 +4865,7 @@
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L44" s="40">
         <v>31150</v>
@@ -4774,7 +4888,7 @@
         <v>2008</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="29">
@@ -4784,7 +4898,7 @@
         <v>2008</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="39">
         <v>236383.48444642569</v>
@@ -4799,7 +4913,7 @@
         <v>2008</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" s="40">
         <v>30450</v>
@@ -4820,7 +4934,7 @@
     <row r="46" spans="1:16">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="29">
@@ -4830,7 +4944,7 @@
         <v>2008</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="39">
         <v>237799.35917276281</v>
@@ -4843,7 +4957,7 @@
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L46" s="40">
         <v>30440</v>
@@ -4864,7 +4978,7 @@
     <row r="47" spans="1:16">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="29">
@@ -4874,7 +4988,7 @@
         <v>2008</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="39">
         <v>243573.44906650123</v>
@@ -4887,7 +5001,7 @@
       </c>
       <c r="J47" s="42"/>
       <c r="K47" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" s="40">
         <v>30040</v>
@@ -4908,7 +5022,7 @@
     <row r="48" spans="1:16">
       <c r="A48" s="27"/>
       <c r="B48" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="29">
@@ -4918,7 +5032,7 @@
         <v>2008</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="39">
         <v>230691.91342468504</v>
@@ -4931,7 +5045,7 @@
       </c>
       <c r="J48" s="42"/>
       <c r="K48" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L48" s="40">
         <v>26530</v>
@@ -4954,7 +5068,7 @@
         <v>2009</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="29">
@@ -4964,7 +5078,7 @@
         <v>2009</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="39">
         <v>224848.72128158101</v>
@@ -4979,7 +5093,7 @@
         <v>2009</v>
       </c>
       <c r="K49" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" s="40">
         <v>25890</v>
@@ -5000,7 +5114,7 @@
     <row r="50" spans="1:16">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="29">
@@ -5010,7 +5124,7 @@
         <v>2009</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="39">
         <v>223375.67226748742</v>
@@ -5023,7 +5137,7 @@
       </c>
       <c r="J50" s="42"/>
       <c r="K50" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" s="40">
         <v>23560</v>
@@ -5044,7 +5158,7 @@
     <row r="51" spans="1:16">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="29">
@@ -5054,7 +5168,7 @@
         <v>2009</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="39">
         <v>243928.59097007019</v>
@@ -5067,7 +5181,7 @@
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L51" s="40">
         <v>22950</v>
@@ -5088,7 +5202,7 @@
     <row r="52" spans="1:16">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="29">
@@ -5098,7 +5212,7 @@
         <v>2009</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="39">
         <v>241894.85544066262</v>
@@ -5111,7 +5225,7 @@
       </c>
       <c r="J52" s="42"/>
       <c r="K52" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L52" s="40">
         <v>21200</v>
@@ -5134,7 +5248,7 @@
         <v>2010</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="29">
@@ -5144,7 +5258,7 @@
         <v>2010</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="39">
         <v>262740.91254881129</v>
@@ -5159,7 +5273,7 @@
         <v>2010</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="40">
         <v>21410</v>
@@ -5180,7 +5294,7 @@
     <row r="54" spans="1:16">
       <c r="A54" s="27"/>
       <c r="B54" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="29">
@@ -5190,7 +5304,7 @@
         <v>2010</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="39">
         <v>259468.55516312143</v>
@@ -5203,7 +5317,7 @@
       </c>
       <c r="J54" s="42"/>
       <c r="K54" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L54" s="40">
         <v>22850</v>
@@ -5224,7 +5338,7 @@
     <row r="55" spans="1:16">
       <c r="A55" s="27"/>
       <c r="B55" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="29">
@@ -5234,7 +5348,7 @@
         <v>2010</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="39">
         <v>268649.92746424029</v>
@@ -5247,7 +5361,7 @@
       </c>
       <c r="J55" s="42"/>
       <c r="K55" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" s="40">
         <v>26890</v>
@@ -5268,7 +5382,7 @@
     <row r="56" spans="1:16">
       <c r="A56" s="27"/>
       <c r="B56" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="29">
@@ -5278,7 +5392,7 @@
         <v>2010</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="39">
         <v>253909.2819920769</v>
@@ -5291,7 +5405,7 @@
       </c>
       <c r="J56" s="42"/>
       <c r="K56" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L56" s="40">
         <v>26060</v>
@@ -5314,7 +5428,7 @@
         <v>2011</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="29">
@@ -5324,7 +5438,7 @@
         <v>2011</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="39">
         <v>255013.27365477791</v>
@@ -5339,7 +5453,7 @@
         <v>2011</v>
       </c>
       <c r="K57" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" s="40">
         <v>26400</v>
@@ -5360,7 +5474,7 @@
     <row r="58" spans="1:16">
       <c r="A58" s="27"/>
       <c r="B58" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="29">
@@ -5370,7 +5484,7 @@
         <v>2011</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="39">
         <v>250036.40616366352</v>
@@ -5383,7 +5497,7 @@
       </c>
       <c r="J58" s="42"/>
       <c r="K58" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L58" s="40">
         <v>25980</v>
@@ -5404,7 +5518,7 @@
     <row r="59" spans="1:16">
       <c r="A59" s="27"/>
       <c r="B59" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="29">
@@ -5414,7 +5528,7 @@
         <v>2011</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="39">
         <v>264626.79321165459</v>
@@ -5427,7 +5541,7 @@
       </c>
       <c r="J59" s="42"/>
       <c r="K59" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" s="40">
         <v>27390</v>
@@ -5448,7 +5562,7 @@
     <row r="60" spans="1:16">
       <c r="A60" s="27"/>
       <c r="B60" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="29">
@@ -5458,7 +5572,7 @@
         <v>2011</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="39">
         <v>252476.30999999997</v>
@@ -5471,7 +5585,7 @@
       </c>
       <c r="J60" s="42"/>
       <c r="K60" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L60" s="40">
         <v>27470</v>
@@ -5494,7 +5608,7 @@
         <v>2012</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="29">
@@ -5504,7 +5618,7 @@
         <v>2012</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="39">
         <v>248768.39196866922</v>
@@ -5519,7 +5633,7 @@
         <v>2012</v>
       </c>
       <c r="K61" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" s="40">
         <v>27880</v>
@@ -5540,7 +5654,7 @@
     <row r="62" spans="1:16">
       <c r="A62" s="27"/>
       <c r="B62" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="29">
@@ -5550,7 +5664,7 @@
         <v>2012</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="39">
         <v>255157.38662902627</v>
@@ -5563,7 +5677,7 @@
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L62" s="40">
         <v>26780</v>
@@ -5584,7 +5698,7 @@
     <row r="63" spans="1:16">
       <c r="A63" s="27"/>
       <c r="B63" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="29">
@@ -5594,7 +5708,7 @@
         <v>2012</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="39">
         <v>264480.61773333332</v>
@@ -5607,7 +5721,7 @@
       </c>
       <c r="J63" s="44"/>
       <c r="K63" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" s="40">
         <v>29140</v>
@@ -5628,7 +5742,7 @@
     <row r="64" spans="1:16">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="29">
@@ -5638,7 +5752,7 @@
         <v>2012</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" s="39">
         <v>256197.35153333333</v>
@@ -5651,7 +5765,7 @@
       </c>
       <c r="J64" s="44"/>
       <c r="K64" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L64" s="40">
         <v>29070</v>
@@ -5674,7 +5788,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="29">
@@ -5684,7 +5798,7 @@
         <v>2013</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="39">
         <v>253175.14260063707</v>
@@ -5699,7 +5813,7 @@
         <v>2013</v>
       </c>
       <c r="K65" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="40">
         <v>28520</v>
@@ -5720,7 +5834,7 @@
     <row r="66" spans="1:16">
       <c r="A66" s="27"/>
       <c r="B66" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="29">
@@ -5730,7 +5844,7 @@
         <v>2013</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="39">
         <v>254850.89377329874</v>
@@ -5743,7 +5857,7 @@
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L66" s="40">
         <v>28230</v>
@@ -5764,7 +5878,7 @@
     <row r="67" spans="1:16">
       <c r="A67" s="27"/>
       <c r="B67" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="29">
@@ -5774,7 +5888,7 @@
         <v>2013</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="39">
         <v>270889.13364510465</v>
@@ -5787,7 +5901,7 @@
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" s="40">
         <v>28100</v>
@@ -5808,7 +5922,7 @@
     <row r="68" spans="1:16">
       <c r="A68" s="27"/>
       <c r="B68" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="29">
@@ -5818,7 +5932,7 @@
         <v>2013</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="39">
         <v>264484.28505776695</v>
@@ -5831,7 +5945,7 @@
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L68" s="40">
         <v>28070</v>
@@ -5854,7 +5968,7 @@
         <v>2014</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="29">
@@ -5864,7 +5978,7 @@
         <v>2014</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="39">
         <v>270883.57493333332</v>
@@ -5879,7 +5993,7 @@
         <v>2014</v>
       </c>
       <c r="K69" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" s="40">
         <v>27200</v>
@@ -5900,7 +6014,7 @@
     <row r="70" spans="1:16">
       <c r="A70" s="27"/>
       <c r="B70" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="29">
@@ -5910,7 +6024,7 @@
         <v>2014</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="39">
         <v>275316.48647355818</v>
@@ -5923,7 +6037,7 @@
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L70" s="40">
         <v>27550</v>
@@ -5944,7 +6058,7 @@
     <row r="71" spans="1:16">
       <c r="A71" s="27"/>
       <c r="B71" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="29">
@@ -5954,7 +6068,7 @@
         <v>2014</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="39">
         <v>288785.81364484597</v>
@@ -5967,7 +6081,7 @@
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" s="40">
         <v>28510</v>
@@ -5988,7 +6102,7 @@
     <row r="72" spans="1:16">
       <c r="A72" s="27"/>
       <c r="B72" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="29">
@@ -5998,7 +6112,7 @@
         <v>2014</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" s="39">
         <v>276467.66666666669</v>
@@ -6011,7 +6125,7 @@
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L72" s="40">
         <v>28640</v>
@@ -6034,7 +6148,7 @@
         <v>2015</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="29">
@@ -6044,7 +6158,7 @@
         <v>2015</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" s="39">
         <v>281212.66666666669</v>
@@ -6059,7 +6173,7 @@
         <v>2015</v>
       </c>
       <c r="K73" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L73" s="40">
         <v>27640</v>
@@ -6080,7 +6194,7 @@
     <row r="74" spans="1:16">
       <c r="A74" s="27"/>
       <c r="B74" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="29">
@@ -6090,7 +6204,7 @@
         <v>2015</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="39">
         <v>281836.66666666669</v>
@@ -6103,7 +6217,7 @@
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L74" s="40">
         <v>27440</v>
@@ -6124,7 +6238,7 @@
     <row r="75" spans="1:16">
       <c r="A75" s="27"/>
       <c r="B75" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="28"/>
       <c r="D75" s="29">
@@ -6134,7 +6248,7 @@
         <v>2015</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" s="39">
         <v>304023</v>
@@ -6147,7 +6261,7 @@
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" s="40">
         <v>28960</v>
@@ -6168,7 +6282,7 @@
     <row r="76" spans="1:16">
       <c r="A76" s="27"/>
       <c r="B76" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="29">
@@ -6178,7 +6292,7 @@
         <v>2015</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76" s="39">
         <v>296424.28333333333</v>
@@ -6191,7 +6305,7 @@
       </c>
       <c r="J76" s="44"/>
       <c r="K76" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L76" s="40">
         <v>29280</v>
@@ -6214,7 +6328,7 @@
         <v>2016</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="29">
@@ -6224,7 +6338,7 @@
         <v>2016</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="39">
         <v>310040.82969554584</v>
@@ -6239,7 +6353,7 @@
         <v>2016</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" s="40">
         <v>29090</v>
@@ -6260,7 +6374,7 @@
     <row r="78" spans="1:16">
       <c r="A78" s="27"/>
       <c r="B78" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="28"/>
       <c r="D78" s="29">
@@ -6270,7 +6384,7 @@
         <v>2016</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="39">
         <v>283167.81200110022</v>
@@ -6283,7 +6397,7 @@
       </c>
       <c r="J78" s="44"/>
       <c r="K78" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L78" s="40">
         <v>29760</v>
@@ -6304,7 +6418,7 @@
     <row r="79" spans="1:16">
       <c r="A79" s="27"/>
       <c r="B79" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="29">
@@ -6314,7 +6428,7 @@
         <v>2016</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="39">
         <v>302088.84416468645</v>
@@ -6327,7 +6441,7 @@
       </c>
       <c r="J79" s="44"/>
       <c r="K79" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" s="40">
         <v>29390</v>
@@ -6348,7 +6462,7 @@
     <row r="80" spans="1:16">
       <c r="A80" s="27"/>
       <c r="B80" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="29">
@@ -6358,7 +6472,7 @@
         <v>2016</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" s="39">
         <v>298548.84697444853</v>
@@ -6371,7 +6485,7 @@
       </c>
       <c r="J80" s="44"/>
       <c r="K80" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L80" s="40">
         <v>27960</v>
@@ -6394,7 +6508,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="29">
@@ -6404,7 +6518,7 @@
         <v>2017</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="39">
         <v>291964.84700995428</v>
@@ -6419,7 +6533,7 @@
         <v>2017</v>
       </c>
       <c r="K81" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" s="40">
         <v>28490</v>
@@ -6440,7 +6554,7 @@
     <row r="82" spans="1:16">
       <c r="A82" s="27"/>
       <c r="B82" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="29">
@@ -6450,7 +6564,7 @@
         <v>2017</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="39">
         <v>297527.70558251929</v>
@@ -6463,7 +6577,7 @@
       </c>
       <c r="J82" s="44"/>
       <c r="K82" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L82" s="40">
         <v>27480</v>
@@ -6484,7 +6598,7 @@
     <row r="83" spans="1:16">
       <c r="A83" s="27"/>
       <c r="B83" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="29">
@@ -6494,7 +6608,7 @@
         <v>2017</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="39">
         <v>305867.96059673239</v>
@@ -6507,7 +6621,7 @@
       </c>
       <c r="J83" s="44"/>
       <c r="K83" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" s="40">
         <v>29360</v>
@@ -6528,7 +6642,7 @@
     <row r="84" spans="1:16">
       <c r="A84" s="27"/>
       <c r="B84" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="29">
@@ -6538,7 +6652,7 @@
         <v>2017</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84" s="39">
         <v>295604.24842200143</v>
@@ -6551,7 +6665,7 @@
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L84" s="40">
         <v>26890</v>
@@ -6574,7 +6688,7 @@
         <v>2018</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="29">
@@ -6584,7 +6698,7 @@
         <v>2018</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" s="39">
         <v>297704.248594573</v>
@@ -6599,7 +6713,7 @@
         <v>2018</v>
       </c>
       <c r="K85" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L85" s="40">
         <v>25750</v>
@@ -6620,7 +6734,7 @@
     <row r="86" spans="1:16">
       <c r="A86" s="27"/>
       <c r="B86" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="29">
@@ -6630,7 +6744,7 @@
         <v>2018</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="39">
         <v>297314.8770822598</v>
@@ -6643,7 +6757,7 @@
       </c>
       <c r="J86" s="44"/>
       <c r="K86" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L86" s="40">
         <v>12920</v>
@@ -6664,7 +6778,7 @@
     <row r="87" spans="1:16">
       <c r="A87" s="27"/>
       <c r="B87" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="29">
@@ -6674,7 +6788,7 @@
         <v>2018</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" s="39">
         <v>308070.56884590862</v>
@@ -6687,7 +6801,7 @@
       </c>
       <c r="J87" s="44"/>
       <c r="K87" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" s="40">
         <v>12490</v>
@@ -6708,7 +6822,7 @@
     <row r="88" spans="1:16">
       <c r="A88" s="27"/>
       <c r="B88" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" s="35"/>
       <c r="D88" s="29">
@@ -6718,7 +6832,7 @@
         <v>2018</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G88" s="39">
         <v>297579.8670134414</v>
@@ -6731,7 +6845,7 @@
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L88" s="40">
         <v>13190</v>
@@ -6754,7 +6868,7 @@
         <v>2019</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="29">
@@ -6764,7 +6878,7 @@
         <v>2019</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="39">
         <v>292136.09161158669</v>
@@ -6779,7 +6893,7 @@
         <v>2019</v>
       </c>
       <c r="K89" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L89" s="40">
         <v>13590</v>
@@ -6800,7 +6914,7 @@
     <row r="90" spans="1:16">
       <c r="A90" s="27"/>
       <c r="B90" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="29">
@@ -6810,7 +6924,7 @@
         <v>2019</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" s="39">
         <v>293927.33333333331</v>
@@ -6823,7 +6937,7 @@
       </c>
       <c r="J90" s="44"/>
       <c r="K90" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L90" s="40">
         <v>15270</v>
@@ -6844,7 +6958,7 @@
     <row r="91" spans="1:16">
       <c r="A91" s="27"/>
       <c r="B91" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="29">
@@ -6854,7 +6968,7 @@
         <v>2019</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="39">
         <v>307321.33333333331</v>
@@ -6867,7 +6981,7 @@
       </c>
       <c r="J91" s="44"/>
       <c r="K91" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" s="40">
         <v>15890</v>
@@ -6888,10 +7002,10 @@
     <row r="92" spans="1:16">
       <c r="A92" s="27"/>
       <c r="B92" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" s="29">
         <v>88310</v>
@@ -6900,7 +7014,7 @@
         <v>2019</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" s="39">
         <v>306272.66666666669</v>
@@ -6913,7 +7027,7 @@
       </c>
       <c r="J92" s="44"/>
       <c r="K92" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L92" s="40">
         <v>15720</v>
@@ -6936,10 +7050,10 @@
         <v>2020</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="29">
         <v>92190</v>
@@ -6948,7 +7062,7 @@
         <v>2020</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" s="39">
         <v>308011</v>
@@ -6963,7 +7077,7 @@
         <v>2020</v>
       </c>
       <c r="K93" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" s="40">
         <v>15910</v>
@@ -6984,10 +7098,10 @@
     <row r="94" spans="1:16">
       <c r="A94" s="27"/>
       <c r="B94" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" s="29">
         <v>98260</v>
@@ -6996,7 +7110,7 @@
         <v>2020</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="39">
         <v>295366.66666666669</v>
@@ -7009,7 +7123,7 @@
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L94" s="40">
         <v>16770</v>
@@ -7030,10 +7144,10 @@
     <row r="95" spans="1:16">
       <c r="A95" s="27"/>
       <c r="B95" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" s="29">
         <v>94610</v>
@@ -7042,7 +7156,7 @@
         <v>2020</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="39">
         <v>333202.66666666669</v>
@@ -7055,7 +7169,7 @@
       </c>
       <c r="J95" s="44"/>
       <c r="K95" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" s="40">
         <v>15200</v>
@@ -7076,10 +7190,10 @@
     <row r="96" spans="1:16">
       <c r="A96" s="27"/>
       <c r="B96" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" s="29">
         <v>95100</v>
@@ -7088,7 +7202,7 @@
         <v>2020</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" s="39">
         <v>347266.66666666669</v>
@@ -7101,7 +7215,7 @@
       </c>
       <c r="J96" s="44"/>
       <c r="K96" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L96" s="40">
         <v>15790</v>
@@ -7124,10 +7238,10 @@
         <v>2021</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" s="29">
         <v>95290</v>
@@ -7136,7 +7250,7 @@
         <v>2021</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" s="39">
         <v>364031</v>
@@ -7151,7 +7265,7 @@
         <v>2021</v>
       </c>
       <c r="K97" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L97" s="40">
         <v>15320</v>
@@ -7172,10 +7286,10 @@
     <row r="98" spans="1:16">
       <c r="A98" s="27"/>
       <c r="B98" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" s="29">
         <v>95850</v>
@@ -7184,7 +7298,7 @@
         <v>2021</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" s="39">
         <v>361983</v>
@@ -7197,7 +7311,7 @@
       </c>
       <c r="J98" s="48"/>
       <c r="K98" s="49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L98" s="40">
         <v>15560</v>
@@ -7218,10 +7332,10 @@
     <row r="99" spans="1:16">
       <c r="A99" s="27"/>
       <c r="B99" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" s="29">
         <v>96060</v>
@@ -7230,7 +7344,7 @@
         <v>2021</v>
       </c>
       <c r="F99" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="39">
         <v>310666.33333333331</v>
@@ -7243,7 +7357,7 @@
       </c>
       <c r="J99" s="48"/>
       <c r="K99" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" s="40">
         <v>15010</v>
@@ -7266,7 +7380,7 @@
         <v>2021</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" s="39">
         <v>330471.33333333331</v>
@@ -7280,6 +7394,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -7296,8 +7412,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="E2:K2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7308,8 +7422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A6784B-8606-44D0-BE1A-51014B80E135}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7319,22 +7433,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7342,10 +7456,10 @@
         <v>1998</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="29">
         <v>47520</v>
@@ -7362,10 +7476,10 @@
         <v>1998</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="29">
         <v>49390</v>
@@ -7382,7 +7496,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="shared" ref="C4:C35" si="0">_xlfn.CONCAT(A4,B4)</f>
@@ -7403,7 +7517,7 @@
         <v>1998</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7424,7 +7538,7 @@
         <v>1999</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7445,7 +7559,7 @@
         <v>1999</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7466,7 +7580,7 @@
         <v>1999</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7487,7 +7601,7 @@
         <v>1999</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7508,7 +7622,7 @@
         <v>2000</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7529,7 +7643,7 @@
         <v>2000</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7550,7 +7664,7 @@
         <v>2000</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7571,7 +7685,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7592,7 +7706,7 @@
         <v>2001</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7613,7 +7727,7 @@
         <v>2001</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7634,7 +7748,7 @@
         <v>2001</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7655,7 +7769,7 @@
         <v>2001</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7676,7 +7790,7 @@
         <v>2002</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7697,7 +7811,7 @@
         <v>2002</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7718,7 +7832,7 @@
         <v>2002</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7739,7 +7853,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7760,7 +7874,7 @@
         <v>2003</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7781,7 +7895,7 @@
         <v>2003</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7802,7 +7916,7 @@
         <v>2003</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7823,7 +7937,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7844,7 +7958,7 @@
         <v>2004</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7865,7 +7979,7 @@
         <v>2004</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7886,7 +8000,7 @@
         <v>2004</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7907,7 +8021,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7928,7 +8042,7 @@
         <v>2005</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7949,7 +8063,7 @@
         <v>2005</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7970,7 +8084,7 @@
         <v>2005</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -7991,7 +8105,7 @@
         <v>2005</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -8012,7 +8126,7 @@
         <v>2006</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -8033,7 +8147,7 @@
         <v>2006</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -8054,7 +8168,7 @@
         <v>2006</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="27" t="str">
         <f t="shared" ref="C36:C67" si="1">_xlfn.CONCAT(A36,B36)</f>
@@ -8075,7 +8189,7 @@
         <v>2006</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8096,7 +8210,7 @@
         <v>2007</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8117,7 +8231,7 @@
         <v>2007</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8138,7 +8252,7 @@
         <v>2007</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8159,7 +8273,7 @@
         <v>2007</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8180,7 +8294,7 @@
         <v>2008</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8201,7 +8315,7 @@
         <v>2008</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8222,7 +8336,7 @@
         <v>2008</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8243,7 +8357,7 @@
         <v>2008</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8264,7 +8378,7 @@
         <v>2009</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8285,7 +8399,7 @@
         <v>2009</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8306,7 +8420,7 @@
         <v>2009</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8327,7 +8441,7 @@
         <v>2009</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8348,7 +8462,7 @@
         <v>2010</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8369,7 +8483,7 @@
         <v>2010</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8390,7 +8504,7 @@
         <v>2010</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8411,7 +8525,7 @@
         <v>2010</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8432,7 +8546,7 @@
         <v>2011</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8453,7 +8567,7 @@
         <v>2011</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8474,7 +8588,7 @@
         <v>2011</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8495,7 +8609,7 @@
         <v>2011</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8516,7 +8630,7 @@
         <v>2012</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8537,7 +8651,7 @@
         <v>2012</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8558,7 +8672,7 @@
         <v>2012</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8579,7 +8693,7 @@
         <v>2012</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8600,7 +8714,7 @@
         <v>2013</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8621,7 +8735,7 @@
         <v>2013</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8642,7 +8756,7 @@
         <v>2013</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8663,7 +8777,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8684,7 +8798,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8705,7 +8819,7 @@
         <v>2014</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="27" t="str">
         <f t="shared" si="1"/>
@@ -8726,10 +8840,10 @@
         <v>2014</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="27" t="str">
-        <f t="shared" ref="C68:C99" si="2">_xlfn.CONCAT(A68,B68)</f>
+        <f t="shared" ref="C68:C96" si="2">_xlfn.CONCAT(A68,B68)</f>
         <v>2014Q3</v>
       </c>
       <c r="D68" s="29">
@@ -8747,7 +8861,7 @@
         <v>2014</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8768,7 +8882,7 @@
         <v>2015</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8789,7 +8903,7 @@
         <v>2015</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8810,7 +8924,7 @@
         <v>2015</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8831,7 +8945,7 @@
         <v>2015</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8852,7 +8966,7 @@
         <v>2016</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8873,7 +8987,7 @@
         <v>2016</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8894,7 +9008,7 @@
         <v>2016</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8915,7 +9029,7 @@
         <v>2016</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8936,7 +9050,7 @@
         <v>2017</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8957,7 +9071,7 @@
         <v>2017</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8978,7 +9092,7 @@
         <v>2017</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="27" t="str">
         <f t="shared" si="2"/>
@@ -8999,7 +9113,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9020,7 +9134,7 @@
         <v>2018</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9041,7 +9155,7 @@
         <v>2018</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9062,7 +9176,7 @@
         <v>2018</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9083,7 +9197,7 @@
         <v>2018</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9104,7 +9218,7 @@
         <v>2019</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9125,7 +9239,7 @@
         <v>2019</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9146,7 +9260,7 @@
         <v>2019</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9167,7 +9281,7 @@
         <v>2019</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9188,7 +9302,7 @@
         <v>2020</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9209,7 +9323,7 @@
         <v>2020</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9230,7 +9344,7 @@
         <v>2020</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9251,7 +9365,7 @@
         <v>2020</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9272,7 +9386,7 @@
         <v>2021</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9293,7 +9407,7 @@
         <v>2021</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9314,7 +9428,7 @@
         <v>2021</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="27" t="str">
         <f t="shared" si="2"/>
@@ -9334,4 +9448,581 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D5BFE1-3795-4D18-834C-B2475DF174D9}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
+      <c r="A2" s="65">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="66">
+        <v>1093342</v>
+      </c>
+      <c r="C2" s="67">
+        <v>67000</v>
+      </c>
+      <c r="D2" s="68">
+        <v>123840</v>
+      </c>
+      <c r="E2" s="69">
+        <v>4.41</v>
+      </c>
+      <c r="F2" s="70">
+        <v>14755</v>
+      </c>
+      <c r="G2" s="71">
+        <v>20553236</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" s="65">
+        <v>2003</v>
+      </c>
+      <c r="B3" s="66">
+        <v>1263931</v>
+      </c>
+      <c r="C3" s="67">
+        <v>80000</v>
+      </c>
+      <c r="D3" s="68">
+        <v>135580</v>
+      </c>
+      <c r="E3" s="69">
+        <v>5.17</v>
+      </c>
+      <c r="F3" s="70">
+        <v>15293</v>
+      </c>
+      <c r="G3" s="71">
+        <v>20650943</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="A4" s="65">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="66">
+        <v>1434874</v>
+      </c>
+      <c r="C4" s="67">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="68">
+        <v>127750</v>
+      </c>
+      <c r="E4" s="69">
+        <v>6.16</v>
+      </c>
+      <c r="F4" s="70">
+        <v>15909</v>
+      </c>
+      <c r="G4" s="71">
+        <v>20751955</v>
+      </c>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="65">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1543337</v>
+      </c>
+      <c r="C5" s="67">
+        <v>112500</v>
+      </c>
+      <c r="D5" s="68">
+        <v>100170</v>
+      </c>
+      <c r="E5" s="69">
+        <v>6.7</v>
+      </c>
+      <c r="F5" s="70">
+        <v>16427</v>
+      </c>
+      <c r="G5" s="71">
+        <v>20925683</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" s="65">
+        <v>2006</v>
+      </c>
+      <c r="B6" s="66">
+        <v>1634301</v>
+      </c>
+      <c r="C6" s="67">
+        <v>119995</v>
+      </c>
+      <c r="D6" s="68">
+        <v>76860</v>
+      </c>
+      <c r="E6" s="69">
+        <v>7.15</v>
+      </c>
+      <c r="F6" s="70">
+        <v>16645</v>
+      </c>
+      <c r="G6" s="71">
+        <v>21071616</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" s="65">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="66">
+        <v>1674421</v>
+      </c>
+      <c r="C7" s="67">
+        <v>125000</v>
+      </c>
+      <c r="D7" s="68">
+        <v>64970</v>
+      </c>
+      <c r="E7" s="69">
+        <v>7.26</v>
+      </c>
+      <c r="F7" s="70">
+        <v>17227</v>
+      </c>
+      <c r="G7" s="71">
+        <v>21223341</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="72">
+        <v>366820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="A8" s="65">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="66">
+        <v>1769939</v>
+      </c>
+      <c r="C8" s="67">
+        <v>125000</v>
+      </c>
+      <c r="D8" s="68">
+        <v>57510</v>
+      </c>
+      <c r="E8" s="69">
+        <v>6.96</v>
+      </c>
+      <c r="F8" s="70">
+        <v>17968</v>
+      </c>
+      <c r="G8" s="71">
+        <v>21399891</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="72">
+        <v>379082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
+      <c r="A9" s="65">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="66">
+        <v>1763140</v>
+      </c>
+      <c r="C9" s="67">
+        <v>120000</v>
+      </c>
+      <c r="D9" s="68">
+        <v>41780</v>
+      </c>
+      <c r="E9" s="69">
+        <v>6.41</v>
+      </c>
+      <c r="F9" s="70">
+        <v>18395</v>
+      </c>
+      <c r="G9" s="71">
+        <v>21561859</v>
+      </c>
+      <c r="H9" s="73">
+        <v>40550</v>
+      </c>
+      <c r="I9" s="72">
+        <v>367755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="A10" s="65">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="66">
+        <v>1740997</v>
+      </c>
+      <c r="C10" s="67">
+        <v>127500</v>
+      </c>
+      <c r="D10" s="68">
+        <v>42390</v>
+      </c>
+      <c r="E10" s="69">
+        <v>6.76</v>
+      </c>
+      <c r="F10" s="70">
+        <v>18495</v>
+      </c>
+      <c r="G10" s="71">
+        <v>21742577</v>
+      </c>
+      <c r="H10" s="73">
+        <v>43040</v>
+      </c>
+      <c r="I10" s="72">
+        <v>393625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="A11" s="65">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="66">
+        <v>1813559</v>
+      </c>
+      <c r="C11" s="67">
+        <v>125000</v>
+      </c>
+      <c r="D11" s="68">
+        <v>48510</v>
+      </c>
+      <c r="E11" s="69">
+        <v>6.64</v>
+      </c>
+      <c r="F11" s="70">
+        <v>18528</v>
+      </c>
+      <c r="G11" s="71">
+        <v>21976219</v>
+      </c>
+      <c r="H11" s="73">
+        <v>35558</v>
+      </c>
+      <c r="I11" s="72">
+        <v>389805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="65">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="74">
+        <v>1850929</v>
+      </c>
+      <c r="C12" s="67">
+        <v>125000</v>
+      </c>
+      <c r="D12" s="75">
+        <v>53480</v>
+      </c>
+      <c r="E12" s="69">
+        <v>6.61</v>
+      </c>
+      <c r="F12" s="70">
+        <v>18920</v>
+      </c>
+      <c r="G12" s="71">
+        <v>22130484</v>
+      </c>
+      <c r="H12" s="73">
+        <v>28600</v>
+      </c>
+      <c r="I12" s="72">
+        <v>350135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1">
+      <c r="A13" s="65">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="74">
+        <v>1685814</v>
+      </c>
+      <c r="C13" s="67">
+        <v>127000</v>
+      </c>
+      <c r="D13" s="68">
+        <v>53210</v>
+      </c>
+      <c r="E13" s="69">
+        <v>6.51</v>
+      </c>
+      <c r="F13" s="70">
+        <v>19215</v>
+      </c>
+      <c r="G13" s="71">
+        <v>22291124</v>
+      </c>
+      <c r="H13" s="73">
+        <v>27606</v>
+      </c>
+      <c r="I13" s="72">
+        <v>359077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="A14" s="65">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="74">
+        <v>1368312</v>
+      </c>
+      <c r="C14" s="67">
+        <v>134000</v>
+      </c>
+      <c r="D14" s="68">
+        <v>53410</v>
+      </c>
+      <c r="E14" s="69">
+        <v>6.73</v>
+      </c>
+      <c r="F14" s="70">
+        <v>19317</v>
+      </c>
+      <c r="G14" s="71">
+        <v>22487754</v>
+      </c>
+      <c r="H14" s="73">
+        <v>40864</v>
+      </c>
+      <c r="I14" s="72">
+        <v>345279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1">
+      <c r="A15" s="65">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="74">
+        <v>1255613</v>
+      </c>
+      <c r="C15" s="67">
+        <v>139950</v>
+      </c>
+      <c r="D15" s="68">
+        <v>56500</v>
+      </c>
+      <c r="E15" s="69">
+        <v>6.94</v>
+      </c>
+      <c r="F15" s="70">
+        <v>19583</v>
+      </c>
+      <c r="G15" s="71">
+        <v>22681178</v>
+      </c>
+      <c r="H15" s="73">
+        <v>17390</v>
+      </c>
+      <c r="I15" s="72">
+        <v>327448.30018399446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="65">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="74">
+        <v>1183779</v>
+      </c>
+      <c r="C16" s="67">
+        <v>145000</v>
+      </c>
+      <c r="D16" s="68">
+        <v>59260</v>
+      </c>
+      <c r="E16" s="69">
+        <v>7.05</v>
+      </c>
+      <c r="F16" s="70">
+        <v>20141</v>
+      </c>
+      <c r="G16" s="71">
+        <v>22884180</v>
+      </c>
+      <c r="H16" s="73">
+        <v>22885</v>
+      </c>
+      <c r="I16" s="72">
+        <v>290060.03519140871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="A17" s="65">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="74">
+        <v>1157044</v>
+      </c>
+      <c r="C17" s="67">
+        <v>150000</v>
+      </c>
+      <c r="D17" s="76">
+        <v>57890</v>
+      </c>
+      <c r="E17" s="69">
+        <v>7.15</v>
+      </c>
+      <c r="F17" s="70">
+        <v>20569</v>
+      </c>
+      <c r="G17" s="71">
+        <v>23047198</v>
+      </c>
+      <c r="H17" s="73">
+        <v>25862</v>
+      </c>
+      <c r="I17" s="72">
+        <v>272805.656815511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1">
+      <c r="A18" s="65">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="74">
+        <v>1115285</v>
+      </c>
+      <c r="C18" s="67">
+        <v>156000</v>
+      </c>
+      <c r="D18" s="68">
+        <v>35770</v>
+      </c>
+      <c r="E18" s="69">
+        <v>7.18</v>
+      </c>
+      <c r="F18" s="70">
+        <v>21165</v>
+      </c>
+      <c r="G18" s="71">
+        <v>23204246</v>
+      </c>
+      <c r="H18" s="73">
+        <v>28716</v>
+      </c>
+      <c r="I18" s="77">
+        <v>272829.93613078265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" s="65">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="74">
+        <v>1159833</v>
+      </c>
+      <c r="C19" s="67">
+        <v>160000</v>
+      </c>
+      <c r="D19" s="68">
+        <v>37830</v>
+      </c>
+      <c r="E19" s="69">
+        <v>7.05</v>
+      </c>
+      <c r="F19" s="67">
+        <v>21985</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="73">
+        <v>28226</v>
+      </c>
+      <c r="I19" s="77">
+        <v>264239.22071551759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="78">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="74">
+        <v>1145501</v>
+      </c>
+      <c r="C20" s="67">
+        <v>164000</v>
+      </c>
+      <c r="D20" s="68">
+        <v>40300</v>
+      </c>
+      <c r="E20" s="79">
+        <v>7.01</v>
+      </c>
+      <c r="F20" s="67">
+        <v>22813</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="73">
+        <v>24002</v>
+      </c>
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" s="78"/>
+      <c r="B21" s="74"/>
+      <c r="H21" s="73">
+        <v>10007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/all_in_one_Time_sieries_data_color.xlsx
+++ b/Data/all_in_one_Time_sieries_data_color.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A65FF-219D-4E3A-A55C-62ABB03C6146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB31AC5-AA9C-48A8-9E46-0E51F4534612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3915" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_data_together" sheetId="1" r:id="rId1"/>
     <sheet name="yearly-Usable" sheetId="2" r:id="rId2"/>
     <sheet name="quarterly-Homeless" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="yearly 2002" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="yearly 2002" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,29 +40,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
-  <si>
-    <t>Size_of_waiting_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Median_House_price_and_earning_ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="50">
   <si>
     <t>Number_of_afforable_houses_started</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Number_of_afforable_houses_completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total_housing_completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total_house_construction_started</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -76,9 +61,6 @@
   </si>
   <si>
     <t>Total Lettings</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>Q2</t>
@@ -235,6 +217,21 @@
   </si>
   <si>
     <t>social Lettings</t>
+  </si>
+  <si>
+    <t>Number_of_afforable_houses_started</t>
+  </si>
+  <si>
+    <t>Size_of_waiting_list</t>
+  </si>
+  <si>
+    <t>Number_of_afforable_houses_completed</t>
+  </si>
+  <si>
+    <t>Total_housing_completed</t>
+  </si>
+  <si>
+    <t>Total_Lettings</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1010,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -1138,48 +1135,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="58" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="174" fontId="4" fillId="5" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1219,6 +1188,49 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="58" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="5" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="5" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="216">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1747,46 +1759,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -2009,7 +2024,7 @@
         <v>1039265</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -2028,8 +2043,11 @@
       <c r="H17" s="22">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="58">
+        <v>123840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -2048,11 +2066,12 @@
       <c r="H18" s="22">
         <v>5.2</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="23"/>
+      <c r="J18" s="58">
+        <v>135580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -2071,11 +2090,12 @@
       <c r="H19" s="22">
         <v>6.25</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="23"/>
+      <c r="J19" s="58">
+        <v>127750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -2094,11 +2114,12 @@
       <c r="H20" s="22">
         <v>6.81</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="23"/>
+      <c r="J20" s="58">
+        <v>100170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -2117,11 +2138,12 @@
       <c r="H21" s="22">
         <v>7.16</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="23"/>
+      <c r="J21" s="58">
+        <v>76860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -2143,8 +2165,11 @@
       <c r="I22" s="24">
         <v>366820</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="58">
+        <v>64970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -2166,8 +2191,11 @@
       <c r="I23" s="24">
         <v>379082</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="58">
+        <v>57510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -2195,8 +2223,11 @@
       <c r="I24" s="24">
         <v>367755</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="58">
+        <v>41780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2224,8 +2255,11 @@
       <c r="I25" s="24">
         <v>393625</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="58">
+        <v>42390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -2253,8 +2287,11 @@
       <c r="I26" s="24">
         <v>394484</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="58">
+        <v>48510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>2012</v>
       </c>
@@ -2282,8 +2319,11 @@
       <c r="I27" s="24">
         <v>378043</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="65">
+        <v>53480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -2311,8 +2351,11 @@
       <c r="I28" s="24">
         <v>396471</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="58">
+        <v>53210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -2340,8 +2383,11 @@
       <c r="I29" s="24">
         <v>385343</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="58">
+        <v>53410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -2369,8 +2415,11 @@
       <c r="I30" s="24">
         <v>374586.30018399446</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="58">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -2398,8 +2447,11 @@
       <c r="I31" s="24">
         <v>334602.03519140871</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="58">
+        <v>59260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -2427,8 +2479,11 @@
       <c r="I32" s="24">
         <v>312988.65681551135</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="66">
+        <v>57890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2456,8 +2511,11 @@
       <c r="I33" s="24">
         <v>313963.93613076094</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="58">
+        <v>35770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="I34" s="25">
         <v>125149</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="58">
+        <v>37830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -2514,8 +2575,11 @@
       <c r="I35" s="24">
         <v>306187.22071551759</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="58">
+        <v>40300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2560,48 +2624,48 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="20" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2954,7 +3018,7 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2967,128 +3031,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43397F51-2696-4101-B143-2771814A5B96}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="37"/>
-    <col min="4" max="4" width="19.08984375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="15" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="15"/>
-    <col min="10" max="11" width="8.7265625" style="6"/>
-    <col min="12" max="12" width="19.54296875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="6"/>
+    <col min="1" max="3" width="8.7109375" style="37"/>
+    <col min="4" max="4" width="19.140625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="8.7109375" style="15"/>
+    <col min="10" max="11" width="8.7109375" style="6"/>
+    <col min="12" max="12" width="19.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="A1" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-    </row>
-    <row r="3" spans="1:16" ht="104" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52" t="s">
+      <c r="A2" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+    </row>
+    <row r="3" spans="1:16" ht="104.1" customHeight="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58" t="s">
+      <c r="L3" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="O3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="P3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27">
         <v>1998</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29">
@@ -3098,7 +3162,7 @@
         <v>1998</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" s="39">
         <v>80650</v>
@@ -3113,7 +3177,7 @@
         <v>1998</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L5" s="40">
         <v>63070</v>
@@ -3134,7 +3198,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="29">
@@ -3144,7 +3208,7 @@
         <v>1998</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6" s="39">
         <v>83933</v>
@@ -3157,7 +3221,7 @@
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L6" s="40">
         <v>59350</v>
@@ -3178,7 +3242,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29">
@@ -3188,7 +3252,7 @@
         <v>1998</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7" s="39">
         <v>88147</v>
@@ -3201,7 +3265,7 @@
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L7" s="40">
         <v>63430</v>
@@ -3222,7 +3286,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
@@ -3232,7 +3296,7 @@
         <v>1998</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" s="39">
         <v>85731</v>
@@ -3245,7 +3309,7 @@
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L8" s="40">
         <v>59520</v>
@@ -3268,7 +3332,7 @@
         <v>1999</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="29">
@@ -3278,7 +3342,7 @@
         <v>1999</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G9" s="39">
         <v>87294</v>
@@ -3293,7 +3357,7 @@
         <v>1999</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L9" s="40">
         <v>62550</v>
@@ -3314,7 +3378,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="29">
@@ -3324,7 +3388,7 @@
         <v>1999</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10" s="39">
         <v>93136</v>
@@ -3337,7 +3401,7 @@
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L10" s="40">
         <v>59920</v>
@@ -3358,7 +3422,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29">
@@ -3368,7 +3432,7 @@
         <v>1999</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="39">
         <v>100974</v>
@@ -3381,7 +3445,7 @@
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L11" s="40">
         <v>63330</v>
@@ -3402,7 +3466,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29">
@@ -3412,7 +3476,7 @@
         <v>1999</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G12" s="39">
         <v>100250</v>
@@ -3425,7 +3489,7 @@
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L12" s="40">
         <v>57500</v>
@@ -3448,7 +3512,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="29">
@@ -3458,7 +3522,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G13" s="39">
         <v>101606</v>
@@ -3473,7 +3537,7 @@
         <v>2000</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L13" s="40">
         <v>62490</v>
@@ -3494,7 +3558,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="29">
@@ -3504,7 +3568,7 @@
         <v>2000</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G14" s="39">
         <v>107022</v>
@@ -3517,7 +3581,7 @@
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L14" s="40">
         <v>60330</v>
@@ -3538,7 +3602,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="29">
@@ -3548,7 +3612,7 @@
         <v>2000</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G15" s="39">
         <v>108395</v>
@@ -3561,7 +3625,7 @@
       </c>
       <c r="J15" s="42"/>
       <c r="K15" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L15" s="40">
         <v>64080</v>
@@ -3582,7 +3646,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29">
@@ -3592,7 +3656,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16" s="39">
         <v>110201</v>
@@ -3605,7 +3669,7 @@
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L16" s="40">
         <v>60280</v>
@@ -3628,7 +3692,7 @@
         <v>2001</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="29">
@@ -3638,7 +3702,7 @@
         <v>2001</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" s="39">
         <v>112931</v>
@@ -3653,7 +3717,7 @@
         <v>2001</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L17" s="40">
         <v>64880</v>
@@ -3674,7 +3738,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="29">
@@ -3684,7 +3748,7 @@
         <v>2001</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G18" s="39">
         <v>118927</v>
@@ -3697,7 +3761,7 @@
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L18" s="40">
         <v>62370</v>
@@ -3718,7 +3782,7 @@
     <row r="19" spans="1:16">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29">
@@ -3728,7 +3792,7 @@
         <v>2001</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G19" s="39">
         <v>124379</v>
@@ -3741,7 +3805,7 @@
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L19" s="40">
         <v>67160</v>
@@ -3762,7 +3826,7 @@
     <row r="20" spans="1:16">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="29">
@@ -3772,7 +3836,7 @@
         <v>2001</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G20" s="39">
         <v>119682</v>
@@ -3785,7 +3849,7 @@
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L20" s="40">
         <v>60670</v>
@@ -3808,7 +3872,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="29">
@@ -3818,7 +3882,7 @@
         <v>2002</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="39">
         <v>120711</v>
@@ -3833,7 +3897,7 @@
         <v>2002</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L21" s="40">
         <v>63850</v>
@@ -3854,7 +3918,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="27"/>
       <c r="B22" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="29">
@@ -3864,7 +3928,7 @@
         <v>2002</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G22" s="39">
         <v>134149</v>
@@ -3877,7 +3941,7 @@
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L22" s="40">
         <v>66090</v>
@@ -3898,7 +3962,7 @@
     <row r="23" spans="1:16">
       <c r="A23" s="27"/>
       <c r="B23" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="29">
@@ -3908,7 +3972,7 @@
         <v>2002</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G23" s="39">
         <v>145378</v>
@@ -3921,7 +3985,7 @@
       </c>
       <c r="J23" s="42"/>
       <c r="K23" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L23" s="40">
         <v>71910</v>
@@ -3942,7 +4006,7 @@
     <row r="24" spans="1:16">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="29">
@@ -3952,7 +4016,7 @@
         <v>2002</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24" s="39">
         <v>144636</v>
@@ -3965,7 +4029,7 @@
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L24" s="40">
         <v>67490</v>
@@ -3988,7 +4052,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="29">
@@ -3998,7 +4062,7 @@
         <v>2003</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G25" s="39">
         <v>144166</v>
@@ -4013,7 +4077,7 @@
         <v>2003</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L25" s="40">
         <v>73640</v>
@@ -4034,7 +4098,7 @@
     <row r="26" spans="1:16">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="29">
@@ -4044,7 +4108,7 @@
         <v>2003</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G26" s="39">
         <v>153301</v>
@@ -4057,7 +4121,7 @@
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L26" s="40">
         <v>72070</v>
@@ -4078,7 +4142,7 @@
     <row r="27" spans="1:16">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="29">
@@ -4088,7 +4152,7 @@
         <v>2003</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G27" s="39">
         <v>174437</v>
@@ -4101,7 +4165,7 @@
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L27" s="40">
         <v>79710</v>
@@ -4122,7 +4186,7 @@
     <row r="28" spans="1:16">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="29">
@@ -4132,7 +4196,7 @@
         <v>2003</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G28" s="39">
         <v>176847</v>
@@ -4145,7 +4209,7 @@
       </c>
       <c r="J28" s="42"/>
       <c r="K28" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L28" s="40">
         <v>71550</v>
@@ -4168,7 +4232,7 @@
         <v>2004</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="29">
@@ -4178,7 +4242,7 @@
         <v>2004</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G29" s="39">
         <v>179479</v>
@@ -4193,7 +4257,7 @@
         <v>2004</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L29" s="40">
         <v>75060</v>
@@ -4214,7 +4278,7 @@
     <row r="30" spans="1:16">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="29">
@@ -4224,7 +4288,7 @@
         <v>2004</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G30" s="39">
         <v>189063</v>
@@ -4237,7 +4301,7 @@
       </c>
       <c r="J30" s="42"/>
       <c r="K30" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L30" s="40">
         <v>71150</v>
@@ -4258,7 +4322,7 @@
     <row r="31" spans="1:16">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="29">
@@ -4268,7 +4332,7 @@
         <v>2004</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31" s="39">
         <v>201071</v>
@@ -4281,7 +4345,7 @@
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L31" s="40">
         <v>71110</v>
@@ -4302,7 +4366,7 @@
     <row r="32" spans="1:16">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="29">
@@ -4312,7 +4376,7 @@
         <v>2004</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G32" s="39">
         <v>198395</v>
@@ -4325,7 +4389,7 @@
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L32" s="40">
         <v>64140</v>
@@ -4348,7 +4412,7 @@
         <v>2005</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="29">
@@ -4358,7 +4422,7 @@
         <v>2005</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G33" s="39">
         <v>198752</v>
@@ -4373,7 +4437,7 @@
         <v>2005</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L33" s="40">
         <v>60480</v>
@@ -4394,7 +4458,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="27"/>
       <c r="B34" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="29">
@@ -4404,7 +4468,7 @@
         <v>2005</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G34" s="39">
         <v>202223</v>
@@ -4417,7 +4481,7 @@
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L34" s="40">
         <v>61300</v>
@@ -4438,7 +4502,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="27"/>
       <c r="B35" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="29">
@@ -4448,7 +4512,7 @@
         <v>2005</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G35" s="39">
         <v>210734</v>
@@ -4461,7 +4525,7 @@
       </c>
       <c r="J35" s="42"/>
       <c r="K35" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L35" s="40">
         <v>56270</v>
@@ -4482,7 +4546,7 @@
     <row r="36" spans="1:16">
       <c r="A36" s="27"/>
       <c r="B36" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="29">
@@ -4492,7 +4556,7 @@
         <v>2005</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G36" s="39">
         <v>197926</v>
@@ -4505,7 +4569,7 @@
       </c>
       <c r="J36" s="42"/>
       <c r="K36" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L36" s="40">
         <v>49210</v>
@@ -4528,7 +4592,7 @@
         <v>2006</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="29">
@@ -4538,7 +4602,7 @@
         <v>2006</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G37" s="39">
         <v>202725</v>
@@ -4553,7 +4617,7 @@
         <v>2006</v>
       </c>
       <c r="K37" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L37" s="40">
         <v>46490</v>
@@ -4574,7 +4638,7 @@
     <row r="38" spans="1:16">
       <c r="A38" s="27"/>
       <c r="B38" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="29">
@@ -4584,7 +4648,7 @@
         <v>2006</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G38" s="39">
         <v>208911</v>
@@ -4597,7 +4661,7 @@
       </c>
       <c r="J38" s="42"/>
       <c r="K38" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L38" s="40">
         <v>41700</v>
@@ -4618,7 +4682,7 @@
     <row r="39" spans="1:16">
       <c r="A39" s="27"/>
       <c r="B39" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="29">
@@ -4628,7 +4692,7 @@
         <v>2006</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G39" s="39">
         <v>223419</v>
@@ -4641,7 +4705,7 @@
       </c>
       <c r="J39" s="42"/>
       <c r="K39" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L39" s="40">
         <v>42590</v>
@@ -4662,7 +4726,7 @@
     <row r="40" spans="1:16">
       <c r="A40" s="27"/>
       <c r="B40" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="29">
@@ -4672,7 +4736,7 @@
         <v>2006</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G40" s="39">
         <v>221124</v>
@@ -4685,7 +4749,7 @@
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L40" s="40">
         <v>37740</v>
@@ -4708,7 +4772,7 @@
         <v>2007</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="29">
@@ -4718,7 +4782,7 @@
         <v>2007</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G41" s="39">
         <v>225914</v>
@@ -4733,7 +4797,7 @@
         <v>2007</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L41" s="40">
         <v>37300</v>
@@ -4754,7 +4818,7 @@
     <row r="42" spans="1:16">
       <c r="A42" s="27"/>
       <c r="B42" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="29">
@@ -4764,7 +4828,7 @@
         <v>2007</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G42" s="39">
         <v>227127</v>
@@ -4777,7 +4841,7 @@
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L42" s="40">
         <v>34040</v>
@@ -4798,7 +4862,7 @@
     <row r="43" spans="1:16">
       <c r="A43" s="27"/>
       <c r="B43" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="29">
@@ -4808,7 +4872,7 @@
         <v>2007</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G43" s="39">
         <v>240966.19585533286</v>
@@ -4821,7 +4885,7 @@
       </c>
       <c r="J43" s="42"/>
       <c r="K43" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L43" s="40">
         <v>35200</v>
@@ -4842,7 +4906,7 @@
     <row r="44" spans="1:16">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="29">
@@ -4852,7 +4916,7 @@
         <v>2007</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G44" s="39">
         <v>234209.24283029581</v>
@@ -4865,7 +4929,7 @@
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L44" s="40">
         <v>31150</v>
@@ -4888,7 +4952,7 @@
         <v>2008</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="29">
@@ -4898,7 +4962,7 @@
         <v>2008</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G45" s="39">
         <v>236383.48444642569</v>
@@ -4913,7 +4977,7 @@
         <v>2008</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L45" s="40">
         <v>30450</v>
@@ -4934,7 +4998,7 @@
     <row r="46" spans="1:16">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="29">
@@ -4944,7 +5008,7 @@
         <v>2008</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G46" s="39">
         <v>237799.35917276281</v>
@@ -4957,7 +5021,7 @@
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L46" s="40">
         <v>30440</v>
@@ -4978,7 +5042,7 @@
     <row r="47" spans="1:16">
       <c r="A47" s="27"/>
       <c r="B47" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="29">
@@ -4988,7 +5052,7 @@
         <v>2008</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G47" s="39">
         <v>243573.44906650123</v>
@@ -5001,7 +5065,7 @@
       </c>
       <c r="J47" s="42"/>
       <c r="K47" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L47" s="40">
         <v>30040</v>
@@ -5022,7 +5086,7 @@
     <row r="48" spans="1:16">
       <c r="A48" s="27"/>
       <c r="B48" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="29">
@@ -5032,7 +5096,7 @@
         <v>2008</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G48" s="39">
         <v>230691.91342468504</v>
@@ -5045,7 +5109,7 @@
       </c>
       <c r="J48" s="42"/>
       <c r="K48" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L48" s="40">
         <v>26530</v>
@@ -5068,7 +5132,7 @@
         <v>2009</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="29">
@@ -5078,7 +5142,7 @@
         <v>2009</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G49" s="39">
         <v>224848.72128158101</v>
@@ -5093,7 +5157,7 @@
         <v>2009</v>
       </c>
       <c r="K49" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L49" s="40">
         <v>25890</v>
@@ -5114,7 +5178,7 @@
     <row r="50" spans="1:16">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="29">
@@ -5124,7 +5188,7 @@
         <v>2009</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G50" s="39">
         <v>223375.67226748742</v>
@@ -5137,7 +5201,7 @@
       </c>
       <c r="J50" s="42"/>
       <c r="K50" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L50" s="40">
         <v>23560</v>
@@ -5158,7 +5222,7 @@
     <row r="51" spans="1:16">
       <c r="A51" s="27"/>
       <c r="B51" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="29">
@@ -5168,7 +5232,7 @@
         <v>2009</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51" s="39">
         <v>243928.59097007019</v>
@@ -5181,7 +5245,7 @@
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L51" s="40">
         <v>22950</v>
@@ -5202,7 +5266,7 @@
     <row r="52" spans="1:16">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="29">
@@ -5212,7 +5276,7 @@
         <v>2009</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G52" s="39">
         <v>241894.85544066262</v>
@@ -5225,7 +5289,7 @@
       </c>
       <c r="J52" s="42"/>
       <c r="K52" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L52" s="40">
         <v>21200</v>
@@ -5248,7 +5312,7 @@
         <v>2010</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="29">
@@ -5258,7 +5322,7 @@
         <v>2010</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G53" s="39">
         <v>262740.91254881129</v>
@@ -5273,7 +5337,7 @@
         <v>2010</v>
       </c>
       <c r="K53" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L53" s="40">
         <v>21410</v>
@@ -5294,7 +5358,7 @@
     <row r="54" spans="1:16">
       <c r="A54" s="27"/>
       <c r="B54" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="29">
@@ -5304,7 +5368,7 @@
         <v>2010</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G54" s="39">
         <v>259468.55516312143</v>
@@ -5317,7 +5381,7 @@
       </c>
       <c r="J54" s="42"/>
       <c r="K54" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L54" s="40">
         <v>22850</v>
@@ -5338,7 +5402,7 @@
     <row r="55" spans="1:16">
       <c r="A55" s="27"/>
       <c r="B55" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="29">
@@ -5348,7 +5412,7 @@
         <v>2010</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G55" s="39">
         <v>268649.92746424029</v>
@@ -5361,7 +5425,7 @@
       </c>
       <c r="J55" s="42"/>
       <c r="K55" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L55" s="40">
         <v>26890</v>
@@ -5382,7 +5446,7 @@
     <row r="56" spans="1:16">
       <c r="A56" s="27"/>
       <c r="B56" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="29">
@@ -5392,7 +5456,7 @@
         <v>2010</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G56" s="39">
         <v>253909.2819920769</v>
@@ -5405,7 +5469,7 @@
       </c>
       <c r="J56" s="42"/>
       <c r="K56" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L56" s="40">
         <v>26060</v>
@@ -5428,7 +5492,7 @@
         <v>2011</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="29">
@@ -5438,7 +5502,7 @@
         <v>2011</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G57" s="39">
         <v>255013.27365477791</v>
@@ -5453,7 +5517,7 @@
         <v>2011</v>
       </c>
       <c r="K57" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L57" s="40">
         <v>26400</v>
@@ -5474,7 +5538,7 @@
     <row r="58" spans="1:16">
       <c r="A58" s="27"/>
       <c r="B58" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="29">
@@ -5484,7 +5548,7 @@
         <v>2011</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G58" s="39">
         <v>250036.40616366352</v>
@@ -5497,7 +5561,7 @@
       </c>
       <c r="J58" s="42"/>
       <c r="K58" s="43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L58" s="40">
         <v>25980</v>
@@ -5518,7 +5582,7 @@
     <row r="59" spans="1:16">
       <c r="A59" s="27"/>
       <c r="B59" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="29">
@@ -5528,7 +5592,7 @@
         <v>2011</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G59" s="39">
         <v>264626.79321165459</v>
@@ -5541,7 +5605,7 @@
       </c>
       <c r="J59" s="42"/>
       <c r="K59" s="43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L59" s="40">
         <v>27390</v>
@@ -5562,7 +5626,7 @@
     <row r="60" spans="1:16">
       <c r="A60" s="27"/>
       <c r="B60" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="29">
@@ -5572,7 +5636,7 @@
         <v>2011</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G60" s="39">
         <v>252476.30999999997</v>
@@ -5585,7 +5649,7 @@
       </c>
       <c r="J60" s="42"/>
       <c r="K60" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L60" s="40">
         <v>27470</v>
@@ -5608,7 +5672,7 @@
         <v>2012</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="29">
@@ -5618,7 +5682,7 @@
         <v>2012</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G61" s="39">
         <v>248768.39196866922</v>
@@ -5633,7 +5697,7 @@
         <v>2012</v>
       </c>
       <c r="K61" s="43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L61" s="40">
         <v>27880</v>
@@ -5654,7 +5718,7 @@
     <row r="62" spans="1:16">
       <c r="A62" s="27"/>
       <c r="B62" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="29">
@@ -5664,7 +5728,7 @@
         <v>2012</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G62" s="39">
         <v>255157.38662902627</v>
@@ -5677,7 +5741,7 @@
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L62" s="40">
         <v>26780</v>
@@ -5698,7 +5762,7 @@
     <row r="63" spans="1:16">
       <c r="A63" s="27"/>
       <c r="B63" s="27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="29">
@@ -5708,7 +5772,7 @@
         <v>2012</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G63" s="39">
         <v>264480.61773333332</v>
@@ -5721,7 +5785,7 @@
       </c>
       <c r="J63" s="44"/>
       <c r="K63" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L63" s="40">
         <v>29140</v>
@@ -5742,7 +5806,7 @@
     <row r="64" spans="1:16">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="29">
@@ -5752,7 +5816,7 @@
         <v>2012</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G64" s="39">
         <v>256197.35153333333</v>
@@ -5765,7 +5829,7 @@
       </c>
       <c r="J64" s="44"/>
       <c r="K64" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L64" s="40">
         <v>29070</v>
@@ -5788,7 +5852,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="29">
@@ -5798,7 +5862,7 @@
         <v>2013</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G65" s="39">
         <v>253175.14260063707</v>
@@ -5813,7 +5877,7 @@
         <v>2013</v>
       </c>
       <c r="K65" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L65" s="40">
         <v>28520</v>
@@ -5834,7 +5898,7 @@
     <row r="66" spans="1:16">
       <c r="A66" s="27"/>
       <c r="B66" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="29">
@@ -5844,7 +5908,7 @@
         <v>2013</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G66" s="39">
         <v>254850.89377329874</v>
@@ -5857,7 +5921,7 @@
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L66" s="40">
         <v>28230</v>
@@ -5878,7 +5942,7 @@
     <row r="67" spans="1:16">
       <c r="A67" s="27"/>
       <c r="B67" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="29">
@@ -5888,7 +5952,7 @@
         <v>2013</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G67" s="39">
         <v>270889.13364510465</v>
@@ -5901,7 +5965,7 @@
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L67" s="40">
         <v>28100</v>
@@ -5922,7 +5986,7 @@
     <row r="68" spans="1:16">
       <c r="A68" s="27"/>
       <c r="B68" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="29">
@@ -5932,7 +5996,7 @@
         <v>2013</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G68" s="39">
         <v>264484.28505776695</v>
@@ -5945,7 +6009,7 @@
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L68" s="40">
         <v>28070</v>
@@ -5968,7 +6032,7 @@
         <v>2014</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="29">
@@ -5978,7 +6042,7 @@
         <v>2014</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G69" s="39">
         <v>270883.57493333332</v>
@@ -5993,7 +6057,7 @@
         <v>2014</v>
       </c>
       <c r="K69" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L69" s="40">
         <v>27200</v>
@@ -6014,7 +6078,7 @@
     <row r="70" spans="1:16">
       <c r="A70" s="27"/>
       <c r="B70" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="29">
@@ -6024,7 +6088,7 @@
         <v>2014</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G70" s="39">
         <v>275316.48647355818</v>
@@ -6037,7 +6101,7 @@
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L70" s="40">
         <v>27550</v>
@@ -6058,7 +6122,7 @@
     <row r="71" spans="1:16">
       <c r="A71" s="27"/>
       <c r="B71" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="29">
@@ -6068,7 +6132,7 @@
         <v>2014</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G71" s="39">
         <v>288785.81364484597</v>
@@ -6081,7 +6145,7 @@
       </c>
       <c r="J71" s="44"/>
       <c r="K71" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L71" s="40">
         <v>28510</v>
@@ -6102,7 +6166,7 @@
     <row r="72" spans="1:16">
       <c r="A72" s="27"/>
       <c r="B72" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="29">
@@ -6112,7 +6176,7 @@
         <v>2014</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G72" s="39">
         <v>276467.66666666669</v>
@@ -6125,7 +6189,7 @@
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L72" s="40">
         <v>28640</v>
@@ -6148,7 +6212,7 @@
         <v>2015</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="29">
@@ -6158,7 +6222,7 @@
         <v>2015</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G73" s="39">
         <v>281212.66666666669</v>
@@ -6173,7 +6237,7 @@
         <v>2015</v>
       </c>
       <c r="K73" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L73" s="40">
         <v>27640</v>
@@ -6194,7 +6258,7 @@
     <row r="74" spans="1:16">
       <c r="A74" s="27"/>
       <c r="B74" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="29">
@@ -6204,7 +6268,7 @@
         <v>2015</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G74" s="39">
         <v>281836.66666666669</v>
@@ -6217,7 +6281,7 @@
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L74" s="40">
         <v>27440</v>
@@ -6238,7 +6302,7 @@
     <row r="75" spans="1:16">
       <c r="A75" s="27"/>
       <c r="B75" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C75" s="28"/>
       <c r="D75" s="29">
@@ -6248,7 +6312,7 @@
         <v>2015</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G75" s="39">
         <v>304023</v>
@@ -6261,7 +6325,7 @@
       </c>
       <c r="J75" s="44"/>
       <c r="K75" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L75" s="40">
         <v>28960</v>
@@ -6282,7 +6346,7 @@
     <row r="76" spans="1:16">
       <c r="A76" s="27"/>
       <c r="B76" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="29">
@@ -6292,7 +6356,7 @@
         <v>2015</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G76" s="39">
         <v>296424.28333333333</v>
@@ -6305,7 +6369,7 @@
       </c>
       <c r="J76" s="44"/>
       <c r="K76" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L76" s="40">
         <v>29280</v>
@@ -6328,7 +6392,7 @@
         <v>2016</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="29">
@@ -6338,7 +6402,7 @@
         <v>2016</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G77" s="39">
         <v>310040.82969554584</v>
@@ -6353,7 +6417,7 @@
         <v>2016</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L77" s="40">
         <v>29090</v>
@@ -6374,7 +6438,7 @@
     <row r="78" spans="1:16">
       <c r="A78" s="27"/>
       <c r="B78" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78" s="28"/>
       <c r="D78" s="29">
@@ -6384,7 +6448,7 @@
         <v>2016</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G78" s="39">
         <v>283167.81200110022</v>
@@ -6397,7 +6461,7 @@
       </c>
       <c r="J78" s="44"/>
       <c r="K78" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L78" s="40">
         <v>29760</v>
@@ -6418,7 +6482,7 @@
     <row r="79" spans="1:16">
       <c r="A79" s="27"/>
       <c r="B79" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="29">
@@ -6428,7 +6492,7 @@
         <v>2016</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G79" s="39">
         <v>302088.84416468645</v>
@@ -6441,7 +6505,7 @@
       </c>
       <c r="J79" s="44"/>
       <c r="K79" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L79" s="40">
         <v>29390</v>
@@ -6462,7 +6526,7 @@
     <row r="80" spans="1:16">
       <c r="A80" s="27"/>
       <c r="B80" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="29">
@@ -6472,7 +6536,7 @@
         <v>2016</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G80" s="39">
         <v>298548.84697444853</v>
@@ -6485,7 +6549,7 @@
       </c>
       <c r="J80" s="44"/>
       <c r="K80" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L80" s="40">
         <v>27960</v>
@@ -6508,7 +6572,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81" s="29">
@@ -6518,7 +6582,7 @@
         <v>2017</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G81" s="39">
         <v>291964.84700995428</v>
@@ -6533,7 +6597,7 @@
         <v>2017</v>
       </c>
       <c r="K81" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L81" s="40">
         <v>28490</v>
@@ -6554,7 +6618,7 @@
     <row r="82" spans="1:16">
       <c r="A82" s="27"/>
       <c r="B82" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="29">
@@ -6564,7 +6628,7 @@
         <v>2017</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G82" s="39">
         <v>297527.70558251929</v>
@@ -6577,7 +6641,7 @@
       </c>
       <c r="J82" s="44"/>
       <c r="K82" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L82" s="40">
         <v>27480</v>
@@ -6598,7 +6662,7 @@
     <row r="83" spans="1:16">
       <c r="A83" s="27"/>
       <c r="B83" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="29">
@@ -6608,7 +6672,7 @@
         <v>2017</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G83" s="39">
         <v>305867.96059673239</v>
@@ -6621,7 +6685,7 @@
       </c>
       <c r="J83" s="44"/>
       <c r="K83" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L83" s="40">
         <v>29360</v>
@@ -6642,7 +6706,7 @@
     <row r="84" spans="1:16">
       <c r="A84" s="27"/>
       <c r="B84" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="29">
@@ -6652,7 +6716,7 @@
         <v>2017</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G84" s="39">
         <v>295604.24842200143</v>
@@ -6665,7 +6729,7 @@
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L84" s="40">
         <v>26890</v>
@@ -6688,7 +6752,7 @@
         <v>2018</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="29">
@@ -6698,7 +6762,7 @@
         <v>2018</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G85" s="39">
         <v>297704.248594573</v>
@@ -6713,7 +6777,7 @@
         <v>2018</v>
       </c>
       <c r="K85" s="47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L85" s="40">
         <v>25750</v>
@@ -6734,7 +6798,7 @@
     <row r="86" spans="1:16">
       <c r="A86" s="27"/>
       <c r="B86" s="32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="29">
@@ -6744,7 +6808,7 @@
         <v>2018</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G86" s="39">
         <v>297314.8770822598</v>
@@ -6757,7 +6821,7 @@
       </c>
       <c r="J86" s="44"/>
       <c r="K86" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L86" s="40">
         <v>12920</v>
@@ -6778,7 +6842,7 @@
     <row r="87" spans="1:16">
       <c r="A87" s="27"/>
       <c r="B87" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="29">
@@ -6788,7 +6852,7 @@
         <v>2018</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G87" s="39">
         <v>308070.56884590862</v>
@@ -6801,7 +6865,7 @@
       </c>
       <c r="J87" s="44"/>
       <c r="K87" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L87" s="40">
         <v>12490</v>
@@ -6822,7 +6886,7 @@
     <row r="88" spans="1:16">
       <c r="A88" s="27"/>
       <c r="B88" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C88" s="35"/>
       <c r="D88" s="29">
@@ -6832,7 +6896,7 @@
         <v>2018</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G88" s="39">
         <v>297579.8670134414</v>
@@ -6845,7 +6909,7 @@
       </c>
       <c r="J88" s="44"/>
       <c r="K88" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L88" s="40">
         <v>13190</v>
@@ -6868,7 +6932,7 @@
         <v>2019</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="29">
@@ -6878,7 +6942,7 @@
         <v>2019</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G89" s="39">
         <v>292136.09161158669</v>
@@ -6893,7 +6957,7 @@
         <v>2019</v>
       </c>
       <c r="K89" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L89" s="40">
         <v>13590</v>
@@ -6914,7 +6978,7 @@
     <row r="90" spans="1:16">
       <c r="A90" s="27"/>
       <c r="B90" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C90" s="35"/>
       <c r="D90" s="29">
@@ -6924,7 +6988,7 @@
         <v>2019</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G90" s="39">
         <v>293927.33333333331</v>
@@ -6937,7 +7001,7 @@
       </c>
       <c r="J90" s="44"/>
       <c r="K90" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L90" s="40">
         <v>15270</v>
@@ -6958,7 +7022,7 @@
     <row r="91" spans="1:16">
       <c r="A91" s="27"/>
       <c r="B91" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="29">
@@ -6968,7 +7032,7 @@
         <v>2019</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G91" s="39">
         <v>307321.33333333331</v>
@@ -6981,7 +7045,7 @@
       </c>
       <c r="J91" s="44"/>
       <c r="K91" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L91" s="40">
         <v>15890</v>
@@ -7002,10 +7066,10 @@
     <row r="92" spans="1:16">
       <c r="A92" s="27"/>
       <c r="B92" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="D92" s="29">
         <v>88310</v>
@@ -7014,7 +7078,7 @@
         <v>2019</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G92" s="39">
         <v>306272.66666666669</v>
@@ -7027,7 +7091,7 @@
       </c>
       <c r="J92" s="44"/>
       <c r="K92" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L92" s="40">
         <v>15720</v>
@@ -7050,10 +7114,10 @@
         <v>2020</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D93" s="29">
         <v>92190</v>
@@ -7062,7 +7126,7 @@
         <v>2020</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G93" s="39">
         <v>308011</v>
@@ -7077,7 +7141,7 @@
         <v>2020</v>
       </c>
       <c r="K93" s="45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L93" s="40">
         <v>15910</v>
@@ -7098,10 +7162,10 @@
     <row r="94" spans="1:16">
       <c r="A94" s="27"/>
       <c r="B94" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D94" s="29">
         <v>98260</v>
@@ -7110,7 +7174,7 @@
         <v>2020</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G94" s="39">
         <v>295366.66666666669</v>
@@ -7123,7 +7187,7 @@
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L94" s="40">
         <v>16770</v>
@@ -7144,10 +7208,10 @@
     <row r="95" spans="1:16">
       <c r="A95" s="27"/>
       <c r="B95" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D95" s="29">
         <v>94610</v>
@@ -7156,7 +7220,7 @@
         <v>2020</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G95" s="39">
         <v>333202.66666666669</v>
@@ -7169,7 +7233,7 @@
       </c>
       <c r="J95" s="44"/>
       <c r="K95" s="45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L95" s="40">
         <v>15200</v>
@@ -7190,10 +7254,10 @@
     <row r="96" spans="1:16">
       <c r="A96" s="27"/>
       <c r="B96" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>18</v>
       </c>
       <c r="D96" s="29">
         <v>95100</v>
@@ -7202,7 +7266,7 @@
         <v>2020</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G96" s="39">
         <v>347266.66666666669</v>
@@ -7215,7 +7279,7 @@
       </c>
       <c r="J96" s="44"/>
       <c r="K96" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L96" s="40">
         <v>15790</v>
@@ -7238,10 +7302,10 @@
         <v>2021</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D97" s="29">
         <v>95290</v>
@@ -7250,7 +7314,7 @@
         <v>2021</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G97" s="39">
         <v>364031</v>
@@ -7265,7 +7329,7 @@
         <v>2021</v>
       </c>
       <c r="K97" s="49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L97" s="40">
         <v>15320</v>
@@ -7286,10 +7350,10 @@
     <row r="98" spans="1:16">
       <c r="A98" s="27"/>
       <c r="B98" s="32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D98" s="29">
         <v>95850</v>
@@ -7298,7 +7362,7 @@
         <v>2021</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G98" s="39">
         <v>361983</v>
@@ -7311,7 +7375,7 @@
       </c>
       <c r="J98" s="48"/>
       <c r="K98" s="49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L98" s="40">
         <v>15560</v>
@@ -7332,10 +7396,10 @@
     <row r="99" spans="1:16">
       <c r="A99" s="27"/>
       <c r="B99" s="32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D99" s="29">
         <v>96060</v>
@@ -7344,7 +7408,7 @@
         <v>2021</v>
       </c>
       <c r="F99" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G99" s="39">
         <v>310666.33333333331</v>
@@ -7357,7 +7421,7 @@
       </c>
       <c r="J99" s="48"/>
       <c r="K99" s="49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L99" s="40">
         <v>15010</v>
@@ -7380,7 +7444,7 @@
         <v>2021</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G100" s="39">
         <v>330471.33333333331</v>
@@ -7394,6 +7458,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E2:K2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -7410,8 +7476,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7419,36 +7483,3796 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469C197B-6544-4163-ADED-8EC795FA6136}">
+  <dimension ref="A1:L96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="127.5">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="29">
+        <v>47520</v>
+      </c>
+      <c r="E2" s="39">
+        <v>80650</v>
+      </c>
+      <c r="F2" s="39">
+        <v>56983</v>
+      </c>
+      <c r="G2" s="39">
+        <v>101961</v>
+      </c>
+      <c r="H2" s="40">
+        <v>63070</v>
+      </c>
+      <c r="I2" s="41">
+        <v>27280</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1410</v>
+      </c>
+      <c r="K2" s="41">
+        <v>14150</v>
+      </c>
+      <c r="L2" s="41">
+        <v>20220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="29">
+        <v>49390</v>
+      </c>
+      <c r="E3" s="39">
+        <v>83933</v>
+      </c>
+      <c r="F3" s="39">
+        <v>62601</v>
+      </c>
+      <c r="G3" s="39">
+        <v>104623</v>
+      </c>
+      <c r="H3" s="40">
+        <v>59350</v>
+      </c>
+      <c r="I3" s="41">
+        <v>25590</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1390</v>
+      </c>
+      <c r="K3" s="41">
+        <v>13320</v>
+      </c>
+      <c r="L3" s="41">
+        <v>19050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27" t="str">
+        <f>_xlfn.CONCAT(A4," - ",B4)</f>
+        <v>1998 - Q3</v>
+      </c>
+      <c r="D4" s="29">
+        <v>52510</v>
+      </c>
+      <c r="E4" s="39">
+        <v>88147</v>
+      </c>
+      <c r="F4" s="39">
+        <v>68166</v>
+      </c>
+      <c r="G4" s="39">
+        <v>106214</v>
+      </c>
+      <c r="H4" s="40">
+        <v>63430</v>
+      </c>
+      <c r="I4" s="41">
+        <v>26870</v>
+      </c>
+      <c r="J4" s="41">
+        <v>1710</v>
+      </c>
+      <c r="K4" s="41">
+        <v>14330</v>
+      </c>
+      <c r="L4" s="41">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="38">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>_xlfn.CONCAT(A5," - ",B5)</f>
+        <v>1998 - Q4</v>
+      </c>
+      <c r="D5" s="29">
+        <v>53790</v>
+      </c>
+      <c r="E5" s="39">
+        <v>85731</v>
+      </c>
+      <c r="F5" s="39">
+        <v>65388</v>
+      </c>
+      <c r="G5" s="39">
+        <v>103880</v>
+      </c>
+      <c r="H5" s="40">
+        <v>59520</v>
+      </c>
+      <c r="I5" s="41">
+        <v>24890</v>
+      </c>
+      <c r="J5" s="41">
+        <v>1610</v>
+      </c>
+      <c r="K5" s="41">
+        <v>13680</v>
+      </c>
+      <c r="L5" s="41">
+        <v>19340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f t="shared" ref="C6:C69" si="0">_xlfn.CONCAT(A6," - ",B6)</f>
+        <v>1999 - Q1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>56580</v>
+      </c>
+      <c r="E6" s="39">
+        <v>87294</v>
+      </c>
+      <c r="F6" s="39">
+        <v>67864</v>
+      </c>
+      <c r="G6" s="39">
+        <v>105585</v>
+      </c>
+      <c r="H6" s="40">
+        <v>62550</v>
+      </c>
+      <c r="I6" s="41">
+        <v>26910</v>
+      </c>
+      <c r="J6" s="41">
+        <v>1720</v>
+      </c>
+      <c r="K6" s="41">
+        <v>14640</v>
+      </c>
+      <c r="L6" s="41">
+        <v>19270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>1999 - Q2</v>
+      </c>
+      <c r="D7" s="29">
+        <v>58430</v>
+      </c>
+      <c r="E7" s="39">
+        <v>93136</v>
+      </c>
+      <c r="F7" s="39">
+        <v>74480</v>
+      </c>
+      <c r="G7" s="39">
+        <v>109788</v>
+      </c>
+      <c r="H7" s="40">
+        <v>59920</v>
+      </c>
+      <c r="I7" s="41">
+        <v>25970</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1610</v>
+      </c>
+      <c r="K7" s="41">
+        <v>13530</v>
+      </c>
+      <c r="L7" s="41">
+        <v>18810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>1999 - Q3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>61450</v>
+      </c>
+      <c r="E8" s="39">
+        <v>100974</v>
+      </c>
+      <c r="F8" s="39">
+        <v>76958</v>
+      </c>
+      <c r="G8" s="39">
+        <v>120826</v>
+      </c>
+      <c r="H8" s="40">
+        <v>63330</v>
+      </c>
+      <c r="I8" s="41">
+        <v>28020</v>
+      </c>
+      <c r="J8" s="41">
+        <v>1900</v>
+      </c>
+      <c r="K8" s="41">
+        <v>13750</v>
+      </c>
+      <c r="L8" s="41">
+        <v>19660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="38">
+        <v>1999</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>1999 - Q4</v>
+      </c>
+      <c r="D9" s="29">
+        <v>62180</v>
+      </c>
+      <c r="E9" s="39">
+        <v>100250</v>
+      </c>
+      <c r="F9" s="39">
+        <v>76813</v>
+      </c>
+      <c r="G9" s="39">
+        <v>119856</v>
+      </c>
+      <c r="H9" s="40">
+        <v>57500</v>
+      </c>
+      <c r="I9" s="41">
+        <v>24470</v>
+      </c>
+      <c r="J9" s="41">
+        <v>2100</v>
+      </c>
+      <c r="K9" s="41">
+        <v>13230</v>
+      </c>
+      <c r="L9" s="41">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 - Q1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>65170</v>
+      </c>
+      <c r="E10" s="39">
+        <v>101606</v>
+      </c>
+      <c r="F10" s="39">
+        <v>78355</v>
+      </c>
+      <c r="G10" s="39">
+        <v>122425</v>
+      </c>
+      <c r="H10" s="40">
+        <v>62490</v>
+      </c>
+      <c r="I10" s="41">
+        <v>27120</v>
+      </c>
+      <c r="J10" s="41">
+        <v>2270</v>
+      </c>
+      <c r="K10" s="41">
+        <v>14260</v>
+      </c>
+      <c r="L10" s="41">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 - Q2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>67520</v>
+      </c>
+      <c r="E11" s="39">
+        <v>107022</v>
+      </c>
+      <c r="F11" s="39">
+        <v>81165</v>
+      </c>
+      <c r="G11" s="39">
+        <v>126348</v>
+      </c>
+      <c r="H11" s="40">
+        <v>60330</v>
+      </c>
+      <c r="I11" s="41">
+        <v>27590</v>
+      </c>
+      <c r="J11" s="41">
+        <v>2110</v>
+      </c>
+      <c r="K11" s="41">
+        <v>12760</v>
+      </c>
+      <c r="L11" s="41">
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 - Q3</v>
+      </c>
+      <c r="D12" s="29">
+        <v>71860</v>
+      </c>
+      <c r="E12" s="39">
+        <v>108395</v>
+      </c>
+      <c r="F12" s="39">
+        <v>79989</v>
+      </c>
+      <c r="G12" s="39">
+        <v>129255</v>
+      </c>
+      <c r="H12" s="40">
+        <v>64080</v>
+      </c>
+      <c r="I12" s="41">
+        <v>29210</v>
+      </c>
+      <c r="J12" s="41">
+        <v>2410</v>
+      </c>
+      <c r="K12" s="41">
+        <v>12640</v>
+      </c>
+      <c r="L12" s="41">
+        <v>19820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="38">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 - Q4</v>
+      </c>
+      <c r="D13" s="29">
+        <v>73080</v>
+      </c>
+      <c r="E13" s="39">
+        <v>110201</v>
+      </c>
+      <c r="F13" s="39">
+        <v>80620</v>
+      </c>
+      <c r="G13" s="39">
+        <v>131677</v>
+      </c>
+      <c r="H13" s="40">
+        <v>60280</v>
+      </c>
+      <c r="I13" s="41">
+        <v>27420</v>
+      </c>
+      <c r="J13" s="41">
+        <v>2070</v>
+      </c>
+      <c r="K13" s="41">
+        <v>11950</v>
+      </c>
+      <c r="L13" s="41">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2001 - Q1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>75200</v>
+      </c>
+      <c r="E14" s="39">
+        <v>112931</v>
+      </c>
+      <c r="F14" s="39">
+        <v>84567</v>
+      </c>
+      <c r="G14" s="39">
+        <v>133691</v>
+      </c>
+      <c r="H14" s="40">
+        <v>64880</v>
+      </c>
+      <c r="I14" s="41">
+        <v>30450</v>
+      </c>
+      <c r="J14" s="41">
+        <v>2060</v>
+      </c>
+      <c r="K14" s="41">
+        <v>13760</v>
+      </c>
+      <c r="L14" s="41">
+        <v>18610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2001 - Q2</v>
+      </c>
+      <c r="D15" s="29">
+        <v>75920</v>
+      </c>
+      <c r="E15" s="39">
+        <v>118927</v>
+      </c>
+      <c r="F15" s="39">
+        <v>87587</v>
+      </c>
+      <c r="G15" s="39">
+        <v>140681</v>
+      </c>
+      <c r="H15" s="40">
+        <v>62370</v>
+      </c>
+      <c r="I15" s="41">
+        <v>28950</v>
+      </c>
+      <c r="J15" s="41">
+        <v>1970</v>
+      </c>
+      <c r="K15" s="41">
+        <v>13240</v>
+      </c>
+      <c r="L15" s="41">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2001 - Q3</v>
+      </c>
+      <c r="D16" s="29">
+        <v>77800</v>
+      </c>
+      <c r="E16" s="39">
+        <v>124379</v>
+      </c>
+      <c r="F16" s="39">
+        <v>93085</v>
+      </c>
+      <c r="G16" s="39">
+        <v>146020</v>
+      </c>
+      <c r="H16" s="40">
+        <v>67160</v>
+      </c>
+      <c r="I16" s="41">
+        <v>30590</v>
+      </c>
+      <c r="J16" s="41">
+        <v>2200</v>
+      </c>
+      <c r="K16" s="41">
+        <v>14290</v>
+      </c>
+      <c r="L16" s="41">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2001 - Q4</v>
+      </c>
+      <c r="D17" s="29">
+        <v>77510</v>
+      </c>
+      <c r="E17" s="39">
+        <v>119682</v>
+      </c>
+      <c r="F17" s="39">
+        <v>92928</v>
+      </c>
+      <c r="G17" s="39">
+        <v>137307</v>
+      </c>
+      <c r="H17" s="40">
+        <v>60670</v>
+      </c>
+      <c r="I17" s="41">
+        <v>27840</v>
+      </c>
+      <c r="J17" s="41">
+        <v>2190</v>
+      </c>
+      <c r="K17" s="41">
+        <v>13040</v>
+      </c>
+      <c r="L17" s="41">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2002 - Q1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>80200</v>
+      </c>
+      <c r="E18" s="39">
+        <v>120711</v>
+      </c>
+      <c r="F18" s="39">
+        <v>96152</v>
+      </c>
+      <c r="G18" s="39">
+        <v>132851</v>
+      </c>
+      <c r="H18" s="40">
+        <v>63850</v>
+      </c>
+      <c r="I18" s="41">
+        <v>29280</v>
+      </c>
+      <c r="J18" s="41">
+        <v>2180</v>
+      </c>
+      <c r="K18" s="41">
+        <v>14340</v>
+      </c>
+      <c r="L18" s="41">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2002 - Q2</v>
+      </c>
+      <c r="D19" s="29">
+        <v>81660</v>
+      </c>
+      <c r="E19" s="39">
+        <v>134149</v>
+      </c>
+      <c r="F19" s="39">
+        <v>106288</v>
+      </c>
+      <c r="G19" s="39">
+        <v>145322</v>
+      </c>
+      <c r="H19" s="40">
+        <v>66090</v>
+      </c>
+      <c r="I19" s="41">
+        <v>30460</v>
+      </c>
+      <c r="J19" s="41">
+        <v>2130</v>
+      </c>
+      <c r="K19" s="41">
+        <v>14560</v>
+      </c>
+      <c r="L19" s="41">
+        <v>18940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2002 - Q3</v>
+      </c>
+      <c r="D20" s="29">
+        <v>85010</v>
+      </c>
+      <c r="E20" s="39">
+        <v>145378</v>
+      </c>
+      <c r="F20" s="39">
+        <v>118924</v>
+      </c>
+      <c r="G20" s="39">
+        <v>158022</v>
+      </c>
+      <c r="H20" s="40">
+        <v>71910</v>
+      </c>
+      <c r="I20" s="41">
+        <v>33310</v>
+      </c>
+      <c r="J20" s="41">
+        <v>2570</v>
+      </c>
+      <c r="K20" s="41">
+        <v>16020</v>
+      </c>
+      <c r="L20" s="41">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2002 - Q4</v>
+      </c>
+      <c r="D21" s="29">
+        <v>85140</v>
+      </c>
+      <c r="E21" s="39">
+        <v>144636</v>
+      </c>
+      <c r="F21" s="39">
+        <v>119412</v>
+      </c>
+      <c r="G21" s="39">
+        <v>155558</v>
+      </c>
+      <c r="H21" s="40">
+        <v>67490</v>
+      </c>
+      <c r="I21" s="41">
+        <v>30790</v>
+      </c>
+      <c r="J21" s="41">
+        <v>2580</v>
+      </c>
+      <c r="K21" s="41">
+        <v>15250</v>
+      </c>
+      <c r="L21" s="41">
+        <v>18870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2003 - Q1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>89040</v>
+      </c>
+      <c r="E22" s="39">
+        <v>144166</v>
+      </c>
+      <c r="F22" s="39">
+        <v>112940</v>
+      </c>
+      <c r="G22" s="39">
+        <v>152763</v>
+      </c>
+      <c r="H22" s="40">
+        <v>73640</v>
+      </c>
+      <c r="I22" s="41">
+        <v>33980</v>
+      </c>
+      <c r="J22" s="41">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="41">
+        <v>17150</v>
+      </c>
+      <c r="L22" s="41">
+        <v>19810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2003 - Q2</v>
+      </c>
+      <c r="D23" s="29">
+        <v>91870</v>
+      </c>
+      <c r="E23" s="39">
+        <v>153301</v>
+      </c>
+      <c r="F23" s="39">
+        <v>118348</v>
+      </c>
+      <c r="G23" s="39">
+        <v>164226</v>
+      </c>
+      <c r="H23" s="40">
+        <v>72070</v>
+      </c>
+      <c r="I23" s="41">
+        <v>34090</v>
+      </c>
+      <c r="J23" s="41">
+        <v>2910</v>
+      </c>
+      <c r="K23" s="41">
+        <v>16090</v>
+      </c>
+      <c r="L23" s="41">
+        <v>18990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2003 - Q3</v>
+      </c>
+      <c r="D24" s="29">
+        <v>94440</v>
+      </c>
+      <c r="E24" s="39">
+        <v>174437</v>
+      </c>
+      <c r="F24" s="39">
+        <v>122525</v>
+      </c>
+      <c r="G24" s="39">
+        <v>185258</v>
+      </c>
+      <c r="H24" s="40">
+        <v>79710</v>
+      </c>
+      <c r="I24" s="41">
+        <v>35770</v>
+      </c>
+      <c r="J24" s="41">
+        <v>3210</v>
+      </c>
+      <c r="K24" s="41">
+        <v>17700</v>
+      </c>
+      <c r="L24" s="41">
+        <v>23030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2003 - Q4</v>
+      </c>
+      <c r="D25" s="29">
+        <v>94610</v>
+      </c>
+      <c r="E25" s="39">
+        <v>176847</v>
+      </c>
+      <c r="F25" s="39">
+        <v>126527</v>
+      </c>
+      <c r="G25" s="39">
+        <v>187307</v>
+      </c>
+      <c r="H25" s="40">
+        <v>71550</v>
+      </c>
+      <c r="I25" s="41">
+        <v>31750</v>
+      </c>
+      <c r="J25" s="41">
+        <v>3410</v>
+      </c>
+      <c r="K25" s="41">
+        <v>16180</v>
+      </c>
+      <c r="L25" s="41">
+        <v>20210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2004 - Q1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>97680</v>
+      </c>
+      <c r="E26" s="39">
+        <v>179479</v>
+      </c>
+      <c r="F26" s="39">
+        <v>129251</v>
+      </c>
+      <c r="G26" s="39">
+        <v>191345</v>
+      </c>
+      <c r="H26" s="40">
+        <v>75060</v>
+      </c>
+      <c r="I26" s="41">
+        <v>33820</v>
+      </c>
+      <c r="J26" s="41">
+        <v>3400</v>
+      </c>
+      <c r="K26" s="41">
+        <v>17750</v>
+      </c>
+      <c r="L26" s="41">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2004 - Q2</v>
+      </c>
+      <c r="D27" s="29">
+        <v>99530</v>
+      </c>
+      <c r="E27" s="39">
+        <v>189063</v>
+      </c>
+      <c r="F27" s="39">
+        <v>137745</v>
+      </c>
+      <c r="G27" s="39">
+        <v>198482</v>
+      </c>
+      <c r="H27" s="40">
+        <v>71150</v>
+      </c>
+      <c r="I27" s="41">
+        <v>32900</v>
+      </c>
+      <c r="J27" s="41">
+        <v>3290</v>
+      </c>
+      <c r="K27" s="41">
+        <v>15680</v>
+      </c>
+      <c r="L27" s="41">
+        <v>19290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2004 - Q3</v>
+      </c>
+      <c r="D28" s="29">
+        <v>101300</v>
+      </c>
+      <c r="E28" s="39">
+        <v>201071</v>
+      </c>
+      <c r="F28" s="39">
+        <v>145187</v>
+      </c>
+      <c r="G28" s="39">
+        <v>212141</v>
+      </c>
+      <c r="H28" s="40">
+        <v>71110</v>
+      </c>
+      <c r="I28" s="41">
+        <v>32150</v>
+      </c>
+      <c r="J28" s="41">
+        <v>3550</v>
+      </c>
+      <c r="K28" s="41">
+        <v>15500</v>
+      </c>
+      <c r="L28" s="41">
+        <v>19910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2004 - Q4</v>
+      </c>
+      <c r="D29" s="29">
+        <v>101030</v>
+      </c>
+      <c r="E29" s="39">
+        <v>198395</v>
+      </c>
+      <c r="F29" s="39">
+        <v>146108</v>
+      </c>
+      <c r="G29" s="39">
+        <v>209814</v>
+      </c>
+      <c r="H29" s="40">
+        <v>64140</v>
+      </c>
+      <c r="I29" s="41">
+        <v>28890</v>
+      </c>
+      <c r="J29" s="41">
+        <v>3400</v>
+      </c>
+      <c r="K29" s="41">
+        <v>14370</v>
+      </c>
+      <c r="L29" s="41">
+        <v>17480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2005 - Q1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>101070</v>
+      </c>
+      <c r="E30" s="39">
+        <v>198752</v>
+      </c>
+      <c r="F30" s="39">
+        <v>147490</v>
+      </c>
+      <c r="G30" s="39">
+        <v>210730</v>
+      </c>
+      <c r="H30" s="40">
+        <v>60480</v>
+      </c>
+      <c r="I30" s="41">
+        <v>26920</v>
+      </c>
+      <c r="J30" s="41">
+        <v>3570</v>
+      </c>
+      <c r="K30" s="41">
+        <v>13640</v>
+      </c>
+      <c r="L30" s="41">
+        <v>16350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2005 - Q2</v>
+      </c>
+      <c r="D31" s="29">
+        <v>100970</v>
+      </c>
+      <c r="E31" s="39">
+        <v>202223</v>
+      </c>
+      <c r="F31" s="39">
+        <v>152772</v>
+      </c>
+      <c r="G31" s="39">
+        <v>212500</v>
+      </c>
+      <c r="H31" s="40">
+        <v>61300</v>
+      </c>
+      <c r="I31" s="41">
+        <v>27310</v>
+      </c>
+      <c r="J31" s="41">
+        <v>3400</v>
+      </c>
+      <c r="K31" s="41">
+        <v>13040</v>
+      </c>
+      <c r="L31" s="41">
+        <v>17540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2005 - Q3</v>
+      </c>
+      <c r="D32" s="29">
+        <v>101020</v>
+      </c>
+      <c r="E32" s="39">
+        <v>210734</v>
+      </c>
+      <c r="F32" s="39">
+        <v>154572</v>
+      </c>
+      <c r="G32" s="39">
+        <v>228008</v>
+      </c>
+      <c r="H32" s="40">
+        <v>56270</v>
+      </c>
+      <c r="I32" s="41">
+        <v>24800</v>
+      </c>
+      <c r="J32" s="41">
+        <v>3650</v>
+      </c>
+      <c r="K32" s="41">
+        <v>11760</v>
+      </c>
+      <c r="L32" s="41">
+        <v>16060</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2005 - Q4</v>
+      </c>
+      <c r="D33" s="29">
+        <v>98730</v>
+      </c>
+      <c r="E33" s="39">
+        <v>197926</v>
+      </c>
+      <c r="F33" s="39">
+        <v>143283</v>
+      </c>
+      <c r="G33" s="39">
+        <v>232806</v>
+      </c>
+      <c r="H33" s="40">
+        <v>49210</v>
+      </c>
+      <c r="I33" s="41">
+        <v>21140</v>
+      </c>
+      <c r="J33" s="41">
+        <v>3210</v>
+      </c>
+      <c r="K33" s="41">
+        <v>10550</v>
+      </c>
+      <c r="L33" s="41">
+        <v>14320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2006 - Q1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>96370</v>
+      </c>
+      <c r="E34" s="39">
+        <v>202725</v>
+      </c>
+      <c r="F34" s="39">
+        <v>145482</v>
+      </c>
+      <c r="G34" s="39">
+        <v>238171</v>
+      </c>
+      <c r="H34" s="40">
+        <v>46490</v>
+      </c>
+      <c r="I34" s="41">
+        <v>20730</v>
+      </c>
+      <c r="J34" s="41">
+        <v>3000</v>
+      </c>
+      <c r="K34" s="41">
+        <v>10190</v>
+      </c>
+      <c r="L34" s="41">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2006 - Q2</v>
+      </c>
+      <c r="D35" s="29">
+        <v>93910</v>
+      </c>
+      <c r="E35" s="39">
+        <v>208911</v>
+      </c>
+      <c r="F35" s="39">
+        <v>151879</v>
+      </c>
+      <c r="G35" s="39">
+        <v>241902</v>
+      </c>
+      <c r="H35" s="40">
+        <v>41700</v>
+      </c>
+      <c r="I35" s="41">
+        <v>19430</v>
+      </c>
+      <c r="J35" s="41">
+        <v>2780</v>
+      </c>
+      <c r="K35" s="41">
+        <v>8530</v>
+      </c>
+      <c r="L35" s="41">
+        <v>10970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2006 - Q3</v>
+      </c>
+      <c r="D36" s="29">
+        <v>93090</v>
+      </c>
+      <c r="E36" s="39">
+        <v>223419</v>
+      </c>
+      <c r="F36" s="39">
+        <v>159226</v>
+      </c>
+      <c r="G36" s="39">
+        <v>259079</v>
+      </c>
+      <c r="H36" s="40">
+        <v>42590</v>
+      </c>
+      <c r="I36" s="41">
+        <v>19390</v>
+      </c>
+      <c r="J36" s="41">
+        <v>2890</v>
+      </c>
+      <c r="K36" s="41">
+        <v>8200</v>
+      </c>
+      <c r="L36" s="41">
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2006 - Q4</v>
+      </c>
+      <c r="D37" s="29">
+        <v>89510</v>
+      </c>
+      <c r="E37" s="39">
+        <v>221124</v>
+      </c>
+      <c r="F37" s="39">
+        <v>158419</v>
+      </c>
+      <c r="G37" s="39">
+        <v>254765</v>
+      </c>
+      <c r="H37" s="40">
+        <v>37740</v>
+      </c>
+      <c r="I37" s="41">
+        <v>17310</v>
+      </c>
+      <c r="J37" s="41">
+        <v>2740</v>
+      </c>
+      <c r="K37" s="41">
+        <v>6990</v>
+      </c>
+      <c r="L37" s="41">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2007 - Q1</v>
+      </c>
+      <c r="D38" s="29">
+        <v>87120</v>
+      </c>
+      <c r="E38" s="39">
+        <v>225914</v>
+      </c>
+      <c r="F38" s="39">
+        <v>161324</v>
+      </c>
+      <c r="G38" s="39">
+        <v>261910</v>
+      </c>
+      <c r="H38" s="40">
+        <v>37300</v>
+      </c>
+      <c r="I38" s="41">
+        <v>17230</v>
+      </c>
+      <c r="J38" s="41">
+        <v>2520</v>
+      </c>
+      <c r="K38" s="41">
+        <v>7420</v>
+      </c>
+      <c r="L38" s="41">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2007 - Q2</v>
+      </c>
+      <c r="D39" s="29">
+        <v>84900</v>
+      </c>
+      <c r="E39" s="39">
+        <v>227127</v>
+      </c>
+      <c r="F39" s="39">
+        <v>165581</v>
+      </c>
+      <c r="G39" s="39">
+        <v>261519</v>
+      </c>
+      <c r="H39" s="40">
+        <v>34040</v>
+      </c>
+      <c r="I39" s="41">
+        <v>15960</v>
+      </c>
+      <c r="J39" s="41">
+        <v>2410</v>
+      </c>
+      <c r="K39" s="41">
+        <v>6310</v>
+      </c>
+      <c r="L39" s="41">
+        <v>9370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2007 - Q3</v>
+      </c>
+      <c r="D40" s="29">
+        <v>82750</v>
+      </c>
+      <c r="E40" s="39">
+        <v>240966.19585533286</v>
+      </c>
+      <c r="F40" s="39">
+        <v>171579.00216650762</v>
+      </c>
+      <c r="G40" s="39">
+        <v>277482.42947249807</v>
+      </c>
+      <c r="H40" s="40">
+        <v>35200</v>
+      </c>
+      <c r="I40" s="41">
+        <v>16540</v>
+      </c>
+      <c r="J40" s="41">
+        <v>2570</v>
+      </c>
+      <c r="K40" s="41">
+        <v>6140</v>
+      </c>
+      <c r="L40" s="41">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2007 - Q4</v>
+      </c>
+      <c r="D41" s="29">
+        <v>79500</v>
+      </c>
+      <c r="E41" s="39">
+        <v>234209.24283029581</v>
+      </c>
+      <c r="F41" s="39">
+        <v>167624.72270101547</v>
+      </c>
+      <c r="G41" s="39">
+        <v>270088.41164830787</v>
+      </c>
+      <c r="H41" s="40">
+        <v>31150</v>
+      </c>
+      <c r="I41" s="41">
+        <v>15240</v>
+      </c>
+      <c r="J41" s="41">
+        <v>2420</v>
+      </c>
+      <c r="K41" s="41">
+        <v>4760</v>
+      </c>
+      <c r="L41" s="41">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2008 - Q1</v>
+      </c>
+      <c r="D42" s="29">
+        <v>77510</v>
+      </c>
+      <c r="E42" s="39">
+        <v>236383.48444642569</v>
+      </c>
+      <c r="F42" s="39">
+        <v>167532.17291768282</v>
+      </c>
+      <c r="G42" s="39">
+        <v>274907.83896919928</v>
+      </c>
+      <c r="H42" s="40">
+        <v>30450</v>
+      </c>
+      <c r="I42" s="41">
+        <v>15430</v>
+      </c>
+      <c r="J42" s="41">
+        <v>2160</v>
+      </c>
+      <c r="K42" s="41">
+        <v>4590</v>
+      </c>
+      <c r="L42" s="41">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2008 - Q2</v>
+      </c>
+      <c r="D43" s="29">
+        <v>74690</v>
+      </c>
+      <c r="E43" s="39">
+        <v>237799.35917276281</v>
+      </c>
+      <c r="F43" s="39">
+        <v>173808.19075048572</v>
+      </c>
+      <c r="G43" s="39">
+        <v>272474.51051382424</v>
+      </c>
+      <c r="H43" s="40">
+        <v>30440</v>
+      </c>
+      <c r="I43" s="41">
+        <v>15680</v>
+      </c>
+      <c r="J43" s="41">
+        <v>2260</v>
+      </c>
+      <c r="K43" s="41">
+        <v>4230</v>
+      </c>
+      <c r="L43" s="41">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2008 - Q3</v>
+      </c>
+      <c r="D44" s="29">
+        <v>72130</v>
+      </c>
+      <c r="E44" s="39">
+        <v>243573.44906650123</v>
+      </c>
+      <c r="F44" s="39">
+        <v>175617.28843200486</v>
+      </c>
+      <c r="G44" s="39">
+        <v>279449.75779409439</v>
+      </c>
+      <c r="H44" s="40">
+        <v>30040</v>
+      </c>
+      <c r="I44" s="41">
+        <v>14340</v>
+      </c>
+      <c r="J44" s="41">
+        <v>2370</v>
+      </c>
+      <c r="K44" s="41">
+        <v>4560</v>
+      </c>
+      <c r="L44" s="41">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2008 - Q4</v>
+      </c>
+      <c r="D45" s="29">
+        <v>67480</v>
+      </c>
+      <c r="E45" s="39">
+        <v>230691.91342468504</v>
+      </c>
+      <c r="F45" s="39">
+        <v>163947.8592634236</v>
+      </c>
+      <c r="G45" s="39">
+        <v>267106.46806517354</v>
+      </c>
+      <c r="H45" s="40">
+        <v>26530</v>
+      </c>
+      <c r="I45" s="41">
+        <v>12070</v>
+      </c>
+      <c r="J45" s="41">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="41">
+        <v>4090</v>
+      </c>
+      <c r="L45" s="41">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2009 - Q1</v>
+      </c>
+      <c r="D46" s="29">
+        <v>64000</v>
+      </c>
+      <c r="E46" s="39">
+        <v>224848.72128158101</v>
+      </c>
+      <c r="F46" s="39">
+        <v>160528.77668662189</v>
+      </c>
+      <c r="G46" s="39">
+        <v>264477.36913262523</v>
+      </c>
+      <c r="H46" s="40">
+        <v>25890</v>
+      </c>
+      <c r="I46" s="41">
+        <v>11350</v>
+      </c>
+      <c r="J46" s="41">
+        <v>1910</v>
+      </c>
+      <c r="K46" s="41">
+        <v>4610</v>
+      </c>
+      <c r="L46" s="41">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2009 - Q2</v>
+      </c>
+      <c r="D47" s="29">
+        <v>60230</v>
+      </c>
+      <c r="E47" s="39">
+        <v>223375.67226748742</v>
+      </c>
+      <c r="F47" s="39">
+        <v>162935.86666469826</v>
+      </c>
+      <c r="G47" s="39">
+        <v>257710.45960977694</v>
+      </c>
+      <c r="H47" s="40">
+        <v>23560</v>
+      </c>
+      <c r="I47" s="41">
+        <v>10650</v>
+      </c>
+      <c r="J47" s="41">
+        <v>1760</v>
+      </c>
+      <c r="K47" s="41">
+        <v>3930</v>
+      </c>
+      <c r="L47" s="41">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2009 - Q3</v>
+      </c>
+      <c r="D48" s="29">
+        <v>56920</v>
+      </c>
+      <c r="E48" s="39">
+        <v>243928.59097007019</v>
+      </c>
+      <c r="F48" s="39">
+        <v>177665.9521429801</v>
+      </c>
+      <c r="G48" s="39">
+        <v>278921.47469352139</v>
+      </c>
+      <c r="H48" s="40">
+        <v>22950</v>
+      </c>
+      <c r="I48" s="41">
+        <v>10360</v>
+      </c>
+      <c r="J48" s="41">
+        <v>1640</v>
+      </c>
+      <c r="K48" s="41">
+        <v>3890</v>
+      </c>
+      <c r="L48" s="41">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2009 - Q4</v>
+      </c>
+      <c r="D49" s="29">
+        <v>53370</v>
+      </c>
+      <c r="E49" s="39">
+        <v>241894.85544066262</v>
+      </c>
+      <c r="F49" s="39">
+        <v>182383.71011793011</v>
+      </c>
+      <c r="G49" s="39">
+        <v>272496.63101728022</v>
+      </c>
+      <c r="H49" s="40">
+        <v>21200</v>
+      </c>
+      <c r="I49" s="41">
+        <v>9430</v>
+      </c>
+      <c r="J49" s="41">
+        <v>1560</v>
+      </c>
+      <c r="K49" s="41">
+        <v>3810</v>
+      </c>
+      <c r="L49" s="41">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2010 - Q1</v>
+      </c>
+      <c r="D50" s="29">
+        <v>51310</v>
+      </c>
+      <c r="E50" s="39">
+        <v>262740.91254881129</v>
+      </c>
+      <c r="F50" s="39">
+        <v>192731.41537192444</v>
+      </c>
+      <c r="G50" s="39">
+        <v>296382.75050092227</v>
+      </c>
+      <c r="H50" s="40">
+        <v>21410</v>
+      </c>
+      <c r="I50" s="41">
+        <v>9590</v>
+      </c>
+      <c r="J50" s="41">
+        <v>1610</v>
+      </c>
+      <c r="K50" s="41">
+        <v>4200</v>
+      </c>
+      <c r="L50" s="41">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2010 - Q2</v>
+      </c>
+      <c r="D51" s="29">
+        <v>50400</v>
+      </c>
+      <c r="E51" s="39">
+        <v>259468.55516312143</v>
+      </c>
+      <c r="F51" s="39">
+        <v>194402.30539779784</v>
+      </c>
+      <c r="G51" s="39">
+        <v>291181.36944388348</v>
+      </c>
+      <c r="H51" s="40">
+        <v>22850</v>
+      </c>
+      <c r="I51" s="41">
+        <v>10100</v>
+      </c>
+      <c r="J51" s="41">
+        <v>1570</v>
+      </c>
+      <c r="K51" s="41">
+        <v>4450</v>
+      </c>
+      <c r="L51" s="41">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2010 - Q3</v>
+      </c>
+      <c r="D52" s="29">
+        <v>49680</v>
+      </c>
+      <c r="E52" s="39">
+        <v>268649.92746424029</v>
+      </c>
+      <c r="F52" s="39">
+        <v>195647.46250002703</v>
+      </c>
+      <c r="G52" s="39">
+        <v>304647.51998326974</v>
+      </c>
+      <c r="H52" s="40">
+        <v>26890</v>
+      </c>
+      <c r="I52" s="41">
+        <v>11840</v>
+      </c>
+      <c r="J52" s="41">
+        <v>1820</v>
+      </c>
+      <c r="K52" s="41">
+        <v>5250</v>
+      </c>
+      <c r="L52" s="41">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2010 - Q4</v>
+      </c>
+      <c r="D53" s="29">
+        <v>48010</v>
+      </c>
+      <c r="E53" s="39">
+        <v>253909.2819920769</v>
+      </c>
+      <c r="F53" s="39">
+        <v>184082.641523923</v>
+      </c>
+      <c r="G53" s="39">
+        <v>289487.71125276858</v>
+      </c>
+      <c r="H53" s="40">
+        <v>26060</v>
+      </c>
+      <c r="I53" s="41">
+        <v>10870</v>
+      </c>
+      <c r="J53" s="41">
+        <v>1900</v>
+      </c>
+      <c r="K53" s="41">
+        <v>5090</v>
+      </c>
+      <c r="L53" s="41">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011 - Q1</v>
+      </c>
+      <c r="D54" s="29">
+        <v>48240</v>
+      </c>
+      <c r="E54" s="39">
+        <v>255013.27365477791</v>
+      </c>
+      <c r="F54" s="39">
+        <v>185010.97301456073</v>
+      </c>
+      <c r="G54" s="39">
+        <v>294014.63308885106</v>
+      </c>
+      <c r="H54" s="40">
+        <v>26400</v>
+      </c>
+      <c r="I54" s="41">
+        <v>11350</v>
+      </c>
+      <c r="J54" s="41">
+        <v>1840</v>
+      </c>
+      <c r="K54" s="41">
+        <v>5430</v>
+      </c>
+      <c r="L54" s="41">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011 - Q2</v>
+      </c>
+      <c r="D55" s="29">
+        <v>48330</v>
+      </c>
+      <c r="E55" s="39">
+        <v>250036.40616366352</v>
+      </c>
+      <c r="F55" s="39">
+        <v>186752.82436109972</v>
+      </c>
+      <c r="G55" s="39">
+        <v>284643.47344204964</v>
+      </c>
+      <c r="H55" s="40">
+        <v>25980</v>
+      </c>
+      <c r="I55" s="41">
+        <v>11820</v>
+      </c>
+      <c r="J55" s="41">
+        <v>1880</v>
+      </c>
+      <c r="K55" s="41">
+        <v>4960</v>
+      </c>
+      <c r="L55" s="41">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011 - Q3</v>
+      </c>
+      <c r="D56" s="29">
+        <v>49100</v>
+      </c>
+      <c r="E56" s="39">
+        <v>264626.79321165459</v>
+      </c>
+      <c r="F56" s="39">
+        <v>194056.35660180994</v>
+      </c>
+      <c r="G56" s="39">
+        <v>300009.9000181132</v>
+      </c>
+      <c r="H56" s="40">
+        <v>27390</v>
+      </c>
+      <c r="I56" s="41">
+        <v>12510</v>
+      </c>
+      <c r="J56" s="41">
+        <v>2010</v>
+      </c>
+      <c r="K56" s="41">
+        <v>4820</v>
+      </c>
+      <c r="L56" s="41">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011 - Q4</v>
+      </c>
+      <c r="D57" s="29">
+        <v>48920</v>
+      </c>
+      <c r="E57" s="39">
+        <v>252476.30999999997</v>
+      </c>
+      <c r="F57" s="39">
+        <v>185249.25669183975</v>
+      </c>
+      <c r="G57" s="39">
+        <v>287049.43091813376</v>
+      </c>
+      <c r="H57" s="40">
+        <v>27470</v>
+      </c>
+      <c r="I57" s="41">
+        <v>12830</v>
+      </c>
+      <c r="J57" s="41">
+        <v>2110</v>
+      </c>
+      <c r="K57" s="41">
+        <v>4710</v>
+      </c>
+      <c r="L57" s="41">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2012 - Q1</v>
+      </c>
+      <c r="D58" s="29">
+        <v>50430</v>
+      </c>
+      <c r="E58" s="39">
+        <v>248768.39196866922</v>
+      </c>
+      <c r="F58" s="39">
+        <v>186509.2143371882</v>
+      </c>
+      <c r="G58" s="39">
+        <v>286758.96401897684</v>
+      </c>
+      <c r="H58" s="40">
+        <v>27880</v>
+      </c>
+      <c r="I58" s="41">
+        <v>13130</v>
+      </c>
+      <c r="J58" s="41">
+        <v>1920</v>
+      </c>
+      <c r="K58" s="41">
+        <v>5200</v>
+      </c>
+      <c r="L58" s="41">
+        <v>7640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2012 - Q2</v>
+      </c>
+      <c r="D59" s="29">
+        <v>51630</v>
+      </c>
+      <c r="E59" s="39">
+        <v>255157.38662902627</v>
+      </c>
+      <c r="F59" s="39">
+        <v>189762.32209005664</v>
+      </c>
+      <c r="G59" s="39">
+        <v>288925.39755059598</v>
+      </c>
+      <c r="H59" s="40">
+        <v>26780</v>
+      </c>
+      <c r="I59" s="41">
+        <v>12890</v>
+      </c>
+      <c r="J59" s="41">
+        <v>1850</v>
+      </c>
+      <c r="K59" s="41">
+        <v>4680</v>
+      </c>
+      <c r="L59" s="41">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2012 - Q3</v>
+      </c>
+      <c r="D60" s="29">
+        <v>52960</v>
+      </c>
+      <c r="E60" s="39">
+        <v>264480.61773333332</v>
+      </c>
+      <c r="F60" s="39">
+        <v>194533.53339999999</v>
+      </c>
+      <c r="G60" s="39">
+        <v>304441.67583333334</v>
+      </c>
+      <c r="H60" s="40">
+        <v>29140</v>
+      </c>
+      <c r="I60" s="41">
+        <v>13890</v>
+      </c>
+      <c r="J60" s="41">
+        <v>2210</v>
+      </c>
+      <c r="K60" s="41">
+        <v>4910</v>
+      </c>
+      <c r="L60" s="41">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2012 - Q4</v>
+      </c>
+      <c r="D61" s="29">
+        <v>53140</v>
+      </c>
+      <c r="E61" s="39">
+        <v>256197.35153333333</v>
+      </c>
+      <c r="F61" s="39">
+        <v>189442.46603333333</v>
+      </c>
+      <c r="G61" s="39">
+        <v>296570.91039999999</v>
+      </c>
+      <c r="H61" s="40">
+        <v>29070</v>
+      </c>
+      <c r="I61" s="41">
+        <v>13570</v>
+      </c>
+      <c r="J61" s="41">
+        <v>2230</v>
+      </c>
+      <c r="K61" s="41">
+        <v>5030</v>
+      </c>
+      <c r="L61" s="41">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2013 - Q1</v>
+      </c>
+      <c r="D62" s="29">
+        <v>55320</v>
+      </c>
+      <c r="E62" s="39">
+        <v>253175.14260063707</v>
+      </c>
+      <c r="F62" s="39">
+        <v>188577.13169343863</v>
+      </c>
+      <c r="G62" s="39">
+        <v>296224.23140688048</v>
+      </c>
+      <c r="H62" s="40">
+        <v>28520</v>
+      </c>
+      <c r="I62" s="41">
+        <v>13420</v>
+      </c>
+      <c r="J62" s="41">
+        <v>2150</v>
+      </c>
+      <c r="K62" s="41">
+        <v>5120</v>
+      </c>
+      <c r="L62" s="41">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2013 - Q2</v>
+      </c>
+      <c r="D63" s="29">
+        <v>55840</v>
+      </c>
+      <c r="E63" s="39">
+        <v>254850.89377329874</v>
+      </c>
+      <c r="F63" s="39">
+        <v>197350.03061575905</v>
+      </c>
+      <c r="G63" s="39">
+        <v>296147.26140293787</v>
+      </c>
+      <c r="H63" s="40">
+        <v>28230</v>
+      </c>
+      <c r="I63" s="41">
+        <v>13470</v>
+      </c>
+      <c r="J63" s="41">
+        <v>2150</v>
+      </c>
+      <c r="K63" s="41">
+        <v>5160</v>
+      </c>
+      <c r="L63" s="41">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2013 - Q3</v>
+      </c>
+      <c r="D64" s="29">
+        <v>57410</v>
+      </c>
+      <c r="E64" s="39">
+        <v>270889.13364510465</v>
+      </c>
+      <c r="F64" s="39">
+        <v>204875.05247205155</v>
+      </c>
+      <c r="G64" s="39">
+        <v>313746.98842726095</v>
+      </c>
+      <c r="H64" s="40">
+        <v>28100</v>
+      </c>
+      <c r="I64" s="41">
+        <v>13420</v>
+      </c>
+      <c r="J64" s="41">
+        <v>2120</v>
+      </c>
+      <c r="K64" s="41">
+        <v>5310</v>
+      </c>
+      <c r="L64" s="41">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2013 - Q4</v>
+      </c>
+      <c r="D65" s="29">
+        <v>56940</v>
+      </c>
+      <c r="E65" s="39">
+        <v>264484.28505776695</v>
+      </c>
+      <c r="F65" s="39">
+        <v>201352.10350294411</v>
+      </c>
+      <c r="G65" s="39">
+        <v>306847.1043865346</v>
+      </c>
+      <c r="H65" s="40">
+        <v>28070</v>
+      </c>
+      <c r="I65" s="41">
+        <v>12900</v>
+      </c>
+      <c r="J65" s="41">
+        <v>2220</v>
+      </c>
+      <c r="K65" s="41">
+        <v>5210</v>
+      </c>
+      <c r="L65" s="41">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 - Q1</v>
+      </c>
+      <c r="D66" s="29">
+        <v>58410</v>
+      </c>
+      <c r="E66" s="39">
+        <v>270883.57493333332</v>
+      </c>
+      <c r="F66" s="39">
+        <v>204748.97316666666</v>
+      </c>
+      <c r="G66" s="39">
+        <v>316341.71469999995</v>
+      </c>
+      <c r="H66" s="40">
+        <v>27200</v>
+      </c>
+      <c r="I66" s="41">
+        <v>12500</v>
+      </c>
+      <c r="J66" s="41">
+        <v>2040</v>
+      </c>
+      <c r="K66" s="41">
+        <v>5360</v>
+      </c>
+      <c r="L66" s="41">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 - Q2</v>
+      </c>
+      <c r="D67" s="29">
+        <v>59570</v>
+      </c>
+      <c r="E67" s="39">
+        <v>275316.48647355818</v>
+      </c>
+      <c r="F67" s="39">
+        <v>210263.12734189155</v>
+      </c>
+      <c r="G67" s="39">
+        <v>319975.19566106261</v>
+      </c>
+      <c r="H67" s="40">
+        <v>27550</v>
+      </c>
+      <c r="I67" s="41">
+        <v>13190</v>
+      </c>
+      <c r="J67" s="41">
+        <v>2060</v>
+      </c>
+      <c r="K67" s="41">
+        <v>4970</v>
+      </c>
+      <c r="L67" s="41">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 - Q3</v>
+      </c>
+      <c r="D68" s="29">
+        <v>60900</v>
+      </c>
+      <c r="E68" s="39">
+        <v>288785.81364484597</v>
+      </c>
+      <c r="F68" s="39">
+        <v>217839.3031352165</v>
+      </c>
+      <c r="G68" s="39">
+        <v>336677.25699011103</v>
+      </c>
+      <c r="H68" s="40">
+        <v>28510</v>
+      </c>
+      <c r="I68" s="41">
+        <v>14040</v>
+      </c>
+      <c r="J68" s="41">
+        <v>2220</v>
+      </c>
+      <c r="K68" s="41">
+        <v>5120</v>
+      </c>
+      <c r="L68" s="41">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 - Q4</v>
+      </c>
+      <c r="D69" s="29">
+        <v>61930</v>
+      </c>
+      <c r="E69" s="39">
+        <v>276467.66666666669</v>
+      </c>
+      <c r="F69" s="39">
+        <v>209485.66666666666</v>
+      </c>
+      <c r="G69" s="39">
+        <v>324880.33333333331</v>
+      </c>
+      <c r="H69" s="40">
+        <v>28640</v>
+      </c>
+      <c r="I69" s="41">
+        <v>13680</v>
+      </c>
+      <c r="J69" s="41">
+        <v>2450</v>
+      </c>
+      <c r="K69" s="41">
+        <v>5210</v>
+      </c>
+      <c r="L69" s="41">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="27" t="str">
+        <f t="shared" ref="C70:C96" si="1">_xlfn.CONCAT(A70," - ",B70)</f>
+        <v>2015 - Q1</v>
+      </c>
+      <c r="D70" s="29">
+        <v>64710</v>
+      </c>
+      <c r="E70" s="39">
+        <v>281212.66666666669</v>
+      </c>
+      <c r="F70" s="39">
+        <v>212064</v>
+      </c>
+      <c r="G70" s="39">
+        <v>333743.33333333331</v>
+      </c>
+      <c r="H70" s="40">
+        <v>27640</v>
+      </c>
+      <c r="I70" s="41">
+        <v>13520</v>
+      </c>
+      <c r="J70" s="41">
+        <v>2270</v>
+      </c>
+      <c r="K70" s="41">
+        <v>5120</v>
+      </c>
+      <c r="L70" s="41">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 - Q2</v>
+      </c>
+      <c r="D71" s="29">
+        <v>66980</v>
+      </c>
+      <c r="E71" s="39">
+        <v>281836.66666666669</v>
+      </c>
+      <c r="F71" s="39">
+        <v>212212.66666666666</v>
+      </c>
+      <c r="G71" s="39">
+        <v>335808.66666666669</v>
+      </c>
+      <c r="H71" s="40">
+        <v>27440</v>
+      </c>
+      <c r="I71" s="41">
+        <v>13840</v>
+      </c>
+      <c r="J71" s="41">
+        <v>2150</v>
+      </c>
+      <c r="K71" s="41">
+        <v>4600</v>
+      </c>
+      <c r="L71" s="41">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 - Q3</v>
+      </c>
+      <c r="D72" s="29">
+        <v>68560</v>
+      </c>
+      <c r="E72" s="39">
+        <v>304023</v>
+      </c>
+      <c r="F72" s="39">
+        <v>219212</v>
+      </c>
+      <c r="G72" s="39">
+        <v>362861</v>
+      </c>
+      <c r="H72" s="40">
+        <v>28960</v>
+      </c>
+      <c r="I72" s="41">
+        <v>14660</v>
+      </c>
+      <c r="J72" s="41">
+        <v>2460</v>
+      </c>
+      <c r="K72" s="41">
+        <v>4840</v>
+      </c>
+      <c r="L72" s="41">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 - Q4</v>
+      </c>
+      <c r="D73" s="29">
+        <v>69140</v>
+      </c>
+      <c r="E73" s="39">
+        <v>296424.28333333333</v>
+      </c>
+      <c r="F73" s="39">
+        <v>216527.66666666666</v>
+      </c>
+      <c r="G73" s="39">
+        <v>356484.10000000003</v>
+      </c>
+      <c r="H73" s="40">
+        <v>29280</v>
+      </c>
+      <c r="I73" s="41">
+        <v>14480</v>
+      </c>
+      <c r="J73" s="41">
+        <v>2550</v>
+      </c>
+      <c r="K73" s="41">
+        <v>4980</v>
+      </c>
+      <c r="L73" s="41">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 - Q1</v>
+      </c>
+      <c r="D74" s="29">
+        <v>71670</v>
+      </c>
+      <c r="E74" s="39">
+        <v>310040.82969554584</v>
+      </c>
+      <c r="F74" s="39">
+        <v>223038.54670385687</v>
+      </c>
+      <c r="G74" s="39">
+        <v>373325.81356184563</v>
+      </c>
+      <c r="H74" s="40">
+        <v>29090</v>
+      </c>
+      <c r="I74" s="41">
+        <v>14760</v>
+      </c>
+      <c r="J74" s="41">
+        <v>2410</v>
+      </c>
+      <c r="K74" s="41">
+        <v>5160</v>
+      </c>
+      <c r="L74" s="41">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 - Q2</v>
+      </c>
+      <c r="D75" s="29">
+        <v>73050</v>
+      </c>
+      <c r="E75" s="39">
+        <v>283167.81200110022</v>
+      </c>
+      <c r="F75" s="39">
+        <v>219795.47099741115</v>
+      </c>
+      <c r="G75" s="39">
+        <v>347200.36495356361</v>
+      </c>
+      <c r="H75" s="40">
+        <v>29760</v>
+      </c>
+      <c r="I75" s="41">
+        <v>15150</v>
+      </c>
+      <c r="J75" s="41">
+        <v>2520</v>
+      </c>
+      <c r="K75" s="41">
+        <v>5090</v>
+      </c>
+      <c r="L75" s="41">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 - Q3</v>
+      </c>
+      <c r="D76" s="29">
+        <v>74750</v>
+      </c>
+      <c r="E76" s="39">
+        <v>302088.84416468645</v>
+      </c>
+      <c r="F76" s="39">
+        <v>226192.48313544944</v>
+      </c>
+      <c r="G76" s="39">
+        <v>368966.11682601849</v>
+      </c>
+      <c r="H76" s="40">
+        <v>29390</v>
+      </c>
+      <c r="I76" s="41">
+        <v>14930</v>
+      </c>
+      <c r="J76" s="41">
+        <v>2530</v>
+      </c>
+      <c r="K76" s="41">
+        <v>4890</v>
+      </c>
+      <c r="L76" s="41">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 - Q4</v>
+      </c>
+      <c r="D77" s="29">
+        <v>75740</v>
+      </c>
+      <c r="E77" s="39">
+        <v>298548.84697444853</v>
+      </c>
+      <c r="F77" s="39">
+        <v>225228.52718568131</v>
+      </c>
+      <c r="G77" s="39">
+        <v>364033.60775408236</v>
+      </c>
+      <c r="H77" s="40">
+        <v>27960</v>
+      </c>
+      <c r="I77" s="41">
+        <v>14420</v>
+      </c>
+      <c r="J77" s="41">
+        <v>2430</v>
+      </c>
+      <c r="K77" s="41">
+        <v>4570</v>
+      </c>
+      <c r="L77" s="41">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 - Q1</v>
+      </c>
+      <c r="D78" s="29">
+        <v>77220</v>
+      </c>
+      <c r="E78" s="39">
+        <v>291964.84700995428</v>
+      </c>
+      <c r="F78" s="39">
+        <v>221202.65214320205</v>
+      </c>
+      <c r="G78" s="39">
+        <v>357025.19024919701</v>
+      </c>
+      <c r="H78" s="40">
+        <v>28490</v>
+      </c>
+      <c r="I78" s="41">
+        <v>14610</v>
+      </c>
+      <c r="J78" s="41">
+        <v>2370</v>
+      </c>
+      <c r="K78" s="41">
+        <v>4950</v>
+      </c>
+      <c r="L78" s="41">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 - Q2</v>
+      </c>
+      <c r="D79" s="29">
+        <v>78540</v>
+      </c>
+      <c r="E79" s="39">
+        <v>297527.70558251929</v>
+      </c>
+      <c r="F79" s="39">
+        <v>227542.00041884431</v>
+      </c>
+      <c r="G79" s="39">
+        <v>362290.43447740236</v>
+      </c>
+      <c r="H79" s="40">
+        <v>27480</v>
+      </c>
+      <c r="I79" s="41">
+        <v>14360</v>
+      </c>
+      <c r="J79" s="41">
+        <v>2320</v>
+      </c>
+      <c r="K79" s="41">
+        <v>4580</v>
+      </c>
+      <c r="L79" s="41">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 - Q3</v>
+      </c>
+      <c r="D80" s="29">
+        <v>79830</v>
+      </c>
+      <c r="E80" s="39">
+        <v>305867.96059673239</v>
+      </c>
+      <c r="F80" s="39">
+        <v>229399.70647240549</v>
+      </c>
+      <c r="G80" s="39">
+        <v>372700.04680340196</v>
+      </c>
+      <c r="H80" s="40">
+        <v>29360</v>
+      </c>
+      <c r="I80" s="41">
+        <v>15280</v>
+      </c>
+      <c r="J80" s="41">
+        <v>2330</v>
+      </c>
+      <c r="K80" s="41">
+        <v>4910</v>
+      </c>
+      <c r="L80" s="41">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 - Q4</v>
+      </c>
+      <c r="D81" s="29">
+        <v>79720</v>
+      </c>
+      <c r="E81" s="39">
+        <v>295604.24842200143</v>
+      </c>
+      <c r="F81" s="39">
+        <v>224637.39442233081</v>
+      </c>
+      <c r="G81" s="39">
+        <v>359472.17295990436</v>
+      </c>
+      <c r="H81" s="40">
+        <v>26890</v>
+      </c>
+      <c r="I81" s="41">
+        <v>13640</v>
+      </c>
+      <c r="J81" s="41">
+        <v>2160</v>
+      </c>
+      <c r="K81" s="41">
+        <v>4550</v>
+      </c>
+      <c r="L81" s="41">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 - Q1</v>
+      </c>
+      <c r="D82" s="29">
+        <v>80720</v>
+      </c>
+      <c r="E82" s="39">
+        <v>297704.248594573</v>
+      </c>
+      <c r="F82" s="39">
+        <v>226543.7369081784</v>
+      </c>
+      <c r="G82" s="39">
+        <v>366528.24857138254</v>
+      </c>
+      <c r="H82" s="40">
+        <v>25750</v>
+      </c>
+      <c r="I82" s="41">
+        <v>13320</v>
+      </c>
+      <c r="J82" s="41">
+        <v>1900</v>
+      </c>
+      <c r="K82" s="41">
+        <v>4420</v>
+      </c>
+      <c r="L82" s="41">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 - Q2</v>
+      </c>
+      <c r="D83" s="29">
+        <v>82390</v>
+      </c>
+      <c r="E83" s="39">
+        <v>297314.8770822598</v>
+      </c>
+      <c r="F83" s="39">
+        <v>231505.15688028673</v>
+      </c>
+      <c r="G83" s="39">
+        <v>362404.48933809809</v>
+      </c>
+      <c r="H83" s="40">
+        <v>12920</v>
+      </c>
+      <c r="I83" s="41">
+        <v>7400</v>
+      </c>
+      <c r="J83" s="41">
+        <v>1010</v>
+      </c>
+      <c r="K83" s="41">
+        <v>1320</v>
+      </c>
+      <c r="L83" s="41">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 - Q3</v>
+      </c>
+      <c r="D84" s="29">
+        <v>83430</v>
+      </c>
+      <c r="E84" s="39">
+        <v>308070.56884590862</v>
+      </c>
+      <c r="F84" s="39">
+        <v>235526.84363237259</v>
+      </c>
+      <c r="G84" s="39">
+        <v>376017.86469577177</v>
+      </c>
+      <c r="H84" s="40">
+        <v>12490</v>
+      </c>
+      <c r="I84" s="41">
+        <v>7120</v>
+      </c>
+      <c r="J84" s="41">
+        <v>1000</v>
+      </c>
+      <c r="K84" s="41">
+        <v>2190</v>
+      </c>
+      <c r="L84" s="41">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 - Q4</v>
+      </c>
+      <c r="D85" s="29">
+        <v>83540</v>
+      </c>
+      <c r="E85" s="39">
+        <v>297579.8670134414</v>
+      </c>
+      <c r="F85" s="39">
+        <v>231389.29671079686</v>
+      </c>
+      <c r="G85" s="39">
+        <v>361258.08229784557</v>
+      </c>
+      <c r="H85" s="40">
+        <v>13190</v>
+      </c>
+      <c r="I85" s="41">
+        <v>7930</v>
+      </c>
+      <c r="J85" s="41">
+        <v>1100</v>
+      </c>
+      <c r="K85" s="41">
+        <v>2900</v>
+      </c>
+      <c r="L85" s="41">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 - Q1</v>
+      </c>
+      <c r="D86" s="29">
+        <v>85040</v>
+      </c>
+      <c r="E86" s="39">
+        <v>292136.09161158669</v>
+      </c>
+      <c r="F86" s="39">
+        <v>227383.36080709836</v>
+      </c>
+      <c r="G86" s="39">
+        <v>358376.86753368791</v>
+      </c>
+      <c r="H86" s="40">
+        <v>13590</v>
+      </c>
+      <c r="I86" s="41">
+        <v>8050</v>
+      </c>
+      <c r="J86" s="41">
+        <v>1160</v>
+      </c>
+      <c r="K86" s="41">
+        <v>3250</v>
+      </c>
+      <c r="L86" s="41">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 - Q2</v>
+      </c>
+      <c r="D87" s="29">
+        <v>86240</v>
+      </c>
+      <c r="E87" s="39">
+        <v>293927.33333333331</v>
+      </c>
+      <c r="F87" s="39">
+        <v>230524</v>
+      </c>
+      <c r="G87" s="39">
+        <v>359469.66666666669</v>
+      </c>
+      <c r="H87" s="40">
+        <v>15270</v>
+      </c>
+      <c r="I87" s="41">
+        <v>9390</v>
+      </c>
+      <c r="J87" s="41">
+        <v>1230</v>
+      </c>
+      <c r="K87" s="41">
+        <v>3540</v>
+      </c>
+      <c r="L87" s="41">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 - Q3</v>
+      </c>
+      <c r="D88" s="29">
+        <v>87390</v>
+      </c>
+      <c r="E88" s="39">
+        <v>307321.33333333331</v>
+      </c>
+      <c r="F88" s="39">
+        <v>234281.33333333334</v>
+      </c>
+      <c r="G88" s="39">
+        <v>377900.66666666669</v>
+      </c>
+      <c r="H88" s="40">
+        <v>15890</v>
+      </c>
+      <c r="I88" s="41">
+        <v>10180</v>
+      </c>
+      <c r="J88" s="41">
+        <v>1200</v>
+      </c>
+      <c r="K88" s="41">
+        <v>3830</v>
+      </c>
+      <c r="L88" s="41">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 - Q4</v>
+      </c>
+      <c r="D89" s="29">
+        <v>88310</v>
+      </c>
+      <c r="E89" s="39">
+        <v>306272.66666666669</v>
+      </c>
+      <c r="F89" s="39">
+        <v>234707.66666666666</v>
+      </c>
+      <c r="G89" s="39">
+        <v>374542.33333333331</v>
+      </c>
+      <c r="H89" s="40">
+        <v>15720</v>
+      </c>
+      <c r="I89" s="41">
+        <v>10210</v>
+      </c>
+      <c r="J89" s="41">
+        <v>1150</v>
+      </c>
+      <c r="K89" s="41">
+        <v>3880</v>
+      </c>
+      <c r="L89" s="41">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 - Q1</v>
+      </c>
+      <c r="D90" s="29">
+        <v>92190</v>
+      </c>
+      <c r="E90" s="39">
+        <v>308011</v>
+      </c>
+      <c r="F90" s="39">
+        <v>237095.66666666666</v>
+      </c>
+      <c r="G90" s="39">
+        <v>377961.66666666669</v>
+      </c>
+      <c r="H90" s="40">
+        <v>15910</v>
+      </c>
+      <c r="I90" s="41">
+        <v>10560</v>
+      </c>
+      <c r="J90" s="41">
+        <v>1050</v>
+      </c>
+      <c r="K90" s="41">
+        <v>3980</v>
+      </c>
+      <c r="L90" s="41">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 - Q2</v>
+      </c>
+      <c r="D91" s="29">
+        <v>98260</v>
+      </c>
+      <c r="E91" s="39">
+        <v>295366.66666666669</v>
+      </c>
+      <c r="F91" s="39">
+        <v>231253</v>
+      </c>
+      <c r="G91" s="39">
+        <v>365903.33333333331</v>
+      </c>
+      <c r="H91" s="40">
+        <v>16770</v>
+      </c>
+      <c r="I91" s="41">
+        <v>10440</v>
+      </c>
+      <c r="J91" s="41">
+        <v>1050</v>
+      </c>
+      <c r="K91" s="41">
+        <v>4790</v>
+      </c>
+      <c r="L91" s="41">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 - Q3</v>
+      </c>
+      <c r="D92" s="29">
+        <v>94610</v>
+      </c>
+      <c r="E92" s="39">
+        <v>333202.66666666669</v>
+      </c>
+      <c r="F92" s="39">
+        <v>253955.66666666666</v>
+      </c>
+      <c r="G92" s="39">
+        <v>408046.66666666669</v>
+      </c>
+      <c r="H92" s="40">
+        <v>15200</v>
+      </c>
+      <c r="I92" s="41">
+        <v>9140</v>
+      </c>
+      <c r="J92" s="41">
+        <v>850</v>
+      </c>
+      <c r="K92" s="41">
+        <v>4930</v>
+      </c>
+      <c r="L92" s="41">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 - Q4</v>
+      </c>
+      <c r="D93" s="29">
+        <v>95100</v>
+      </c>
+      <c r="E93" s="39">
+        <v>347266.66666666669</v>
+      </c>
+      <c r="F93" s="39">
+        <v>262106.66666666666</v>
+      </c>
+      <c r="G93" s="39">
+        <v>416700</v>
+      </c>
+      <c r="H93" s="40">
+        <v>15790</v>
+      </c>
+      <c r="I93" s="41">
+        <v>10160</v>
+      </c>
+      <c r="J93" s="41">
+        <v>790</v>
+      </c>
+      <c r="K93" s="41">
+        <v>4470</v>
+      </c>
+      <c r="L93" s="41">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2021 - Q1</v>
+      </c>
+      <c r="D94" s="29">
+        <v>95290</v>
+      </c>
+      <c r="E94" s="39">
+        <v>364031</v>
+      </c>
+      <c r="F94" s="39">
+        <v>272871.66666666669</v>
+      </c>
+      <c r="G94" s="39">
+        <v>427464.66666666669</v>
+      </c>
+      <c r="H94" s="40">
+        <v>15320</v>
+      </c>
+      <c r="I94" s="41">
+        <v>9830</v>
+      </c>
+      <c r="J94" s="41">
+        <v>740</v>
+      </c>
+      <c r="K94" s="41">
+        <v>4450</v>
+      </c>
+      <c r="L94" s="41">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2021 - Q2</v>
+      </c>
+      <c r="D95" s="29">
+        <v>95850</v>
+      </c>
+      <c r="E95" s="39">
+        <v>361983</v>
+      </c>
+      <c r="F95" s="39">
+        <v>271880.33333333331</v>
+      </c>
+      <c r="G95" s="39">
+        <v>435205</v>
+      </c>
+      <c r="H95" s="40">
+        <v>15560</v>
+      </c>
+      <c r="I95" s="41">
+        <v>9940</v>
+      </c>
+      <c r="J95" s="41">
+        <v>720</v>
+      </c>
+      <c r="K95" s="41">
+        <v>4560</v>
+      </c>
+      <c r="L95" s="41">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>2021 - Q3</v>
+      </c>
+      <c r="D96" s="29">
+        <v>96060</v>
+      </c>
+      <c r="E96" s="39">
+        <v>310666.33333333331</v>
+      </c>
+      <c r="F96" s="39">
+        <v>235991</v>
+      </c>
+      <c r="G96" s="39">
+        <v>386209</v>
+      </c>
+      <c r="H96" s="40">
+        <v>15010</v>
+      </c>
+      <c r="I96" s="41">
+        <v>10010</v>
+      </c>
+      <c r="J96" s="41">
+        <v>750</v>
+      </c>
+      <c r="K96" s="41">
+        <v>3980</v>
+      </c>
+      <c r="L96" s="41">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A6784B-8606-44D0-BE1A-51014B80E135}">
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7456,10 +11280,10 @@
         <v>1998</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="29">
         <v>47520</v>
@@ -7476,10 +11300,10 @@
         <v>1998</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="29">
         <v>49390</v>
@@ -7496,11 +11320,11 @@
         <v>1998</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="27" t="str">
-        <f t="shared" ref="C4:C35" si="0">_xlfn.CONCAT(A4,B4)</f>
-        <v>1998Q3</v>
+        <f>_xlfn.CONCAT(A4," - ",B4)</f>
+        <v>1998 - Q3</v>
       </c>
       <c r="D4" s="29">
         <v>52510</v>
@@ -7517,11 +11341,11 @@
         <v>1998</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>1998Q4</v>
+        <f>_xlfn.CONCAT(A5," - ",B5)</f>
+        <v>1998 - Q4</v>
       </c>
       <c r="D5" s="29">
         <v>53790</v>
@@ -7538,11 +11362,11 @@
         <v>1999</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>1999Q1</v>
+        <f t="shared" ref="C6:C69" si="0">_xlfn.CONCAT(A6," - ",B6)</f>
+        <v>1999 - Q1</v>
       </c>
       <c r="D6" s="29">
         <v>56580</v>
@@ -7559,11 +11383,11 @@
         <v>1999</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>1999Q2</v>
+        <v>1999 - Q2</v>
       </c>
       <c r="D7" s="29">
         <v>58430</v>
@@ -7580,11 +11404,11 @@
         <v>1999</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>1999Q3</v>
+        <v>1999 - Q3</v>
       </c>
       <c r="D8" s="29">
         <v>61450</v>
@@ -7601,11 +11425,11 @@
         <v>1999</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>1999Q4</v>
+        <v>1999 - Q4</v>
       </c>
       <c r="D9" s="29">
         <v>62180</v>
@@ -7622,11 +11446,11 @@
         <v>2000</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2000Q1</v>
+        <v>2000 - Q1</v>
       </c>
       <c r="D10" s="29">
         <v>65170</v>
@@ -7643,11 +11467,11 @@
         <v>2000</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2000Q2</v>
+        <v>2000 - Q2</v>
       </c>
       <c r="D11" s="29">
         <v>67520</v>
@@ -7664,11 +11488,11 @@
         <v>2000</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2000Q3</v>
+        <v>2000 - Q3</v>
       </c>
       <c r="D12" s="29">
         <v>71860</v>
@@ -7685,11 +11509,11 @@
         <v>2000</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2000Q4</v>
+        <v>2000 - Q4</v>
       </c>
       <c r="D13" s="29">
         <v>73080</v>
@@ -7706,11 +11530,11 @@
         <v>2001</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2001Q1</v>
+        <v>2001 - Q1</v>
       </c>
       <c r="D14" s="29">
         <v>75200</v>
@@ -7727,11 +11551,11 @@
         <v>2001</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2001Q2</v>
+        <v>2001 - Q2</v>
       </c>
       <c r="D15" s="29">
         <v>75920</v>
@@ -7748,11 +11572,11 @@
         <v>2001</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2001Q3</v>
+        <v>2001 - Q3</v>
       </c>
       <c r="D16" s="29">
         <v>77800</v>
@@ -7769,11 +11593,11 @@
         <v>2001</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2001Q4</v>
+        <v>2001 - Q4</v>
       </c>
       <c r="D17" s="29">
         <v>77510</v>
@@ -7790,11 +11614,11 @@
         <v>2002</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2002Q1</v>
+        <v>2002 - Q1</v>
       </c>
       <c r="D18" s="29">
         <v>80200</v>
@@ -7811,11 +11635,11 @@
         <v>2002</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2002Q2</v>
+        <v>2002 - Q2</v>
       </c>
       <c r="D19" s="29">
         <v>81660</v>
@@ -7832,11 +11656,11 @@
         <v>2002</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2002Q3</v>
+        <v>2002 - Q3</v>
       </c>
       <c r="D20" s="29">
         <v>85010</v>
@@ -7853,11 +11677,11 @@
         <v>2002</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2002Q4</v>
+        <v>2002 - Q4</v>
       </c>
       <c r="D21" s="29">
         <v>85140</v>
@@ -7874,11 +11698,11 @@
         <v>2003</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2003Q1</v>
+        <v>2003 - Q1</v>
       </c>
       <c r="D22" s="29">
         <v>89040</v>
@@ -7895,11 +11719,11 @@
         <v>2003</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2003Q2</v>
+        <v>2003 - Q2</v>
       </c>
       <c r="D23" s="29">
         <v>91870</v>
@@ -7916,11 +11740,11 @@
         <v>2003</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2003Q3</v>
+        <v>2003 - Q3</v>
       </c>
       <c r="D24" s="29">
         <v>94440</v>
@@ -7937,11 +11761,11 @@
         <v>2003</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2003Q4</v>
+        <v>2003 - Q4</v>
       </c>
       <c r="D25" s="29">
         <v>94610</v>
@@ -7958,11 +11782,11 @@
         <v>2004</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2004Q1</v>
+        <v>2004 - Q1</v>
       </c>
       <c r="D26" s="29">
         <v>97680</v>
@@ -7979,11 +11803,11 @@
         <v>2004</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2004Q2</v>
+        <v>2004 - Q2</v>
       </c>
       <c r="D27" s="29">
         <v>99530</v>
@@ -8000,11 +11824,11 @@
         <v>2004</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2004Q3</v>
+        <v>2004 - Q3</v>
       </c>
       <c r="D28" s="29">
         <v>101300</v>
@@ -8021,11 +11845,11 @@
         <v>2004</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2004Q4</v>
+        <v>2004 - Q4</v>
       </c>
       <c r="D29" s="29">
         <v>101030</v>
@@ -8042,11 +11866,11 @@
         <v>2005</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2005Q1</v>
+        <v>2005 - Q1</v>
       </c>
       <c r="D30" s="29">
         <v>101070</v>
@@ -8063,11 +11887,11 @@
         <v>2005</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2005Q2</v>
+        <v>2005 - Q2</v>
       </c>
       <c r="D31" s="29">
         <v>100970</v>
@@ -8084,11 +11908,11 @@
         <v>2005</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2005Q3</v>
+        <v>2005 - Q3</v>
       </c>
       <c r="D32" s="29">
         <v>101020</v>
@@ -8105,11 +11929,11 @@
         <v>2005</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2005Q4</v>
+        <v>2005 - Q4</v>
       </c>
       <c r="D33" s="29">
         <v>98730</v>
@@ -8126,11 +11950,11 @@
         <v>2006</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2006Q1</v>
+        <v>2006 - Q1</v>
       </c>
       <c r="D34" s="29">
         <v>96370</v>
@@ -8147,11 +11971,11 @@
         <v>2006</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2006Q2</v>
+        <v>2006 - Q2</v>
       </c>
       <c r="D35" s="29">
         <v>93910</v>
@@ -8168,11 +11992,11 @@
         <v>2006</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36" s="27" t="str">
-        <f t="shared" ref="C36:C67" si="1">_xlfn.CONCAT(A36,B36)</f>
-        <v>2006Q3</v>
+        <f t="shared" si="0"/>
+        <v>2006 - Q3</v>
       </c>
       <c r="D36" s="29">
         <v>93090</v>
@@ -8189,11 +12013,11 @@
         <v>2006</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C37" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2006Q4</v>
+        <f t="shared" si="0"/>
+        <v>2006 - Q4</v>
       </c>
       <c r="D37" s="29">
         <v>89510</v>
@@ -8210,11 +12034,11 @@
         <v>2007</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C38" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2007Q1</v>
+        <f t="shared" si="0"/>
+        <v>2007 - Q1</v>
       </c>
       <c r="D38" s="29">
         <v>87120</v>
@@ -8231,11 +12055,11 @@
         <v>2007</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C39" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2007Q2</v>
+        <f t="shared" si="0"/>
+        <v>2007 - Q2</v>
       </c>
       <c r="D39" s="29">
         <v>84900</v>
@@ -8252,11 +12076,11 @@
         <v>2007</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2007Q3</v>
+        <f t="shared" si="0"/>
+        <v>2007 - Q3</v>
       </c>
       <c r="D40" s="29">
         <v>82750</v>
@@ -8273,11 +12097,11 @@
         <v>2007</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2007Q4</v>
+        <f t="shared" si="0"/>
+        <v>2007 - Q4</v>
       </c>
       <c r="D41" s="29">
         <v>79500</v>
@@ -8294,11 +12118,11 @@
         <v>2008</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C42" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2008Q1</v>
+        <f t="shared" si="0"/>
+        <v>2008 - Q1</v>
       </c>
       <c r="D42" s="29">
         <v>77510</v>
@@ -8315,11 +12139,11 @@
         <v>2008</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C43" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2008Q2</v>
+        <f t="shared" si="0"/>
+        <v>2008 - Q2</v>
       </c>
       <c r="D43" s="29">
         <v>74690</v>
@@ -8336,11 +12160,11 @@
         <v>2008</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2008Q3</v>
+        <f t="shared" si="0"/>
+        <v>2008 - Q3</v>
       </c>
       <c r="D44" s="29">
         <v>72130</v>
@@ -8357,11 +12181,11 @@
         <v>2008</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C45" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2008Q4</v>
+        <f t="shared" si="0"/>
+        <v>2008 - Q4</v>
       </c>
       <c r="D45" s="29">
         <v>67480</v>
@@ -8378,11 +12202,11 @@
         <v>2009</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C46" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2009Q1</v>
+        <f t="shared" si="0"/>
+        <v>2009 - Q1</v>
       </c>
       <c r="D46" s="29">
         <v>64000</v>
@@ -8399,11 +12223,11 @@
         <v>2009</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C47" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2009Q2</v>
+        <f t="shared" si="0"/>
+        <v>2009 - Q2</v>
       </c>
       <c r="D47" s="29">
         <v>60230</v>
@@ -8420,11 +12244,11 @@
         <v>2009</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2009Q3</v>
+        <f t="shared" si="0"/>
+        <v>2009 - Q3</v>
       </c>
       <c r="D48" s="29">
         <v>56920</v>
@@ -8441,11 +12265,11 @@
         <v>2009</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2009Q4</v>
+        <f t="shared" si="0"/>
+        <v>2009 - Q4</v>
       </c>
       <c r="D49" s="29">
         <v>53370</v>
@@ -8462,11 +12286,11 @@
         <v>2010</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C50" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2010Q1</v>
+        <f t="shared" si="0"/>
+        <v>2010 - Q1</v>
       </c>
       <c r="D50" s="29">
         <v>51310</v>
@@ -8483,11 +12307,11 @@
         <v>2010</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C51" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2010Q2</v>
+        <f t="shared" si="0"/>
+        <v>2010 - Q2</v>
       </c>
       <c r="D51" s="29">
         <v>50400</v>
@@ -8504,11 +12328,11 @@
         <v>2010</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C52" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2010Q3</v>
+        <f t="shared" si="0"/>
+        <v>2010 - Q3</v>
       </c>
       <c r="D52" s="29">
         <v>49680</v>
@@ -8525,11 +12349,11 @@
         <v>2010</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C53" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2010Q4</v>
+        <f t="shared" si="0"/>
+        <v>2010 - Q4</v>
       </c>
       <c r="D53" s="29">
         <v>48010</v>
@@ -8546,11 +12370,11 @@
         <v>2011</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C54" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2011Q1</v>
+        <f t="shared" si="0"/>
+        <v>2011 - Q1</v>
       </c>
       <c r="D54" s="29">
         <v>48240</v>
@@ -8567,11 +12391,11 @@
         <v>2011</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C55" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2011Q2</v>
+        <f t="shared" si="0"/>
+        <v>2011 - Q2</v>
       </c>
       <c r="D55" s="29">
         <v>48330</v>
@@ -8588,11 +12412,11 @@
         <v>2011</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2011Q3</v>
+        <f t="shared" si="0"/>
+        <v>2011 - Q3</v>
       </c>
       <c r="D56" s="29">
         <v>49100</v>
@@ -8609,11 +12433,11 @@
         <v>2011</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C57" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2011Q4</v>
+        <f t="shared" si="0"/>
+        <v>2011 - Q4</v>
       </c>
       <c r="D57" s="29">
         <v>48920</v>
@@ -8630,11 +12454,11 @@
         <v>2012</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C58" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2012Q1</v>
+        <f t="shared" si="0"/>
+        <v>2012 - Q1</v>
       </c>
       <c r="D58" s="29">
         <v>50430</v>
@@ -8651,11 +12475,11 @@
         <v>2012</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C59" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2012Q2</v>
+        <f t="shared" si="0"/>
+        <v>2012 - Q2</v>
       </c>
       <c r="D59" s="29">
         <v>51630</v>
@@ -8672,11 +12496,11 @@
         <v>2012</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C60" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2012Q3</v>
+        <f t="shared" si="0"/>
+        <v>2012 - Q3</v>
       </c>
       <c r="D60" s="29">
         <v>52960</v>
@@ -8693,11 +12517,11 @@
         <v>2012</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C61" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2012Q4</v>
+        <f t="shared" si="0"/>
+        <v>2012 - Q4</v>
       </c>
       <c r="D61" s="29">
         <v>53140</v>
@@ -8714,11 +12538,11 @@
         <v>2013</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C62" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2013Q1</v>
+        <f t="shared" si="0"/>
+        <v>2013 - Q1</v>
       </c>
       <c r="D62" s="29">
         <v>55320</v>
@@ -8735,11 +12559,11 @@
         <v>2013</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C63" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2013Q2</v>
+        <f t="shared" si="0"/>
+        <v>2013 - Q2</v>
       </c>
       <c r="D63" s="29">
         <v>55840</v>
@@ -8756,11 +12580,11 @@
         <v>2013</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C64" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2013Q3</v>
+        <f t="shared" si="0"/>
+        <v>2013 - Q3</v>
       </c>
       <c r="D64" s="29">
         <v>57410</v>
@@ -8777,11 +12601,11 @@
         <v>2013</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C65" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2013Q4</v>
+        <f t="shared" si="0"/>
+        <v>2013 - Q4</v>
       </c>
       <c r="D65" s="29">
         <v>56940</v>
@@ -8798,11 +12622,11 @@
         <v>2014</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C66" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2014Q1</v>
+        <f t="shared" si="0"/>
+        <v>2014 - Q1</v>
       </c>
       <c r="D66" s="29">
         <v>58410</v>
@@ -8819,11 +12643,11 @@
         <v>2014</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>2014Q2</v>
+        <f t="shared" si="0"/>
+        <v>2014 - Q2</v>
       </c>
       <c r="D67" s="29">
         <v>59570</v>
@@ -8840,11 +12664,11 @@
         <v>2014</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C68" s="27" t="str">
-        <f t="shared" ref="C68:C96" si="2">_xlfn.CONCAT(A68,B68)</f>
-        <v>2014Q3</v>
+        <f t="shared" si="0"/>
+        <v>2014 - Q3</v>
       </c>
       <c r="D68" s="29">
         <v>60900</v>
@@ -8861,11 +12685,11 @@
         <v>2014</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C69" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2014Q4</v>
+        <f t="shared" si="0"/>
+        <v>2014 - Q4</v>
       </c>
       <c r="D69" s="29">
         <v>61930</v>
@@ -8882,11 +12706,11 @@
         <v>2015</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C70" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2015Q1</v>
+        <f t="shared" ref="C70:C96" si="1">_xlfn.CONCAT(A70," - ",B70)</f>
+        <v>2015 - Q1</v>
       </c>
       <c r="D70" s="29">
         <v>64710</v>
@@ -8903,11 +12727,11 @@
         <v>2015</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C71" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2015Q2</v>
+        <f t="shared" si="1"/>
+        <v>2015 - Q2</v>
       </c>
       <c r="D71" s="29">
         <v>66980</v>
@@ -8924,11 +12748,11 @@
         <v>2015</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C72" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2015Q3</v>
+        <f t="shared" si="1"/>
+        <v>2015 - Q3</v>
       </c>
       <c r="D72" s="29">
         <v>68560</v>
@@ -8945,11 +12769,11 @@
         <v>2015</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C73" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2015Q4</v>
+        <f t="shared" si="1"/>
+        <v>2015 - Q4</v>
       </c>
       <c r="D73" s="29">
         <v>69140</v>
@@ -8966,11 +12790,11 @@
         <v>2016</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C74" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2016Q1</v>
+        <f t="shared" si="1"/>
+        <v>2016 - Q1</v>
       </c>
       <c r="D74" s="29">
         <v>71670</v>
@@ -8987,11 +12811,11 @@
         <v>2016</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C75" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2016Q2</v>
+        <f t="shared" si="1"/>
+        <v>2016 - Q2</v>
       </c>
       <c r="D75" s="29">
         <v>73050</v>
@@ -9008,11 +12832,11 @@
         <v>2016</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C76" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2016Q3</v>
+        <f t="shared" si="1"/>
+        <v>2016 - Q3</v>
       </c>
       <c r="D76" s="29">
         <v>74750</v>
@@ -9029,11 +12853,11 @@
         <v>2016</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C77" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2016Q4</v>
+        <f t="shared" si="1"/>
+        <v>2016 - Q4</v>
       </c>
       <c r="D77" s="29">
         <v>75740</v>
@@ -9050,11 +12874,11 @@
         <v>2017</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C78" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2017Q1</v>
+        <f t="shared" si="1"/>
+        <v>2017 - Q1</v>
       </c>
       <c r="D78" s="29">
         <v>77220</v>
@@ -9071,11 +12895,11 @@
         <v>2017</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2017Q2</v>
+        <f t="shared" si="1"/>
+        <v>2017 - Q2</v>
       </c>
       <c r="D79" s="29">
         <v>78540</v>
@@ -9092,11 +12916,11 @@
         <v>2017</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C80" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2017Q3</v>
+        <f t="shared" si="1"/>
+        <v>2017 - Q3</v>
       </c>
       <c r="D80" s="29">
         <v>79830</v>
@@ -9113,11 +12937,11 @@
         <v>2017</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C81" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2017Q4</v>
+        <f t="shared" si="1"/>
+        <v>2017 - Q4</v>
       </c>
       <c r="D81" s="29">
         <v>79720</v>
@@ -9134,11 +12958,11 @@
         <v>2018</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C82" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2018Q1</v>
+        <f t="shared" si="1"/>
+        <v>2018 - Q1</v>
       </c>
       <c r="D82" s="29">
         <v>80720</v>
@@ -9155,11 +12979,11 @@
         <v>2018</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2018Q2</v>
+        <f t="shared" si="1"/>
+        <v>2018 - Q2</v>
       </c>
       <c r="D83" s="29">
         <v>82390</v>
@@ -9176,11 +13000,11 @@
         <v>2018</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C84" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2018Q3</v>
+        <f t="shared" si="1"/>
+        <v>2018 - Q3</v>
       </c>
       <c r="D84" s="29">
         <v>83430</v>
@@ -9197,11 +13021,11 @@
         <v>2018</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2018Q4</v>
+        <f t="shared" si="1"/>
+        <v>2018 - Q4</v>
       </c>
       <c r="D85" s="29">
         <v>83540</v>
@@ -9218,11 +13042,11 @@
         <v>2019</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C86" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2019Q1</v>
+        <f t="shared" si="1"/>
+        <v>2019 - Q1</v>
       </c>
       <c r="D86" s="29">
         <v>85040</v>
@@ -9239,11 +13063,11 @@
         <v>2019</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C87" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2019Q2</v>
+        <f t="shared" si="1"/>
+        <v>2019 - Q2</v>
       </c>
       <c r="D87" s="29">
         <v>86240</v>
@@ -9260,11 +13084,11 @@
         <v>2019</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C88" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2019Q3</v>
+        <f t="shared" si="1"/>
+        <v>2019 - Q3</v>
       </c>
       <c r="D88" s="29">
         <v>87390</v>
@@ -9281,11 +13105,11 @@
         <v>2019</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C89" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2019Q4</v>
+        <f t="shared" si="1"/>
+        <v>2019 - Q4</v>
       </c>
       <c r="D89" s="29">
         <v>88310</v>
@@ -9302,11 +13126,11 @@
         <v>2020</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C90" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2020Q1</v>
+        <f t="shared" si="1"/>
+        <v>2020 - Q1</v>
       </c>
       <c r="D90" s="29">
         <v>92190</v>
@@ -9323,11 +13147,11 @@
         <v>2020</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C91" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2020Q2</v>
+        <f t="shared" si="1"/>
+        <v>2020 - Q2</v>
       </c>
       <c r="D91" s="29">
         <v>98260</v>
@@ -9344,11 +13168,11 @@
         <v>2020</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C92" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2020Q3</v>
+        <f t="shared" si="1"/>
+        <v>2020 - Q3</v>
       </c>
       <c r="D92" s="29">
         <v>94610</v>
@@ -9365,11 +13189,11 @@
         <v>2020</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C93" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2020Q4</v>
+        <f t="shared" si="1"/>
+        <v>2020 - Q4</v>
       </c>
       <c r="D93" s="29">
         <v>95100</v>
@@ -9386,11 +13210,11 @@
         <v>2021</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C94" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2021Q1</v>
+        <f t="shared" si="1"/>
+        <v>2021 - Q1</v>
       </c>
       <c r="D94" s="29">
         <v>95290</v>
@@ -9407,11 +13231,11 @@
         <v>2021</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C95" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2021Q2</v>
+        <f t="shared" si="1"/>
+        <v>2021 - Q2</v>
       </c>
       <c r="D95" s="29">
         <v>95850</v>
@@ -9428,11 +13252,11 @@
         <v>2021</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C96" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>2021Q3</v>
+        <f t="shared" si="1"/>
+        <v>2021 - Q3</v>
       </c>
       <c r="D96" s="29">
         <v>96060</v>
@@ -9450,575 +13274,575 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D5BFE1-3795-4D18-834C-B2475DF174D9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
-      <c r="A2" s="65">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="55">
         <v>2002</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="56">
         <v>1093342</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="57">
         <v>67000</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="58">
         <v>123840</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="59">
         <v>4.41</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="60">
         <v>14755</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="61">
         <v>20553236</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="65">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="55">
         <v>2003</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="56">
         <v>1263931</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="57">
         <v>80000</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="58">
         <v>135580</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="59">
         <v>5.17</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="60">
         <v>15293</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="61">
         <v>20650943</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="65">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="55">
         <v>2004</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="56">
         <v>1434874</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="57">
         <v>100000</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="58">
         <v>127750</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="59">
         <v>6.16</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="60">
         <v>15909</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="61">
         <v>20751955</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="65">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="55">
         <v>2005</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="56">
         <v>1543337</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="57">
         <v>112500</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="58">
         <v>100170</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="59">
         <v>6.7</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="60">
         <v>16427</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="61">
         <v>20925683</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="65">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="55">
         <v>2006</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="56">
         <v>1634301</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="57">
         <v>119995</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="58">
         <v>76860</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="59">
         <v>7.15</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="60">
         <v>16645</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="61">
         <v>21071616</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="65">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="55">
         <v>2007</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="56">
         <v>1674421</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="57">
         <v>125000</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="58">
         <v>64970</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="59">
         <v>7.26</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="60">
         <v>17227</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="61">
         <v>21223341</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="72">
+      <c r="H7" s="57"/>
+      <c r="I7" s="62">
         <v>366820</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="65">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="55">
         <v>2008</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="56">
         <v>1769939</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="57">
         <v>125000</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="58">
         <v>57510</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="59">
         <v>6.96</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="60">
         <v>17968</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="61">
         <v>21399891</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="72">
+      <c r="H8" s="57"/>
+      <c r="I8" s="62">
         <v>379082</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
-      <c r="A9" s="65">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" s="55">
         <v>2009</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="56">
         <v>1763140</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="57">
         <v>120000</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="58">
         <v>41780</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="59">
         <v>6.41</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="60">
         <v>18395</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="61">
         <v>21561859</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="63">
         <v>40550</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="62">
         <v>367755</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
-      <c r="A10" s="65">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="55">
         <v>2010</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="56">
         <v>1740997</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="57">
         <v>127500</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="58">
         <v>42390</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="59">
         <v>6.76</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="60">
         <v>18495</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="61">
         <v>21742577</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="63">
         <v>43040</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="62">
         <v>393625</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
-      <c r="A11" s="65">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="55">
         <v>2011</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="56">
         <v>1813559</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="57">
         <v>125000</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="58">
         <v>48510</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="59">
         <v>6.64</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="60">
         <v>18528</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="61">
         <v>21976219</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="63">
         <v>35558</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="62">
         <v>389805</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="65">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="55">
         <v>2012</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="64">
         <v>1850929</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="57">
         <v>125000</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="65">
         <v>53480</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="59">
         <v>6.61</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="60">
         <v>18920</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="61">
         <v>22130484</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="63">
         <v>28600</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="62">
         <v>350135</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="65">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A13" s="55">
         <v>2013</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="64">
         <v>1685814</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="57">
         <v>127000</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="58">
         <v>53210</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="59">
         <v>6.51</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="60">
         <v>19215</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="61">
         <v>22291124</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="63">
         <v>27606</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="62">
         <v>359077</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="65">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="55">
         <v>2014</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="64">
         <v>1368312</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="57">
         <v>134000</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="58">
         <v>53410</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="59">
         <v>6.73</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="60">
         <v>19317</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="61">
         <v>22487754</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="63">
         <v>40864</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="62">
         <v>345279</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="65">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A15" s="55">
         <v>2015</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="64">
         <v>1255613</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="57">
         <v>139950</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="58">
         <v>56500</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="59">
         <v>6.94</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="60">
         <v>19583</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="61">
         <v>22681178</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="63">
         <v>17390</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="62">
         <v>327448.30018399446</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="65">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A16" s="55">
         <v>2016</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="64">
         <v>1183779</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="57">
         <v>145000</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="58">
         <v>59260</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="59">
         <v>7.05</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="60">
         <v>20141</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="61">
         <v>22884180</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="63">
         <v>22885</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="62">
         <v>290060.03519140871</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
-      <c r="A17" s="65">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A17" s="55">
         <v>2017</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="64">
         <v>1157044</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="57">
         <v>150000</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="66">
         <v>57890</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="59">
         <v>7.15</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="60">
         <v>20569</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="61">
         <v>23047198</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="63">
         <v>25862</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="62">
         <v>272805.656815511</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1">
-      <c r="A18" s="65">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A18" s="55">
         <v>2018</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="64">
         <v>1115285</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="57">
         <v>156000</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="58">
         <v>35770</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="59">
         <v>7.18</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="60">
         <v>21165</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="61">
         <v>23204246</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="63">
         <v>28716</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="67">
         <v>272829.93613078265</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
-      <c r="A19" s="65">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A19" s="55">
         <v>2019</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="64">
         <v>1159833</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="57">
         <v>160000</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="58">
         <v>37830</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="59">
         <v>7.05</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="57">
         <v>21985</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="73">
+      <c r="G19" s="57"/>
+      <c r="H19" s="63">
         <v>28226</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="67">
         <v>264239.22071551759</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="78">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A20" s="68">
         <v>2020</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="64">
         <v>1145501</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="57">
         <v>164000</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="58">
         <v>40300</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="69">
         <v>7.01</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="57">
         <v>22813</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="73">
+      <c r="G20" s="57"/>
+      <c r="H20" s="63">
         <v>24002</v>
       </c>
-      <c r="I20" s="67"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="74"/>
-      <c r="H21" s="73">
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="64"/>
+      <c r="H21" s="63">
         <v>10007</v>
       </c>
     </row>
